--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -556,13 +556,17 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20.2</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -591,14 +595,22 @@
         <v>20.04</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,8 +644,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -667,8 +685,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,8 +726,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -737,8 +767,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -772,8 +808,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -807,8 +849,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -842,8 +890,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -877,8 +931,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,8 +972,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +1013,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1054,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1095,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1136,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1177,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1116,18 +1212,20 @@
         <v>20.13999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>20</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>20</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
+        <v>20.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1155,20 +1253,18 @@
         <v>20.04</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1198,16 +1294,14 @@
         <v>19.96</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>20</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1241,16 +1335,14 @@
         <v>20.02</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>20</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1284,16 +1376,14 @@
         <v>20.07999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>20.3</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1327,16 +1417,14 @@
         <v>20.13999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>20.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1370,16 +1458,14 @@
         <v>20.23999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>20.4</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1413,16 +1499,14 @@
         <v>20.29999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>20.4</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1456,16 +1540,14 @@
         <v>20.34</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>20.4</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1499,16 +1581,14 @@
         <v>20.35999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>20.4</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1542,16 +1622,14 @@
         <v>20.34</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>20.2</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1585,16 +1663,14 @@
         <v>20.21999999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>20</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1628,16 +1704,14 @@
         <v>20.23999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>20.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1671,16 +1745,14 @@
         <v>20.23999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>20.2</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1714,16 +1786,14 @@
         <v>20.29999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>20.2</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1757,16 +1827,14 @@
         <v>20.29999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>20.2</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1800,16 +1868,14 @@
         <v>20.4</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>20.4</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1843,16 +1909,14 @@
         <v>20.4</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1886,16 +1950,14 @@
         <v>20.41999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1936,7 +1998,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1970,16 +2032,14 @@
         <v>20.19999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2013,16 +2073,14 @@
         <v>20.07999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2056,16 +2114,14 @@
         <v>19.99999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>20.1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2099,16 +2155,14 @@
         <v>19.91999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2142,16 +2196,14 @@
         <v>19.89999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>20</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2185,16 +2237,14 @@
         <v>19.91999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>20</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2228,16 +2278,14 @@
         <v>19.93999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>20</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2271,16 +2319,14 @@
         <v>19.89999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2314,16 +2360,14 @@
         <v>19.95999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>20.1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2357,16 +2401,14 @@
         <v>20.11999999999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>20.2</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2400,16 +2442,14 @@
         <v>20.11999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>20.4</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2443,16 +2483,14 @@
         <v>20.15999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>20.1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2486,16 +2524,14 @@
         <v>20.21999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>20.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2529,16 +2565,14 @@
         <v>20.27999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2572,16 +2606,14 @@
         <v>20.23999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2615,16 +2647,14 @@
         <v>20.35999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2665,7 +2695,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2706,7 +2736,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2747,7 +2777,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2788,7 +2818,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2829,7 +2859,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2870,7 +2900,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2911,7 +2941,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2948,19 +2978,19 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2989,11 +3019,17 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +3060,17 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +3101,17 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +3142,17 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3132,8 +3186,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3167,8 +3227,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3202,8 +3268,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3237,8 +3309,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3272,8 +3350,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3307,8 +3391,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3342,8 +3432,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3377,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3412,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3447,8 +3555,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3482,8 +3596,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3517,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3552,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3587,8 +3719,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3657,8 +3801,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3692,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3727,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3762,8 +3924,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3797,8 +3965,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3832,8 +4006,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3867,8 +4047,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3902,8 +4088,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3934,13 +4126,19 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>1.069257425742574</v>
       </c>
     </row>
     <row r="93">

--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="E2" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="F2" t="n">
-        <v>88957</v>
+        <v>1997</v>
       </c>
       <c r="G2" t="n">
-        <v>20.42</v>
+        <v>21.21666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="E3" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="F3" t="n">
-        <v>6835</v>
+        <v>88957</v>
       </c>
       <c r="G3" t="n">
-        <v>20.26</v>
+        <v>21.18166666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>6835</v>
       </c>
       <c r="G4" t="n">
-        <v>20.12</v>
+        <v>21.155</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,23 +550,19 @@
         <v>20.2</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>21.13166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20.2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -580,37 +576,29 @@
         <v>20.2</v>
       </c>
       <c r="C6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="D6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="E6" t="n">
         <v>20.2</v>
       </c>
       <c r="F6" t="n">
-        <v>10376</v>
+        <v>64</v>
       </c>
       <c r="G6" t="n">
-        <v>20.04</v>
+        <v>21.10833333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -620,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C7" t="n">
         <v>20.3</v>
       </c>
-      <c r="C7" t="n">
-        <v>21.5</v>
-      </c>
       <c r="D7" t="n">
-        <v>21.6</v>
+        <v>20.3</v>
       </c>
       <c r="E7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="F7" t="n">
-        <v>31190.232</v>
+        <v>10376</v>
       </c>
       <c r="G7" t="n">
-        <v>20.44</v>
+        <v>21.08666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -644,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -661,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="C8" t="n">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="D8" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="E8" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="F8" t="n">
-        <v>524</v>
+        <v>31190.232</v>
       </c>
       <c r="G8" t="n">
-        <v>20.52</v>
+        <v>21.08666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -685,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -714,10 +690,10 @@
         <v>20.4</v>
       </c>
       <c r="F9" t="n">
-        <v>1436.784</v>
+        <v>524</v>
       </c>
       <c r="G9" t="n">
-        <v>20.56</v>
+        <v>21.065</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -743,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="D10" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="F10" t="n">
-        <v>6000</v>
+        <v>1436.784</v>
       </c>
       <c r="G10" t="n">
-        <v>20.52</v>
+        <v>21.05166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -767,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -784,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G11" t="n">
-        <v>20.46</v>
+        <v>21.02166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -808,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -828,19 +786,19 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>5576.4681</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="n">
-        <v>20.02</v>
+        <v>20.99000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -849,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -866,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>20.1</v>
+        <v>19.3</v>
       </c>
       <c r="D13" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>20.1</v>
+        <v>19.3</v>
       </c>
       <c r="F13" t="n">
-        <v>4000</v>
+        <v>5576.4681</v>
       </c>
       <c r="G13" t="n">
-        <v>19.96</v>
+        <v>20.955</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -890,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -919,10 +865,10 @@
         <v>20.1</v>
       </c>
       <c r="F14" t="n">
-        <v>17.2376</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="n">
-        <v>19.9</v>
+        <v>20.925</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -931,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -948,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="C15" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="D15" t="n">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="E15" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="F15" t="n">
-        <v>19969.7249</v>
+        <v>17.2376</v>
       </c>
       <c r="G15" t="n">
-        <v>20.01999999999999</v>
+        <v>20.90333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -972,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -989,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C16" t="n">
         <v>20.6</v>
       </c>
-      <c r="C16" t="n">
-        <v>20.2</v>
-      </c>
       <c r="D16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E16" t="n">
         <v>20.2</v>
       </c>
       <c r="F16" t="n">
-        <v>29805</v>
+        <v>19969.7249</v>
       </c>
       <c r="G16" t="n">
-        <v>20.06</v>
+        <v>20.87833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1013,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1030,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="C17" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="D17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="E17" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="F17" t="n">
-        <v>2000</v>
+        <v>29805</v>
       </c>
       <c r="G17" t="n">
-        <v>20.29999999999999</v>
+        <v>20.85333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1054,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1083,10 +1005,10 @@
         <v>20.5</v>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G18" t="n">
-        <v>20.38</v>
+        <v>20.83833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1095,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1112,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="C19" t="n">
-        <v>19.7</v>
+        <v>20.5</v>
       </c>
       <c r="D19" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="E19" t="n">
-        <v>19.7</v>
+        <v>20.5</v>
       </c>
       <c r="F19" t="n">
         <v>4000</v>
       </c>
       <c r="G19" t="n">
-        <v>20.29999999999999</v>
+        <v>20.82</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1136,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1153,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="F20" t="n">
-        <v>4367.1142</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="n">
-        <v>20.18</v>
+        <v>20.78166666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1177,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1206,10 +1110,10 @@
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>5589.8198</v>
+        <v>4367.1142</v>
       </c>
       <c r="G21" t="n">
-        <v>20.13999999999999</v>
+        <v>20.75666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1218,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1235,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>20</v>
@@ -1244,13 +1142,13 @@
         <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>16744.0653</v>
+        <v>5589.8198</v>
       </c>
       <c r="G22" t="n">
-        <v>20.04</v>
+        <v>20.73166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1259,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1276,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>20.1</v>
-      </c>
       <c r="D23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="F23" t="n">
-        <v>13727.0653</v>
+        <v>16744.0653</v>
       </c>
       <c r="G23" t="n">
-        <v>19.96</v>
+        <v>20.70166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1300,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1320,19 +1206,19 @@
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
       </c>
       <c r="F24" t="n">
-        <v>24587.1797</v>
+        <v>13727.0653</v>
       </c>
       <c r="G24" t="n">
-        <v>20.02</v>
+        <v>20.67166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1341,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1358,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
-        <v>39.1133</v>
+        <v>24587.1797</v>
       </c>
       <c r="G25" t="n">
-        <v>20.07999999999999</v>
+        <v>20.63999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1382,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1411,10 +1285,10 @@
         <v>20.3</v>
       </c>
       <c r="F26" t="n">
-        <v>760.8867</v>
+        <v>39.1133</v>
       </c>
       <c r="G26" t="n">
-        <v>20.13999999999999</v>
+        <v>20.61999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1423,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1440,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="C27" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="D27" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="E27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="F27" t="n">
-        <v>50524.5597</v>
+        <v>760.8867</v>
       </c>
       <c r="G27" t="n">
-        <v>20.23999999999999</v>
+        <v>20.60166666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1464,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1484,19 +1346,19 @@
         <v>20.4</v>
       </c>
       <c r="C28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="D28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="E28" t="n">
         <v>20.4</v>
       </c>
       <c r="F28" t="n">
-        <v>12000</v>
+        <v>50524.5597</v>
       </c>
       <c r="G28" t="n">
-        <v>20.29999999999999</v>
+        <v>20.58333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1505,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1525,19 +1381,19 @@
         <v>20.4</v>
       </c>
       <c r="C29" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="D29" t="n">
         <v>20.4</v>
       </c>
       <c r="E29" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="F29" t="n">
-        <v>58974.0881</v>
+        <v>12000</v>
       </c>
       <c r="G29" t="n">
-        <v>20.34</v>
+        <v>20.56999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1546,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1566,19 +1416,19 @@
         <v>20.4</v>
       </c>
       <c r="C30" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="D30" t="n">
         <v>20.4</v>
       </c>
       <c r="E30" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="F30" t="n">
-        <v>18131.7073</v>
+        <v>58974.0881</v>
       </c>
       <c r="G30" t="n">
-        <v>20.35999999999999</v>
+        <v>20.55166666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1587,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="C31" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="D31" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="E31" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="F31" t="n">
-        <v>6000</v>
+        <v>18131.7073</v>
       </c>
       <c r="G31" t="n">
-        <v>20.34</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1628,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1645,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="C32" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="E32" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="F32" t="n">
-        <v>46691.2785</v>
+        <v>6000</v>
       </c>
       <c r="G32" t="n">
-        <v>20.21999999999999</v>
+        <v>20.51166666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1669,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1686,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="D33" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="F33" t="n">
-        <v>8305</v>
+        <v>46691.2785</v>
       </c>
       <c r="G33" t="n">
-        <v>20.23999999999999</v>
+        <v>20.48333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1710,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1727,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="C34" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="D34" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="E34" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="F34" t="n">
-        <v>7744.596</v>
+        <v>8305</v>
       </c>
       <c r="G34" t="n">
-        <v>20.23999999999999</v>
+        <v>20.465</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1751,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1771,19 +1591,19 @@
         <v>20.2</v>
       </c>
       <c r="C35" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="D35" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="E35" t="n">
         <v>20.2</v>
       </c>
       <c r="F35" t="n">
-        <v>66168</v>
+        <v>7744.596</v>
       </c>
       <c r="G35" t="n">
-        <v>20.29999999999999</v>
+        <v>20.44666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1792,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1812,19 +1626,19 @@
         <v>20.2</v>
       </c>
       <c r="C36" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="D36" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="E36" t="n">
         <v>20.2</v>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>66168</v>
       </c>
       <c r="G36" t="n">
-        <v>20.29999999999999</v>
+        <v>20.445</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1833,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1850,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="C37" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="D37" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="E37" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="F37" t="n">
         <v>800</v>
       </c>
       <c r="G37" t="n">
-        <v>20.4</v>
+        <v>20.43333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1874,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1891,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="C38" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="D38" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E38" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F38" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="G38" t="n">
-        <v>20.4</v>
+        <v>20.42000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1915,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1935,19 +1731,19 @@
         <v>20.5</v>
       </c>
       <c r="C39" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="D39" t="n">
         <v>20.5</v>
       </c>
       <c r="E39" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="F39" t="n">
-        <v>5879</v>
+        <v>1400</v>
       </c>
       <c r="G39" t="n">
-        <v>20.41999999999999</v>
+        <v>20.41000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1956,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>5879</v>
       </c>
       <c r="G40" t="n">
-        <v>20.27999999999999</v>
+        <v>20.395</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1997,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2014,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="C41" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="F41" t="n">
-        <v>156024.6623</v>
+        <v>800</v>
       </c>
       <c r="G41" t="n">
-        <v>20.19999999999999</v>
+        <v>20.375</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2038,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2067,10 +1845,10 @@
         <v>19.8</v>
       </c>
       <c r="F42" t="n">
-        <v>121884.2817</v>
+        <v>156024.6623</v>
       </c>
       <c r="G42" t="n">
-        <v>20.07999999999999</v>
+        <v>20.35</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2079,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2096,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="C43" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="D43" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="E43" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1444.4776</v>
+        <v>121884.2817</v>
       </c>
       <c r="G43" t="n">
-        <v>19.99999999999999</v>
+        <v>20.335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2120,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2137,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="C44" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="D44" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="E44" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="F44" t="n">
-        <v>73934.0793</v>
+        <v>1444.4776</v>
       </c>
       <c r="G44" t="n">
-        <v>19.91999999999999</v>
+        <v>20.325</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2161,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="C45" t="n">
         <v>19.9</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="E45" t="n">
         <v>19.9</v>
       </c>
       <c r="F45" t="n">
-        <v>85525.5095</v>
+        <v>73934.0793</v>
       </c>
       <c r="G45" t="n">
-        <v>19.89999999999999</v>
+        <v>20.31166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2202,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2231,10 +1985,10 @@
         <v>19.9</v>
       </c>
       <c r="F46" t="n">
-        <v>17200.7938</v>
+        <v>85525.5095</v>
       </c>
       <c r="G46" t="n">
-        <v>19.91999999999999</v>
+        <v>20.29666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2243,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2272,10 +2020,10 @@
         <v>19.9</v>
       </c>
       <c r="F47" t="n">
-        <v>13483.6479</v>
+        <v>17200.7938</v>
       </c>
       <c r="G47" t="n">
-        <v>19.93999999999999</v>
+        <v>20.28333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2284,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2301,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="C48" t="n">
         <v>19.9</v>
       </c>
       <c r="D48" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="E48" t="n">
         <v>19.9</v>
       </c>
       <c r="F48" t="n">
-        <v>63595.781</v>
+        <v>13483.6479</v>
       </c>
       <c r="G48" t="n">
-        <v>19.89999999999999</v>
+        <v>20.27</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2325,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2342,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="C49" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="D49" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="E49" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="F49" t="n">
-        <v>4380</v>
+        <v>63595.781</v>
       </c>
       <c r="G49" t="n">
-        <v>19.95999999999999</v>
+        <v>20.25666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2366,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2383,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C50" t="n">
         <v>20.2</v>
       </c>
-      <c r="C50" t="n">
-        <v>20.7</v>
-      </c>
       <c r="D50" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="E50" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="F50" t="n">
-        <v>2399</v>
+        <v>4380</v>
       </c>
       <c r="G50" t="n">
-        <v>20.11999999999999</v>
+        <v>20.25000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2407,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2424,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="C51" t="n">
-        <v>19.9</v>
+        <v>20.7</v>
       </c>
       <c r="D51" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="E51" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="F51" t="n">
-        <v>28176</v>
+        <v>2399</v>
       </c>
       <c r="G51" t="n">
-        <v>20.11999999999999</v>
+        <v>20.26500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2448,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2465,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="C52" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="D52" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="E52" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="F52" t="n">
-        <v>2230.1415</v>
+        <v>28176</v>
       </c>
       <c r="G52" t="n">
-        <v>20.15999999999999</v>
+        <v>20.26000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2489,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="C53" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="D53" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="E53" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="F53" t="n">
-        <v>6324.3303</v>
+        <v>2230.1415</v>
       </c>
       <c r="G53" t="n">
-        <v>20.21999999999999</v>
+        <v>20.25666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2530,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2547,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="C54" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="D54" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E54" t="n">
         <v>20.2</v>
       </c>
       <c r="F54" t="n">
-        <v>26746</v>
+        <v>6324.3303</v>
       </c>
       <c r="G54" t="n">
-        <v>20.27999999999999</v>
+        <v>20.24833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2571,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2597,13 +2297,13 @@
         <v>20.5</v>
       </c>
       <c r="E55" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="F55" t="n">
-        <v>216624.439</v>
+        <v>26746</v>
       </c>
       <c r="G55" t="n">
-        <v>20.23999999999999</v>
+        <v>20.24333333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2612,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2641,10 +2335,10 @@
         <v>20.5</v>
       </c>
       <c r="F56" t="n">
-        <v>29419.9285</v>
+        <v>216624.439</v>
       </c>
       <c r="G56" t="n">
-        <v>20.35999999999999</v>
+        <v>20.23833333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2653,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2682,10 +2370,10 @@
         <v>20.5</v>
       </c>
       <c r="F57" t="n">
-        <v>400.7804</v>
+        <v>29419.9285</v>
       </c>
       <c r="G57" t="n">
-        <v>20.43999999999999</v>
+        <v>20.23166666666668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2694,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2723,10 +2405,10 @@
         <v>20.5</v>
       </c>
       <c r="F58" t="n">
-        <v>1292</v>
+        <v>400.7804</v>
       </c>
       <c r="G58" t="n">
-        <v>20.49999999999999</v>
+        <v>20.22500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2735,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2755,19 +2431,19 @@
         <v>20.5</v>
       </c>
       <c r="C59" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="D59" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="E59" t="n">
         <v>20.5</v>
       </c>
       <c r="F59" t="n">
-        <v>6000</v>
+        <v>1292</v>
       </c>
       <c r="G59" t="n">
-        <v>20.53999999999999</v>
+        <v>20.22000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2776,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2793,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="C60" t="n">
         <v>20.7</v>
@@ -2802,13 +2472,13 @@
         <v>20.7</v>
       </c>
       <c r="E60" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G60" t="n">
-        <v>20.57999999999999</v>
+        <v>20.21666666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2817,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2837,19 +2501,19 @@
         <v>20.7</v>
       </c>
       <c r="C61" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="D61" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="E61" t="n">
         <v>20.7</v>
       </c>
       <c r="F61" t="n">
-        <v>8618</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="n">
-        <v>20.71999999999999</v>
+        <v>20.21500000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2858,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2875,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="C62" t="n">
         <v>21.2</v>
@@ -2884,13 +2542,13 @@
         <v>21.2</v>
       </c>
       <c r="E62" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="F62" t="n">
-        <v>10589.3393</v>
+        <v>8618</v>
       </c>
       <c r="G62" t="n">
-        <v>20.85999999999999</v>
+        <v>20.23333333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2899,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2916,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="C63" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="D63" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="E63" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="F63" t="n">
-        <v>2352</v>
+        <v>10589.3393</v>
       </c>
       <c r="G63" t="n">
-        <v>20.9</v>
+        <v>20.26166666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2940,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2957,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C64" t="n">
         <v>20.7</v>
       </c>
       <c r="D64" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E64" t="n">
         <v>20.7</v>
       </c>
       <c r="F64" t="n">
-        <v>9621.8285</v>
+        <v>2352</v>
       </c>
       <c r="G64" t="n">
-        <v>20.9</v>
+        <v>20.27333333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2981,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2998,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="C65" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D65" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="E65" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="F65" t="n">
-        <v>6016.6379</v>
+        <v>9621.8285</v>
       </c>
       <c r="G65" t="n">
-        <v>20.84</v>
+        <v>20.28166666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3022,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3051,10 +2685,10 @@
         <v>20.4</v>
       </c>
       <c r="F66" t="n">
-        <v>3166.0615</v>
+        <v>6016.6379</v>
       </c>
       <c r="G66" t="n">
-        <v>20.67999999999999</v>
+        <v>20.28500000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3063,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3083,19 +2711,19 @@
         <v>20.4</v>
       </c>
       <c r="C67" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="D67" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="E67" t="n">
         <v>20.4</v>
       </c>
       <c r="F67" t="n">
-        <v>38783.5125</v>
+        <v>3166.0615</v>
       </c>
       <c r="G67" t="n">
-        <v>20.56</v>
+        <v>20.28666666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3104,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3124,19 +2746,19 @@
         <v>20.4</v>
       </c>
       <c r="C68" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="D68" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="E68" t="n">
         <v>20.4</v>
       </c>
       <c r="F68" t="n">
-        <v>3205</v>
+        <v>38783.5125</v>
       </c>
       <c r="G68" t="n">
-        <v>20.49999999999999</v>
+        <v>20.27166666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3145,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3165,19 +2781,19 @@
         <v>20.4</v>
       </c>
       <c r="C69" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="D69" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E69" t="n">
         <v>20.4</v>
       </c>
       <c r="F69" t="n">
-        <v>7475</v>
+        <v>3205</v>
       </c>
       <c r="G69" t="n">
-        <v>20.45999999999999</v>
+        <v>20.27166666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3186,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3206,19 +2816,19 @@
         <v>20.4</v>
       </c>
       <c r="C70" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="D70" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="E70" t="n">
         <v>20.4</v>
       </c>
       <c r="F70" t="n">
-        <v>41.8136</v>
+        <v>7475</v>
       </c>
       <c r="G70" t="n">
-        <v>20.45999999999999</v>
+        <v>20.27333333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3227,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3256,10 +2860,10 @@
         <v>20.4</v>
       </c>
       <c r="F71" t="n">
-        <v>471.4101</v>
+        <v>41.8136</v>
       </c>
       <c r="G71" t="n">
-        <v>20.45999999999999</v>
+        <v>20.28000000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3268,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3288,19 +2886,19 @@
         <v>20.4</v>
       </c>
       <c r="C72" t="n">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="D72" t="n">
         <v>20.4</v>
       </c>
       <c r="E72" t="n">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="F72" t="n">
-        <v>110504.3894</v>
+        <v>471.4101</v>
       </c>
       <c r="G72" t="n">
-        <v>20.29999999999999</v>
+        <v>20.28666666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3309,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3326,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="C73" t="n">
-        <v>20.5</v>
+        <v>19.8</v>
       </c>
       <c r="D73" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E73" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="F73" t="n">
-        <v>7120</v>
+        <v>110504.3894</v>
       </c>
       <c r="G73" t="n">
-        <v>20.31999999999999</v>
+        <v>20.29500000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3350,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3370,19 +2956,19 @@
         <v>20.5</v>
       </c>
       <c r="C74" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D74" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E74" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="F74" t="n">
-        <v>43443</v>
+        <v>7120</v>
       </c>
       <c r="G74" t="n">
-        <v>20.33999999999999</v>
+        <v>20.30166666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3391,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C75" t="n">
         <v>20.6</v>
       </c>
-      <c r="C75" t="n">
-        <v>20.9</v>
-      </c>
       <c r="D75" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="E75" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="F75" t="n">
-        <v>2026.6935</v>
+        <v>43443</v>
       </c>
       <c r="G75" t="n">
-        <v>20.43999999999999</v>
+        <v>20.31000000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3432,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3449,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C76" t="n">
         <v>20.9</v>
       </c>
-      <c r="C76" t="n">
-        <v>20.7</v>
-      </c>
       <c r="D76" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="E76" t="n">
         <v>20.6</v>
       </c>
       <c r="F76" t="n">
-        <v>306123.0557</v>
+        <v>2026.6935</v>
       </c>
       <c r="G76" t="n">
-        <v>20.49999999999999</v>
+        <v>20.31500000000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3473,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3490,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C77" t="n">
         <v>20.7</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E77" t="n">
         <v>20.6</v>
       </c>
-      <c r="D77" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E77" t="n">
-        <v>20.4</v>
-      </c>
       <c r="F77" t="n">
-        <v>207579</v>
+        <v>306123.0557</v>
       </c>
       <c r="G77" t="n">
-        <v>20.65999999999999</v>
+        <v>20.32333333333336</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3514,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3531,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C78" t="n">
         <v>20.6</v>
@@ -3540,13 +3102,13 @@
         <v>20.7</v>
       </c>
       <c r="E78" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="F78" t="n">
-        <v>37200</v>
+        <v>207579</v>
       </c>
       <c r="G78" t="n">
-        <v>20.67999999999999</v>
+        <v>20.32500000000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3555,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3572,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C79" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D79" t="n">
         <v>20.7</v>
       </c>
       <c r="E79" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F79" t="n">
-        <v>140131.2077</v>
+        <v>37200</v>
       </c>
       <c r="G79" t="n">
-        <v>20.69999999999999</v>
+        <v>20.32666666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3596,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3613,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C80" t="n">
-        <v>21.8</v>
+        <v>20.7</v>
       </c>
       <c r="D80" t="n">
-        <v>21.9</v>
+        <v>20.7</v>
       </c>
       <c r="E80" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F80" t="n">
-        <v>41178.6323</v>
+        <v>140131.2077</v>
       </c>
       <c r="G80" t="n">
-        <v>20.87999999999999</v>
+        <v>20.34333333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3637,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3654,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C81" t="n">
         <v>21.8</v>
       </c>
-      <c r="C81" t="n">
-        <v>22.4</v>
-      </c>
       <c r="D81" t="n">
-        <v>22.4</v>
+        <v>21.9</v>
       </c>
       <c r="E81" t="n">
-        <v>21.8</v>
+        <v>20.9</v>
       </c>
       <c r="F81" t="n">
-        <v>146295</v>
+        <v>41178.6323</v>
       </c>
       <c r="G81" t="n">
-        <v>21.21999999999999</v>
+        <v>20.37333333333335</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3678,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3695,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="C82" t="n">
-        <v>21.5</v>
+        <v>22.4</v>
       </c>
       <c r="D82" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="E82" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="F82" t="n">
-        <v>6000</v>
+        <v>146295</v>
       </c>
       <c r="G82" t="n">
-        <v>21.39999999999999</v>
+        <v>20.41333333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3719,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3736,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="C83" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="D83" t="n">
         <v>22</v>
       </c>
       <c r="E83" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="F83" t="n">
-        <v>9523</v>
+        <v>6000</v>
       </c>
       <c r="G83" t="n">
-        <v>21.67999999999999</v>
+        <v>20.43833333333335</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3760,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3777,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="C84" t="n">
         <v>22</v>
@@ -3786,13 +3312,13 @@
         <v>22</v>
       </c>
       <c r="E84" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F84" t="n">
-        <v>30096.1136</v>
+        <v>9523</v>
       </c>
       <c r="G84" t="n">
-        <v>21.93999999999999</v>
+        <v>20.47000000000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3801,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3827,13 +3347,13 @@
         <v>22</v>
       </c>
       <c r="E85" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>30096.1136</v>
       </c>
       <c r="G85" t="n">
-        <v>21.97999999999999</v>
+        <v>20.50333333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3842,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3871,10 +3385,10 @@
         <v>22</v>
       </c>
       <c r="F86" t="n">
-        <v>336</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="n">
-        <v>21.89999999999998</v>
+        <v>20.53166666666669</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3883,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3900,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="C87" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="D87" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="E87" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="F87" t="n">
-        <v>74.04559999999999</v>
+        <v>336</v>
       </c>
       <c r="G87" t="n">
-        <v>21.95999999999999</v>
+        <v>20.56000000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3924,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3941,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="C88" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="D88" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="E88" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="F88" t="n">
-        <v>4000</v>
+        <v>74.04559999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>21.99999999999998</v>
+        <v>20.58166666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3965,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3982,7 +3478,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="C89" t="n">
         <v>22.2</v>
@@ -3991,13 +3487,13 @@
         <v>22.2</v>
       </c>
       <c r="E89" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="F89" t="n">
-        <v>2263</v>
+        <v>4000</v>
       </c>
       <c r="G89" t="n">
-        <v>22.03999999999998</v>
+        <v>20.61166666666669</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4006,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4023,7 +3513,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="C90" t="n">
         <v>22.2</v>
@@ -4032,13 +3522,13 @@
         <v>22.2</v>
       </c>
       <c r="E90" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="F90" t="n">
-        <v>56924.8648</v>
+        <v>2263</v>
       </c>
       <c r="G90" t="n">
-        <v>22.07999999999998</v>
+        <v>20.64500000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4047,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4064,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="C91" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="D91" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="E91" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="F91" t="n">
-        <v>56782.5526</v>
+        <v>56924.8648</v>
       </c>
       <c r="G91" t="n">
-        <v>22.01999999999997</v>
+        <v>20.67500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4088,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4105,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="C92" t="n">
         <v>21.7</v>
       </c>
       <c r="D92" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="E92" t="n">
         <v>21.7</v>
       </c>
       <c r="F92" t="n">
-        <v>40024.5235</v>
+        <v>56782.5526</v>
       </c>
       <c r="G92" t="n">
-        <v>21.99999999999998</v>
+        <v>20.70000000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4129,16 +3607,10 @@
         <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>1.069257425742574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4146,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="C93" t="n">
         <v>21.7</v>
       </c>
       <c r="D93" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="E93" t="n">
         <v>21.7</v>
       </c>
       <c r="F93" t="n">
-        <v>26462.3447</v>
+        <v>40024.5235</v>
       </c>
       <c r="G93" t="n">
-        <v>21.89999999999997</v>
+        <v>20.73000000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4181,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="C94" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="D94" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="E94" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="F94" t="n">
-        <v>4224.8864</v>
+        <v>26462.3447</v>
       </c>
       <c r="G94" t="n">
-        <v>21.75999999999998</v>
+        <v>20.75000000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4216,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="C95" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="D95" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="E95" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="F95" t="n">
-        <v>4700</v>
+        <v>4224.8864</v>
       </c>
       <c r="G95" t="n">
-        <v>21.57999999999998</v>
+        <v>20.77166666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4263,10 +3735,10 @@
         <v>21.3</v>
       </c>
       <c r="F96" t="n">
-        <v>14211.4327</v>
+        <v>4700</v>
       </c>
       <c r="G96" t="n">
-        <v>21.49999999999998</v>
+        <v>20.78166666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4289,19 +3761,19 @@
         <v>21.3</v>
       </c>
       <c r="C97" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="D97" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="E97" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="F97" t="n">
-        <v>37515.2335</v>
+        <v>14211.4327</v>
       </c>
       <c r="G97" t="n">
-        <v>21.25999999999997</v>
+        <v>20.80000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4321,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="C98" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D98" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="E98" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="F98" t="n">
-        <v>6572.0297</v>
+        <v>37515.2335</v>
       </c>
       <c r="G98" t="n">
-        <v>21.03999999999997</v>
+        <v>20.80166666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4359,19 +3831,19 @@
         <v>20.6</v>
       </c>
       <c r="C99" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="D99" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="E99" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F99" t="n">
-        <v>15073.5474</v>
+        <v>6572.0297</v>
       </c>
       <c r="G99" t="n">
-        <v>20.91999999999997</v>
+        <v>20.80333333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4391,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="C100" t="n">
         <v>20.9</v>
       </c>
       <c r="D100" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="E100" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F100" t="n">
-        <v>956.937</v>
+        <v>15073.5474</v>
       </c>
       <c r="G100" t="n">
-        <v>20.83999999999997</v>
+        <v>20.81333333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4438,10 +3910,10 @@
         <v>20.9</v>
       </c>
       <c r="F101" t="n">
-        <v>2614</v>
+        <v>956.937</v>
       </c>
       <c r="G101" t="n">
-        <v>20.75999999999997</v>
+        <v>20.82833333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4464,19 +3936,19 @@
         <v>20.9</v>
       </c>
       <c r="C102" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="D102" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="E102" t="n">
         <v>20.9</v>
       </c>
       <c r="F102" t="n">
-        <v>4000</v>
+        <v>2614</v>
       </c>
       <c r="G102" t="n">
-        <v>20.91999999999997</v>
+        <v>20.84666666666669</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4496,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="C103" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="D103" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="E103" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F103" t="n">
-        <v>144</v>
+        <v>4000</v>
       </c>
       <c r="G103" t="n">
-        <v>20.89999999999997</v>
+        <v>20.87166666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4531,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="C104" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="D104" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="F104" t="n">
-        <v>16009</v>
+        <v>144</v>
       </c>
       <c r="G104" t="n">
-        <v>20.97999999999997</v>
+        <v>20.87833333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4569,19 +4041,19 @@
         <v>21</v>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="D105" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E105" t="n">
         <v>21</v>
       </c>
       <c r="F105" t="n">
-        <v>8601</v>
+        <v>16009</v>
       </c>
       <c r="G105" t="n">
-        <v>20.99999999999997</v>
+        <v>20.90166666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4604,28 +4076,32 @@
         <v>21</v>
       </c>
       <c r="C106" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="D106" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="E106" t="n">
         <v>21</v>
       </c>
       <c r="F106" t="n">
-        <v>1400</v>
+        <v>8601</v>
       </c>
       <c r="G106" t="n">
-        <v>21.07999999999997</v>
+        <v>20.92000000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>21.3</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4636,7 +4112,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="C107" t="n">
         <v>21.3</v>
@@ -4645,13 +4121,13 @@
         <v>21.3</v>
       </c>
       <c r="E107" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="F107" t="n">
-        <v>33375</v>
+        <v>1400</v>
       </c>
       <c r="G107" t="n">
-        <v>21.07999999999997</v>
+        <v>20.94333333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4660,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4671,32 +4153,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="C108" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="D108" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="E108" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F108" t="n">
-        <v>3991.3482</v>
+        <v>33375</v>
       </c>
       <c r="G108" t="n">
-        <v>21.27999999999997</v>
+        <v>20.96666666666668</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4706,32 +4196,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C109" t="n">
         <v>21.5</v>
-      </c>
-      <c r="C109" t="n">
-        <v>21.2</v>
       </c>
       <c r="D109" t="n">
         <v>21.5</v>
       </c>
       <c r="E109" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="F109" t="n">
-        <v>33052.092</v>
+        <v>3991.3482</v>
       </c>
       <c r="G109" t="n">
-        <v>21.25999999999997</v>
+        <v>20.99333333333334</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4741,22 +4239,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C110" t="n">
         <v>21.2</v>
       </c>
-      <c r="C110" t="n">
-        <v>21.1</v>
-      </c>
       <c r="D110" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="E110" t="n">
         <v>21.1</v>
       </c>
       <c r="F110" t="n">
-        <v>22276</v>
+        <v>33052.092</v>
       </c>
       <c r="G110" t="n">
-        <v>21.27999999999997</v>
+        <v>21.01000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4765,8 +4263,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4776,22 +4280,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C111" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="D111" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="E111" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="F111" t="n">
-        <v>3000</v>
+        <v>22276</v>
       </c>
       <c r="G111" t="n">
-        <v>21.29999999999998</v>
+        <v>21.01666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4800,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4811,22 +4321,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="C112" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="D112" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="E112" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="F112" t="n">
-        <v>5486.1003</v>
+        <v>3000</v>
       </c>
       <c r="G112" t="n">
-        <v>21.27999999999998</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4835,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4849,19 +4365,19 @@
         <v>21.2</v>
       </c>
       <c r="C113" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D113" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="E113" t="n">
         <v>21.2</v>
       </c>
       <c r="F113" t="n">
-        <v>3723.8059</v>
+        <v>5486.1003</v>
       </c>
       <c r="G113" t="n">
-        <v>21.25999999999997</v>
+        <v>21.06000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4870,8 +4386,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4884,19 +4406,19 @@
         <v>21.2</v>
       </c>
       <c r="C114" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="D114" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="E114" t="n">
         <v>21.2</v>
       </c>
       <c r="F114" t="n">
-        <v>1951.2204</v>
+        <v>3723.8059</v>
       </c>
       <c r="G114" t="n">
-        <v>21.25999999999997</v>
+        <v>21.08000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4905,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4919,19 +4447,19 @@
         <v>21.2</v>
       </c>
       <c r="C115" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D115" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E115" t="n">
         <v>21.2</v>
       </c>
       <c r="F115" t="n">
-        <v>9404</v>
+        <v>1951.2204</v>
       </c>
       <c r="G115" t="n">
-        <v>21.29999999999997</v>
+        <v>21.09166666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4940,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4951,7 +4485,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="C116" t="n">
         <v>21.3</v>
@@ -4960,13 +4494,13 @@
         <v>21.3</v>
       </c>
       <c r="E116" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="F116" t="n">
-        <v>551.0328</v>
+        <v>9404</v>
       </c>
       <c r="G116" t="n">
-        <v>21.27999999999997</v>
+        <v>21.10500000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4975,8 +4509,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4986,22 +4526,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="C117" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="D117" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E117" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="F117" t="n">
-        <v>48626.6673</v>
+        <v>551.0328</v>
       </c>
       <c r="G117" t="n">
-        <v>21.15999999999997</v>
+        <v>21.11833333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5010,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5021,22 +4567,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C118" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D118" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="E118" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F118" t="n">
-        <v>5160.174</v>
+        <v>48626.6673</v>
       </c>
       <c r="G118" t="n">
-        <v>21.01999999999997</v>
+        <v>21.12000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5045,8 +4591,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5056,22 +4608,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C119" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="D119" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="E119" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F119" t="n">
-        <v>23041.7339</v>
+        <v>5160.174</v>
       </c>
       <c r="G119" t="n">
-        <v>21.03999999999997</v>
+        <v>21.12333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5080,8 +4632,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5091,22 +4649,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="C120" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D120" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E120" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="F120" t="n">
-        <v>2000</v>
+        <v>23041.7339</v>
       </c>
       <c r="G120" t="n">
-        <v>21.01999999999997</v>
+        <v>21.13333333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5115,8 +4673,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5126,22 +4690,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="C121" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="D121" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="E121" t="n">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="F121" t="n">
-        <v>10994.0337</v>
+        <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>20.91999999999997</v>
+        <v>21.14166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5150,8 +4714,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5164,19 +4734,19 @@
         <v>20.8</v>
       </c>
       <c r="C122" t="n">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
       <c r="D122" t="n">
-        <v>21.6</v>
+        <v>20.8</v>
       </c>
       <c r="E122" t="n">
         <v>20.8</v>
       </c>
       <c r="F122" t="n">
-        <v>9500</v>
+        <v>10994.0337</v>
       </c>
       <c r="G122" t="n">
-        <v>21.09999999999997</v>
+        <v>21.13500000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5185,8 +4755,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5196,22 +4772,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="C123" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D123" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="E123" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="F123" t="n">
-        <v>2000</v>
+        <v>9500</v>
       </c>
       <c r="G123" t="n">
-        <v>21.23999999999997</v>
+        <v>21.14</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5220,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5243,21 +4825,68 @@
         <v>21.4</v>
       </c>
       <c r="F124" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>21.15166666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F125" t="n">
         <v>83</v>
       </c>
-      <c r="G124" t="n">
-        <v>21.25999999999997</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="G125" t="n">
+        <v>21.16333333333334</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1997</v>
       </c>
       <c r="G2" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H2" t="n">
         <v>21.21666666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>88957</v>
       </c>
       <c r="G3" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="H3" t="n">
         <v>21.18166666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>6835</v>
       </c>
       <c r="G4" t="n">
+        <v>20.47333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>21.155</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>300</v>
       </c>
       <c r="G5" t="n">
+        <v>20.44666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>21.13166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>64</v>
       </c>
       <c r="G6" t="n">
+        <v>20.47333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>21.10833333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10376</v>
       </c>
       <c r="G7" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="H7" t="n">
         <v>21.08666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>31190.232</v>
       </c>
       <c r="G8" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="H8" t="n">
         <v>21.08666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>524</v>
       </c>
       <c r="G9" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="H9" t="n">
         <v>21.065</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1436.784</v>
       </c>
       <c r="G10" t="n">
+        <v>20.51333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>21.05166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>6000</v>
       </c>
       <c r="G11" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="H11" t="n">
         <v>21.02166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>4000</v>
       </c>
       <c r="G12" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H12" t="n">
         <v>20.99000000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5576.4681</v>
       </c>
       <c r="G13" t="n">
+        <v>20.29333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>20.955</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>4000</v>
       </c>
       <c r="G14" t="n">
+        <v>20.24666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>20.925</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>17.2376</v>
       </c>
       <c r="G15" t="n">
+        <v>20.19333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>20.90333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>19969.7249</v>
       </c>
       <c r="G16" t="n">
+        <v>20.18000000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>20.87833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>29805</v>
       </c>
       <c r="G17" t="n">
+        <v>20.18666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>20.85333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2000</v>
       </c>
       <c r="G18" t="n">
+        <v>20.25333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>20.83833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>4000</v>
       </c>
       <c r="G19" t="n">
+        <v>20.28666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>20.82</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>4000</v>
       </c>
       <c r="G20" t="n">
+        <v>20.25333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>20.78166666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>4367.1142</v>
       </c>
       <c r="G21" t="n">
+        <v>20.24000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>20.75666666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,25 @@
         <v>5589.8198</v>
       </c>
       <c r="G22" t="n">
+        <v>20.22000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>20.73166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1255,29 @@
         <v>16744.0653</v>
       </c>
       <c r="G23" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="H23" t="n">
         <v>20.70166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+      <c r="L23" t="n">
+        <v>20</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1301,29 @@
         <v>13727.0653</v>
       </c>
       <c r="G24" t="n">
+        <v>20.10000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>20.67166666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1347,29 @@
         <v>24587.1797</v>
       </c>
       <c r="G25" t="n">
+        <v>20.07333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>20.63999999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>20</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1393,29 @@
         <v>39.1133</v>
       </c>
       <c r="G26" t="n">
+        <v>20.09333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>20.61999999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1439,29 @@
         <v>760.8867</v>
       </c>
       <c r="G27" t="n">
+        <v>20.11333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>20.60166666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1485,27 @@
         <v>50524.5597</v>
       </c>
       <c r="G28" t="n">
+        <v>20.19333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>20.58333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1529,27 @@
         <v>12000</v>
       </c>
       <c r="G29" t="n">
+        <v>20.21333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>20.56999999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>20</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1573,27 @@
         <v>58974.0881</v>
       </c>
       <c r="G30" t="n">
+        <v>20.22000000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>20.55166666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>20</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1617,27 @@
         <v>18131.7073</v>
       </c>
       <c r="G31" t="n">
+        <v>20.20666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>20.53333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>20</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1661,29 @@
         <v>6000</v>
       </c>
       <c r="G32" t="n">
+        <v>20.20666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>20.51166666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1707,27 @@
         <v>46691.2785</v>
       </c>
       <c r="G33" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>20.48333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>20</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1751,29 @@
         <v>8305</v>
       </c>
       <c r="G34" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>20.465</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>20</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1797,29 @@
         <v>7744.596</v>
       </c>
       <c r="G35" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>20.44666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1843,27 @@
         <v>66168</v>
       </c>
       <c r="G36" t="n">
+        <v>20.24666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>20.445</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>20</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1887,27 @@
         <v>800</v>
       </c>
       <c r="G37" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="H37" t="n">
         <v>20.43333333333334</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>20</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1931,27 @@
         <v>800</v>
       </c>
       <c r="G38" t="n">
+        <v>20.28666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>20.42000000000001</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>20</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1975,27 @@
         <v>1400</v>
       </c>
       <c r="G39" t="n">
+        <v>20.31333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>20.41000000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>20</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2019,27 @@
         <v>5879</v>
       </c>
       <c r="G40" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>20.395</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>20</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2063,27 @@
         <v>800</v>
       </c>
       <c r="G41" t="n">
+        <v>20.31333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>20.375</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>20</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2107,27 @@
         <v>156024.6623</v>
       </c>
       <c r="G42" t="n">
+        <v>20.27999999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>20.35</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>20</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2151,27 @@
         <v>121884.2817</v>
       </c>
       <c r="G43" t="n">
+        <v>20.23333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>20.335</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>20</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2195,27 @@
         <v>1444.4776</v>
       </c>
       <c r="G44" t="n">
+        <v>20.21333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>20.325</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>20</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2239,29 @@
         <v>73934.0793</v>
       </c>
       <c r="G45" t="n">
+        <v>20.19333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>20.31166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>20</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2285,29 @@
         <v>85525.5095</v>
       </c>
       <c r="G46" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="H46" t="n">
         <v>20.29666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L46" t="n">
+        <v>20</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2331,29 @@
         <v>17200.7938</v>
       </c>
       <c r="G47" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="H47" t="n">
         <v>20.28333333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>20</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2377,27 @@
         <v>13483.6479</v>
       </c>
       <c r="G48" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="H48" t="n">
         <v>20.27</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>20</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2421,27 @@
         <v>63595.781</v>
       </c>
       <c r="G49" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H49" t="n">
         <v>20.25666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>20</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2465,27 @@
         <v>4380</v>
       </c>
       <c r="G50" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H50" t="n">
         <v>20.25000000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>20</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2509,27 @@
         <v>2399</v>
       </c>
       <c r="G51" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H51" t="n">
         <v>20.26500000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>20</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2553,27 @@
         <v>28176</v>
       </c>
       <c r="G52" t="n">
+        <v>20.07999999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>20.26000000000001</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>20</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2597,27 @@
         <v>2230.1415</v>
       </c>
       <c r="G53" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="H53" t="n">
         <v>20.25666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>20</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2641,27 @@
         <v>6324.3303</v>
       </c>
       <c r="G54" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="H54" t="n">
         <v>20.24833333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>20</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2685,27 @@
         <v>26746</v>
       </c>
       <c r="G55" t="n">
+        <v>20.05333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>20.24333333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>20</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2729,27 @@
         <v>216624.439</v>
       </c>
       <c r="G56" t="n">
+        <v>20.08666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>20.23833333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>20</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2773,27 @@
         <v>29419.9285</v>
       </c>
       <c r="G57" t="n">
+        <v>20.13333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>20.23166666666668</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>20</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2817,27 @@
         <v>400.7804</v>
       </c>
       <c r="G58" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="H58" t="n">
         <v>20.22500000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>20</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2861,27 @@
         <v>1292</v>
       </c>
       <c r="G59" t="n">
+        <v>20.20666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>20.22000000000001</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>20</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2905,27 @@
         <v>6000</v>
       </c>
       <c r="G60" t="n">
+        <v>20.25999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>20.21666666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>20</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2949,27 @@
         <v>2000</v>
       </c>
       <c r="G61" t="n">
+        <v>20.31333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>20.21500000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>20</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2993,27 @@
         <v>8618</v>
       </c>
       <c r="G62" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H62" t="n">
         <v>20.23333333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>20</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3037,27 @@
         <v>10589.3393</v>
       </c>
       <c r="G63" t="n">
+        <v>20.48666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>20.26166666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>20</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3081,27 @@
         <v>2352</v>
       </c>
       <c r="G64" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="H64" t="n">
         <v>20.27333333333335</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>20</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3125,27 @@
         <v>9621.8285</v>
       </c>
       <c r="G65" t="n">
+        <v>20.57333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>20.28166666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>20</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3169,27 @@
         <v>6016.6379</v>
       </c>
       <c r="G66" t="n">
+        <v>20.55333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>20.28500000000001</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>20</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3213,27 @@
         <v>3166.0615</v>
       </c>
       <c r="G67" t="n">
+        <v>20.58666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>20.28666666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>20</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3257,27 @@
         <v>38783.5125</v>
       </c>
       <c r="G68" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="H68" t="n">
         <v>20.27166666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>20</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3301,27 @@
         <v>3205</v>
       </c>
       <c r="G69" t="n">
+        <v>20.63333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>20.27166666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>20</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3345,29 @@
         <v>7475</v>
       </c>
       <c r="G70" t="n">
+        <v>20.63333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>20.27333333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L70" t="n">
+        <v>20</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3391,27 @@
         <v>41.8136</v>
       </c>
       <c r="G71" t="n">
+        <v>20.62666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>20.28000000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>20</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3435,27 @@
         <v>471.4101</v>
       </c>
       <c r="G72" t="n">
+        <v>20.61999999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>20.28666666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>20</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3479,29 @@
         <v>110504.3894</v>
       </c>
       <c r="G73" t="n">
+        <v>20.57333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>20.29500000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L73" t="n">
+        <v>20</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3525,29 @@
         <v>7120</v>
       </c>
       <c r="G74" t="n">
+        <v>20.57333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>20.30166666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L74" t="n">
+        <v>20</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3571,29 @@
         <v>43443</v>
       </c>
       <c r="G75" t="n">
+        <v>20.56666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>20.31000000000002</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>20</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3617,29 @@
         <v>2026.6935</v>
       </c>
       <c r="G76" t="n">
+        <v>20.57999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>20.31500000000002</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L76" t="n">
+        <v>20</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3663,27 @@
         <v>306123.0557</v>
       </c>
       <c r="G77" t="n">
+        <v>20.54666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>20.32333333333336</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>20</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3707,27 @@
         <v>207579</v>
       </c>
       <c r="G78" t="n">
+        <v>20.50666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>20.32500000000002</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>20</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3751,27 @@
         <v>37200</v>
       </c>
       <c r="G79" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H79" t="n">
         <v>20.32666666666669</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>20</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3795,27 @@
         <v>140131.2077</v>
       </c>
       <c r="G80" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H80" t="n">
         <v>20.34333333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>20</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3839,27 @@
         <v>41178.6323</v>
       </c>
       <c r="G81" t="n">
+        <v>20.59333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>20.37333333333335</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>20</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3883,27 @@
         <v>146295</v>
       </c>
       <c r="G82" t="n">
+        <v>20.72666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>20.41333333333335</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>20</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3927,27 @@
         <v>6000</v>
       </c>
       <c r="G83" t="n">
+        <v>20.78666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>20.43833333333335</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>20</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3971,27 @@
         <v>9523</v>
       </c>
       <c r="G84" t="n">
+        <v>20.89333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>20.47000000000002</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>20</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4015,27 @@
         <v>30096.1136</v>
       </c>
       <c r="G85" t="n">
+        <v>20.99333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>20.50333333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>20</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4059,27 @@
         <v>2000</v>
       </c>
       <c r="G86" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H86" t="n">
         <v>20.53166666666669</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>20</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4103,27 @@
         <v>336</v>
       </c>
       <c r="G87" t="n">
+        <v>21.20666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>20.56000000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>20</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4147,27 @@
         <v>74.04559999999999</v>
       </c>
       <c r="G88" t="n">
+        <v>21.34000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>20.58166666666669</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>20</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4191,27 @@
         <v>4000</v>
       </c>
       <c r="G89" t="n">
+        <v>21.45333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>20.61166666666669</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>20</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4235,27 @@
         <v>2263</v>
       </c>
       <c r="G90" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="H90" t="n">
         <v>20.64500000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>20</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4279,27 @@
         <v>56924.8648</v>
       </c>
       <c r="G91" t="n">
+        <v>21.64666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>20.67500000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>20</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4323,27 @@
         <v>56782.5526</v>
       </c>
       <c r="G92" t="n">
+        <v>21.71333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>20.70000000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>20</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4367,27 @@
         <v>40024.5235</v>
       </c>
       <c r="G93" t="n">
+        <v>21.78666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>20.73000000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>20</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,19 +4411,28 @@
         <v>26462.3447</v>
       </c>
       <c r="G94" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="H94" t="n">
         <v>20.75000000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
+      <c r="L94" t="n">
+        <v>20</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="95">
@@ -3703,18 +4455,21 @@
         <v>4224.8864</v>
       </c>
       <c r="G95" t="n">
+        <v>21.91333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>20.77166666666669</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4493,21 @@
         <v>4700</v>
       </c>
       <c r="G96" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="H96" t="n">
         <v>20.78166666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4531,21 @@
         <v>14211.4327</v>
       </c>
       <c r="G97" t="n">
+        <v>21.80666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>20.80000000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4569,21 @@
         <v>37515.2335</v>
       </c>
       <c r="G98" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="H98" t="n">
         <v>20.80166666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4607,21 @@
         <v>6572.0297</v>
       </c>
       <c r="G99" t="n">
+        <v>21.64666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>20.80333333333335</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4645,21 @@
         <v>15073.5474</v>
       </c>
       <c r="G100" t="n">
+        <v>21.57333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>20.81333333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4683,21 @@
         <v>956.937</v>
       </c>
       <c r="G101" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H101" t="n">
         <v>20.82833333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4721,21 @@
         <v>2614</v>
       </c>
       <c r="G102" t="n">
+        <v>21.42666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>20.84666666666669</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4759,21 @@
         <v>4000</v>
       </c>
       <c r="G103" t="n">
+        <v>21.39333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>20.87166666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4797,21 @@
         <v>144</v>
       </c>
       <c r="G104" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="H104" t="n">
         <v>20.87833333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4835,21 @@
         <v>16009</v>
       </c>
       <c r="G105" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="H105" t="n">
         <v>20.90166666666669</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,22 +4873,21 @@
         <v>8601</v>
       </c>
       <c r="G106" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="H106" t="n">
         <v>20.92000000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="K106" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4127,24 +4911,21 @@
         <v>1400</v>
       </c>
       <c r="G107" t="n">
+        <v>21.11333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>20.94333333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,26 +4949,21 @@
         <v>33375</v>
       </c>
       <c r="G108" t="n">
+        <v>21.08666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>20.96666666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="K108" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,26 +4987,21 @@
         <v>3991.3482</v>
       </c>
       <c r="G109" t="n">
+        <v>21.07333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>20.99333333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="K109" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,24 +5025,21 @@
         <v>33052.092</v>
       </c>
       <c r="G110" t="n">
+        <v>21.05333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>21.01000000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,24 +5063,21 @@
         <v>22276</v>
       </c>
       <c r="G111" t="n">
+        <v>21.04000000000001</v>
+      </c>
+      <c r="H111" t="n">
         <v>21.01666666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,24 +5101,21 @@
         <v>3000</v>
       </c>
       <c r="G112" t="n">
+        <v>21.04666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>21.04166666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,24 +5139,21 @@
         <v>5486.1003</v>
       </c>
       <c r="G113" t="n">
+        <v>21.09333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>21.06000000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,24 +5177,21 @@
         <v>3723.8059</v>
       </c>
       <c r="G114" t="n">
+        <v>21.14666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>21.08000000000001</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,24 +5215,21 @@
         <v>1951.2204</v>
       </c>
       <c r="G115" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>21.09166666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,24 +5253,21 @@
         <v>9404</v>
       </c>
       <c r="G116" t="n">
+        <v>21.19333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>21.10500000000001</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,24 +5291,21 @@
         <v>551.0328</v>
       </c>
       <c r="G117" t="n">
+        <v>21.22000000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>21.11833333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,24 +5329,21 @@
         <v>48626.6673</v>
       </c>
       <c r="G118" t="n">
+        <v>21.17333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>21.12000000000001</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4623,24 +5367,21 @@
         <v>5160.174</v>
       </c>
       <c r="G119" t="n">
+        <v>21.18666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>21.12333333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,24 +5405,21 @@
         <v>23041.7339</v>
       </c>
       <c r="G120" t="n">
+        <v>21.18666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>21.13333333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4705,24 +5443,21 @@
         <v>2000</v>
       </c>
       <c r="G121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H121" t="n">
         <v>21.14166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,24 +5481,21 @@
         <v>10994.0337</v>
       </c>
       <c r="G122" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>21.13500000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,24 +5519,21 @@
         <v>9500</v>
       </c>
       <c r="G123" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="H123" t="n">
         <v>21.14</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,24 +5557,21 @@
         <v>2000</v>
       </c>
       <c r="G124" t="n">
+        <v>21.17333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>21.15166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4869,24 +5595,401 @@
         <v>83</v>
       </c>
       <c r="G125" t="n">
+        <v>21.18666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>21.16333333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11</v>
+      </c>
+      <c r="G126" t="n">
+        <v>21.20666666666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>21.18000000000001</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>662</v>
+      </c>
+      <c r="G127" t="n">
+        <v>21.21333333333333</v>
+      </c>
+      <c r="H127" t="n">
+        <v>21.19833333333334</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>21.24666666666667</v>
+      </c>
+      <c r="H128" t="n">
+        <v>21.21666666666668</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14915.8796</v>
+      </c>
+      <c r="G129" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="H129" t="n">
+        <v>21.23666666666667</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>666.9861751152074</v>
+      </c>
+      <c r="G130" t="n">
+        <v>21.29333333333334</v>
+      </c>
+      <c r="H130" t="n">
+        <v>21.25666666666667</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>91.61290322580645</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="H131" t="n">
+        <v>21.27833333333334</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>21</v>
+      </c>
+      <c r="C132" t="n">
+        <v>21</v>
+      </c>
+      <c r="D132" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" t="n">
+        <v>21</v>
+      </c>
+      <c r="F132" t="n">
+        <v>114.375</v>
+      </c>
+      <c r="G132" t="n">
         <v>21.3</v>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="H132" t="n">
+        <v>21.28833333333334</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D133" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>21.34666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>21.31333333333334</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21.38666666666667</v>
+      </c>
+      <c r="H134" t="n">
+        <v>21.32666666666667</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>528.1441</v>
+      </c>
+      <c r="G135" t="n">
+        <v>21.38666666666667</v>
+      </c>
+      <c r="H135" t="n">
+        <v>21.33833333333333</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="C2" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="D2" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="E2" t="n">
-        <v>20.1</v>
+        <v>21.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1997</v>
+        <v>15455</v>
       </c>
       <c r="G2" t="n">
-        <v>20.6</v>
+        <v>956799.1177029888</v>
       </c>
       <c r="H2" t="n">
-        <v>21.21666666666666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>21.6</v>
       </c>
       <c r="D3" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="E3" t="n">
-        <v>19.5</v>
+        <v>21.6</v>
       </c>
       <c r="F3" t="n">
-        <v>88957</v>
+        <v>15240</v>
       </c>
       <c r="G3" t="n">
-        <v>20.52</v>
+        <v>956799.1177029888</v>
       </c>
       <c r="H3" t="n">
-        <v>21.18166666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="E4" t="n">
-        <v>19.8</v>
+        <v>21.3</v>
       </c>
       <c r="F4" t="n">
-        <v>6835</v>
+        <v>9528.243200000001</v>
       </c>
       <c r="G4" t="n">
-        <v>20.47333333333334</v>
+        <v>947270.8745029888</v>
       </c>
       <c r="H4" t="n">
-        <v>21.155</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="C5" t="n">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="D5" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="F5" t="n">
-        <v>300</v>
+        <v>7584.3333</v>
       </c>
       <c r="G5" t="n">
-        <v>20.44666666666667</v>
+        <v>939686.5412029887</v>
       </c>
       <c r="H5" t="n">
-        <v>21.13166666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2</v>
+        <v>20.9</v>
       </c>
       <c r="D6" t="n">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>20.2</v>
+        <v>20.9</v>
       </c>
       <c r="F6" t="n">
-        <v>64</v>
+        <v>30388.5749</v>
       </c>
       <c r="G6" t="n">
-        <v>20.47333333333334</v>
+        <v>970075.1161029887</v>
       </c>
       <c r="H6" t="n">
-        <v>21.10833333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="D7" t="n">
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="E7" t="n">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="F7" t="n">
-        <v>10376</v>
+        <v>29588.575</v>
       </c>
       <c r="G7" t="n">
-        <v>20.48</v>
+        <v>999663.6911029887</v>
       </c>
       <c r="H7" t="n">
-        <v>21.08666666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="C8" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="D8" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="E8" t="n">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="F8" t="n">
-        <v>31190.232</v>
+        <v>6775</v>
       </c>
       <c r="G8" t="n">
-        <v>20.56</v>
+        <v>992888.6911029887</v>
       </c>
       <c r="H8" t="n">
-        <v>21.08666666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20.4</v>
+        <v>21.1</v>
       </c>
       <c r="C9" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="D9" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="E9" t="n">
-        <v>20.4</v>
+        <v>21.1</v>
       </c>
       <c r="F9" t="n">
-        <v>524</v>
+        <v>23142.4247</v>
       </c>
       <c r="G9" t="n">
-        <v>20.54</v>
+        <v>1016031.115802989</v>
       </c>
       <c r="H9" t="n">
-        <v>21.065</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="C10" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="D10" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="E10" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="F10" t="n">
-        <v>1436.784</v>
+        <v>13610.8207</v>
       </c>
       <c r="G10" t="n">
-        <v>20.51333333333333</v>
+        <v>1016031.115802989</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1</v>
+        <v>21.2</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="D11" t="n">
-        <v>20.1</v>
+        <v>21.3</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="F11" t="n">
-        <v>6000</v>
+        <v>5590</v>
       </c>
       <c r="G11" t="n">
-        <v>20.46</v>
+        <v>1021621.115802989</v>
       </c>
       <c r="H11" t="n">
-        <v>21.02166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>1596</v>
       </c>
       <c r="G12" t="n">
-        <v>20.4</v>
+        <v>1020025.115802989</v>
       </c>
       <c r="H12" t="n">
-        <v>20.99000000000001</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="C13" t="n">
-        <v>19.3</v>
+        <v>20.7</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="E13" t="n">
-        <v>19.3</v>
+        <v>20.7</v>
       </c>
       <c r="F13" t="n">
-        <v>5576.4681</v>
+        <v>6000</v>
       </c>
       <c r="G13" t="n">
-        <v>20.29333333333334</v>
+        <v>1020025.115802989</v>
       </c>
       <c r="H13" t="n">
-        <v>20.955</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="C14" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="D14" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="E14" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>37480</v>
       </c>
       <c r="G14" t="n">
-        <v>20.24666666666667</v>
+        <v>1020025.115802989</v>
       </c>
       <c r="H14" t="n">
-        <v>20.925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="C15" t="n">
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="D15" t="n">
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="E15" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="F15" t="n">
-        <v>17.2376</v>
+        <v>13171.3682</v>
       </c>
       <c r="G15" t="n">
-        <v>20.19333333333334</v>
+        <v>1033196.484002989</v>
       </c>
       <c r="H15" t="n">
-        <v>20.90333333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="C16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="D16" t="n">
         <v>20.7</v>
       </c>
       <c r="E16" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="F16" t="n">
-        <v>19969.7249</v>
+        <v>22233.1606</v>
       </c>
       <c r="G16" t="n">
-        <v>20.18000000000001</v>
+        <v>1010963.323402989</v>
       </c>
       <c r="H16" t="n">
-        <v>20.87833333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="D17" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="E17" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="F17" t="n">
-        <v>29805</v>
+        <v>15694.9078</v>
       </c>
       <c r="G17" t="n">
-        <v>20.18666666666667</v>
+        <v>1010963.323402989</v>
       </c>
       <c r="H17" t="n">
-        <v>20.85333333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C18" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D18" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E18" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F18" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="n">
-        <v>20.25333333333334</v>
+        <v>1010963.323402989</v>
       </c>
       <c r="H18" t="n">
-        <v>20.83833333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C19" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D19" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E19" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>31748</v>
       </c>
       <c r="G19" t="n">
-        <v>20.28666666666667</v>
+        <v>979215.3234029887</v>
       </c>
       <c r="H19" t="n">
-        <v>20.82</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.1</v>
+        <v>20.6</v>
       </c>
       <c r="C20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="D20" t="n">
-        <v>20.1</v>
+        <v>20.6</v>
       </c>
       <c r="E20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>252134.3284</v>
       </c>
       <c r="G20" t="n">
-        <v>20.25333333333334</v>
+        <v>727080.9950029887</v>
       </c>
       <c r="H20" t="n">
-        <v>20.78166666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="F21" t="n">
-        <v>4367.1142</v>
+        <v>32308</v>
       </c>
       <c r="G21" t="n">
-        <v>20.24000000000001</v>
+        <v>759388.9950029887</v>
       </c>
       <c r="H21" t="n">
-        <v>20.75666666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,40 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="F22" t="n">
-        <v>5589.8198</v>
+        <v>800</v>
       </c>
       <c r="G22" t="n">
-        <v>20.22000000000001</v>
+        <v>760188.9950029887</v>
       </c>
       <c r="H22" t="n">
-        <v>20.73166666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>20</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1240,44 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="E23" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="F23" t="n">
-        <v>16744.0653</v>
+        <v>1442</v>
       </c>
       <c r="G23" t="n">
-        <v>20.12</v>
+        <v>761630.9950029887</v>
       </c>
       <c r="H23" t="n">
-        <v>20.70166666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>20</v>
-      </c>
-      <c r="L23" t="n">
-        <v>20</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,44 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="C24" t="n">
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="D24" t="n">
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="F24" t="n">
-        <v>13727.0653</v>
+        <v>1442</v>
       </c>
       <c r="G24" t="n">
-        <v>20.10000000000001</v>
+        <v>763072.9950029887</v>
       </c>
       <c r="H24" t="n">
-        <v>20.67166666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>20</v>
-      </c>
-      <c r="L24" t="n">
-        <v>20</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,44 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="F25" t="n">
-        <v>24587.1797</v>
+        <v>5940</v>
       </c>
       <c r="G25" t="n">
-        <v>20.07333333333334</v>
+        <v>763072.9950029887</v>
       </c>
       <c r="H25" t="n">
-        <v>20.63999999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>20</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,44 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="C26" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="D26" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="E26" t="n">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="F26" t="n">
-        <v>39.1133</v>
+        <v>4672.4523</v>
       </c>
       <c r="G26" t="n">
-        <v>20.09333333333334</v>
+        <v>767745.4473029887</v>
       </c>
       <c r="H26" t="n">
-        <v>20.61999999999999</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>20</v>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,44 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="C27" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="D27" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="E27" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="F27" t="n">
-        <v>760.8867</v>
+        <v>8648</v>
       </c>
       <c r="G27" t="n">
-        <v>20.11333333333334</v>
+        <v>767745.4473029887</v>
       </c>
       <c r="H27" t="n">
-        <v>20.60166666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1470,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="C28" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="D28" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="E28" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F28" t="n">
-        <v>50524.5597</v>
+        <v>97321</v>
       </c>
       <c r="G28" t="n">
-        <v>20.19333333333334</v>
+        <v>670424.4473029887</v>
       </c>
       <c r="H28" t="n">
-        <v>20.58333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="C29" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="D29" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="E29" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="F29" t="n">
-        <v>12000</v>
+        <v>71</v>
       </c>
       <c r="G29" t="n">
-        <v>20.21333333333334</v>
+        <v>670495.4473029887</v>
       </c>
       <c r="H29" t="n">
-        <v>20.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>20</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="C30" t="n">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="D30" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="E30" t="n">
-        <v>20.2</v>
+        <v>20.8</v>
       </c>
       <c r="F30" t="n">
-        <v>58974.0881</v>
+        <v>0.8396</v>
       </c>
       <c r="G30" t="n">
-        <v>20.22000000000001</v>
+        <v>670494.6077029888</v>
       </c>
       <c r="H30" t="n">
-        <v>20.55166666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>20</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1602,42 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="C31" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="D31" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="E31" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="F31" t="n">
-        <v>18131.7073</v>
+        <v>1997</v>
       </c>
       <c r="G31" t="n">
-        <v>20.20666666666667</v>
+        <v>668497.6077029888</v>
       </c>
       <c r="H31" t="n">
-        <v>20.53333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>20</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1649,41 +1486,30 @@
         <v>20.2</v>
       </c>
       <c r="C32" t="n">
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="D32" t="n">
         <v>20.2</v>
       </c>
       <c r="E32" t="n">
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="F32" t="n">
-        <v>6000</v>
+        <v>88957</v>
       </c>
       <c r="G32" t="n">
-        <v>20.20666666666667</v>
+        <v>579540.6077029888</v>
       </c>
       <c r="H32" t="n">
-        <v>20.51166666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L32" t="n">
-        <v>20</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1695,39 +1521,30 @@
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
         <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="F33" t="n">
-        <v>46691.2785</v>
+        <v>6835</v>
       </c>
       <c r="G33" t="n">
-        <v>20.16666666666667</v>
+        <v>586375.6077029888</v>
       </c>
       <c r="H33" t="n">
-        <v>20.48333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>20</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1736,44 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="C34" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="D34" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="E34" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="F34" t="n">
-        <v>8305</v>
+        <v>300</v>
       </c>
       <c r="G34" t="n">
-        <v>20.16666666666667</v>
+        <v>586675.6077029888</v>
       </c>
       <c r="H34" t="n">
-        <v>20.465</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>20</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,32 +1600,21 @@
         <v>20.2</v>
       </c>
       <c r="F35" t="n">
-        <v>7744.596</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
-        <v>20.2</v>
+        <v>586675.6077029888</v>
       </c>
       <c r="H35" t="n">
-        <v>20.44666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>20</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,39 +1626,36 @@
         <v>20.2</v>
       </c>
       <c r="C36" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="D36" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="E36" t="n">
         <v>20.2</v>
       </c>
       <c r="F36" t="n">
-        <v>66168</v>
+        <v>10376</v>
       </c>
       <c r="G36" t="n">
-        <v>20.24666666666667</v>
+        <v>597051.6077029888</v>
       </c>
       <c r="H36" t="n">
-        <v>20.445</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>20</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1872,42 +1664,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="C37" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="D37" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="E37" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>31190.232</v>
       </c>
       <c r="G37" t="n">
-        <v>20.26</v>
+        <v>628241.8397029887</v>
       </c>
       <c r="H37" t="n">
-        <v>20.43333333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>20</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1928,30 +1715,25 @@
         <v>20.4</v>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>524</v>
       </c>
       <c r="G38" t="n">
-        <v>20.28666666666667</v>
+        <v>627717.8397029887</v>
       </c>
       <c r="H38" t="n">
-        <v>20.42000000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>20</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,42 +1742,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="C39" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="D39" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E39" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F39" t="n">
-        <v>1400</v>
+        <v>1436.784</v>
       </c>
       <c r="G39" t="n">
-        <v>20.31333333333333</v>
+        <v>627717.8397029887</v>
       </c>
       <c r="H39" t="n">
-        <v>20.41000000000001</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>20</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,42 +1781,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="C40" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="E40" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>5879</v>
+        <v>6000</v>
       </c>
       <c r="G40" t="n">
-        <v>20.33333333333333</v>
+        <v>621717.8397029887</v>
       </c>
       <c r="H40" t="n">
-        <v>20.395</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>20</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2060,30 +1832,25 @@
         <v>20</v>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="n">
-        <v>20.31333333333333</v>
+        <v>621717.8397029887</v>
       </c>
       <c r="H41" t="n">
-        <v>20.375</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>20</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,42 +1859,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="D42" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="F42" t="n">
-        <v>156024.6623</v>
+        <v>5576.4681</v>
       </c>
       <c r="G42" t="n">
-        <v>20.27999999999999</v>
+        <v>616141.3716029887</v>
       </c>
       <c r="H42" t="n">
-        <v>20.35</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>20</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2136,42 +1898,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="C43" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="D43" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="E43" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="F43" t="n">
-        <v>121884.2817</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>20.23333333333333</v>
+        <v>620141.3716029887</v>
       </c>
       <c r="H43" t="n">
-        <v>20.335</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>20</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2192,30 +1949,25 @@
         <v>20.1</v>
       </c>
       <c r="F44" t="n">
-        <v>1444.4776</v>
+        <v>17.2376</v>
       </c>
       <c r="G44" t="n">
-        <v>20.21333333333333</v>
+        <v>620141.3716029887</v>
       </c>
       <c r="H44" t="n">
-        <v>20.325</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>20</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,44 +1976,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19.9</v>
+        <v>20.4</v>
       </c>
       <c r="C45" t="n">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="D45" t="n">
-        <v>19.9</v>
+        <v>20.7</v>
       </c>
       <c r="E45" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="F45" t="n">
-        <v>73934.0793</v>
+        <v>19969.7249</v>
       </c>
       <c r="G45" t="n">
-        <v>20.19333333333333</v>
+        <v>640111.0965029887</v>
       </c>
       <c r="H45" t="n">
-        <v>20.31166666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>20</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2270,44 +2015,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="C46" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="E46" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="F46" t="n">
-        <v>85525.5095</v>
+        <v>29805</v>
       </c>
       <c r="G46" t="n">
-        <v>20.16</v>
+        <v>610306.0965029887</v>
       </c>
       <c r="H46" t="n">
-        <v>20.29666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="L46" t="n">
-        <v>20</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,44 +2054,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C47" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="E47" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="F47" t="n">
-        <v>17200.7938</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="n">
-        <v>20.14</v>
+        <v>612306.0965029887</v>
       </c>
       <c r="H47" t="n">
-        <v>20.28333333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="L47" t="n">
-        <v>20</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2362,42 +2093,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C48" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="E48" t="n">
-        <v>19.9</v>
+        <v>20.5</v>
       </c>
       <c r="F48" t="n">
-        <v>13483.6479</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="n">
-        <v>20.14</v>
+        <v>612306.0965029887</v>
       </c>
       <c r="H48" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>20</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,42 +2132,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="C49" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="D49" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="E49" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="F49" t="n">
-        <v>63595.781</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="n">
-        <v>20.1</v>
+        <v>608306.0965029887</v>
       </c>
       <c r="H49" t="n">
-        <v>20.25666666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>20</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,42 +2171,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="F50" t="n">
-        <v>4380</v>
+        <v>4367.1142</v>
       </c>
       <c r="G50" t="n">
-        <v>20.1</v>
+        <v>612673.2107029887</v>
       </c>
       <c r="H50" t="n">
-        <v>20.25000000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>20</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,42 +2210,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="F51" t="n">
-        <v>2399</v>
+        <v>5589.8198</v>
       </c>
       <c r="G51" t="n">
-        <v>20.1</v>
+        <v>612673.2107029887</v>
       </c>
       <c r="H51" t="n">
-        <v>20.26500000000001</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>20</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,42 +2249,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="C52" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="E52" t="n">
         <v>19.9</v>
       </c>
       <c r="F52" t="n">
-        <v>28176</v>
+        <v>16744.0653</v>
       </c>
       <c r="G52" t="n">
-        <v>20.07999999999999</v>
+        <v>612673.2107029887</v>
       </c>
       <c r="H52" t="n">
-        <v>20.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>20</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,7 +2288,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="C53" t="n">
         <v>20.1</v>
@@ -2591,33 +2297,28 @@
         <v>20.1</v>
       </c>
       <c r="E53" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="F53" t="n">
-        <v>2230.1415</v>
+        <v>13727.0653</v>
       </c>
       <c r="G53" t="n">
-        <v>20.06</v>
+        <v>626400.2760029887</v>
       </c>
       <c r="H53" t="n">
-        <v>20.25666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>20</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,42 +2327,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>6324.3303</v>
+        <v>24587.1797</v>
       </c>
       <c r="G54" t="n">
-        <v>20.04</v>
+        <v>601813.0963029887</v>
       </c>
       <c r="H54" t="n">
-        <v>20.24833333333334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>20</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,42 +2366,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="C55" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="D55" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="E55" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="F55" t="n">
-        <v>26746</v>
+        <v>39.1133</v>
       </c>
       <c r="G55" t="n">
-        <v>20.05333333333333</v>
+        <v>601852.2096029887</v>
       </c>
       <c r="H55" t="n">
-        <v>20.24333333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>20</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,42 +2405,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="C56" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="D56" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="E56" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F56" t="n">
-        <v>216624.439</v>
+        <v>760.8867</v>
       </c>
       <c r="G56" t="n">
-        <v>20.08666666666666</v>
+        <v>601852.2096029887</v>
       </c>
       <c r="H56" t="n">
-        <v>20.23833333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>20</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,7 +2444,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="C57" t="n">
         <v>20.5</v>
@@ -2767,33 +2453,28 @@
         <v>20.5</v>
       </c>
       <c r="E57" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F57" t="n">
-        <v>29419.9285</v>
+        <v>50524.5597</v>
       </c>
       <c r="G57" t="n">
-        <v>20.13333333333333</v>
+        <v>652376.7693029887</v>
       </c>
       <c r="H57" t="n">
-        <v>20.23166666666668</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>20</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,42 +2483,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="C58" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="D58" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E58" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F58" t="n">
-        <v>400.7804</v>
+        <v>12000</v>
       </c>
       <c r="G58" t="n">
-        <v>20.18</v>
+        <v>640376.7693029887</v>
       </c>
       <c r="H58" t="n">
-        <v>20.22500000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>20</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,42 +2522,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="C59" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="D59" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E59" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="F59" t="n">
-        <v>1292</v>
+        <v>58974.0881</v>
       </c>
       <c r="G59" t="n">
-        <v>20.20666666666666</v>
+        <v>581402.6812029886</v>
       </c>
       <c r="H59" t="n">
-        <v>20.22000000000001</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>20</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,42 +2561,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="C60" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D60" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E60" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="F60" t="n">
-        <v>6000</v>
+        <v>18131.7073</v>
       </c>
       <c r="G60" t="n">
-        <v>20.25999999999999</v>
+        <v>599534.3885029886</v>
       </c>
       <c r="H60" t="n">
-        <v>20.21666666666668</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>20</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,42 +2600,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="C61" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="D61" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="E61" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G61" t="n">
-        <v>20.31333333333333</v>
+        <v>593534.3885029886</v>
       </c>
       <c r="H61" t="n">
-        <v>20.21500000000001</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>20</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,42 +2639,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="C62" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="D62" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="F62" t="n">
-        <v>8618</v>
+        <v>46691.2785</v>
       </c>
       <c r="G62" t="n">
-        <v>20.4</v>
+        <v>546843.1100029886</v>
       </c>
       <c r="H62" t="n">
-        <v>20.23333333333334</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>20</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,42 +2678,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="C63" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="D63" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="E63" t="n">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="F63" t="n">
-        <v>10589.3393</v>
+        <v>8305</v>
       </c>
       <c r="G63" t="n">
-        <v>20.48666666666666</v>
+        <v>555148.1100029886</v>
       </c>
       <c r="H63" t="n">
-        <v>20.26166666666668</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>20</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,42 +2717,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="C64" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="D64" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="E64" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="F64" t="n">
-        <v>2352</v>
+        <v>7744.596</v>
       </c>
       <c r="G64" t="n">
-        <v>20.54</v>
+        <v>547403.5140029886</v>
       </c>
       <c r="H64" t="n">
-        <v>20.27333333333335</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>20</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,7 +2756,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="C65" t="n">
         <v>20.7</v>
@@ -3119,33 +2765,28 @@
         <v>20.7</v>
       </c>
       <c r="E65" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="F65" t="n">
-        <v>9621.8285</v>
+        <v>66168</v>
       </c>
       <c r="G65" t="n">
-        <v>20.57333333333333</v>
+        <v>613571.5140029886</v>
       </c>
       <c r="H65" t="n">
-        <v>20.28166666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>20</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,42 +2795,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="C66" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="D66" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="E66" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="F66" t="n">
-        <v>6016.6379</v>
+        <v>800</v>
       </c>
       <c r="G66" t="n">
-        <v>20.55333333333333</v>
+        <v>612771.5140029886</v>
       </c>
       <c r="H66" t="n">
-        <v>20.28500000000001</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>20</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,30 +2846,25 @@
         <v>20.4</v>
       </c>
       <c r="F67" t="n">
-        <v>3166.0615</v>
+        <v>800</v>
       </c>
       <c r="G67" t="n">
-        <v>20.58666666666666</v>
+        <v>613571.5140029886</v>
       </c>
       <c r="H67" t="n">
-        <v>20.28666666666668</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>20</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,42 +2873,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="C68" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D68" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E68" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="F68" t="n">
-        <v>38783.5125</v>
+        <v>1400</v>
       </c>
       <c r="G68" t="n">
-        <v>20.62</v>
+        <v>614971.5140029886</v>
       </c>
       <c r="H68" t="n">
-        <v>20.27166666666668</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>20</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,42 +2912,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="C69" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="D69" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="E69" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="F69" t="n">
-        <v>3205</v>
+        <v>5879</v>
       </c>
       <c r="G69" t="n">
-        <v>20.63333333333333</v>
+        <v>609092.5140029886</v>
       </c>
       <c r="H69" t="n">
-        <v>20.27166666666668</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>20</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,44 +2951,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="C70" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>7475</v>
+        <v>800</v>
       </c>
       <c r="G70" t="n">
-        <v>20.63333333333333</v>
+        <v>608292.5140029886</v>
       </c>
       <c r="H70" t="n">
-        <v>20.27333333333335</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L70" t="n">
-        <v>20</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3376,42 +2990,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="C71" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="D71" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="E71" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="F71" t="n">
-        <v>41.8136</v>
+        <v>156024.6623</v>
       </c>
       <c r="G71" t="n">
-        <v>20.62666666666666</v>
+        <v>452267.8517029886</v>
       </c>
       <c r="H71" t="n">
-        <v>20.28000000000002</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>20</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,42 +3029,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="C72" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="D72" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="E72" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="F72" t="n">
-        <v>471.4101</v>
+        <v>121884.2817</v>
       </c>
       <c r="G72" t="n">
-        <v>20.61999999999999</v>
+        <v>452267.8517029886</v>
       </c>
       <c r="H72" t="n">
-        <v>20.28666666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>20</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,44 +3068,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="C73" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="D73" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="E73" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="F73" t="n">
-        <v>110504.3894</v>
+        <v>1444.4776</v>
       </c>
       <c r="G73" t="n">
-        <v>20.57333333333333</v>
+        <v>453712.3293029886</v>
       </c>
       <c r="H73" t="n">
-        <v>20.29500000000002</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="L73" t="n">
-        <v>20</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,44 +3107,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="C74" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="D74" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="E74" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="F74" t="n">
-        <v>7120</v>
+        <v>73934.0793</v>
       </c>
       <c r="G74" t="n">
-        <v>20.57333333333333</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H74" t="n">
-        <v>20.30166666666668</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,44 +3146,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="D75" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="F75" t="n">
-        <v>43443</v>
+        <v>85525.5095</v>
       </c>
       <c r="G75" t="n">
-        <v>20.56666666666666</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H75" t="n">
-        <v>20.31000000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L75" t="n">
-        <v>20</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,44 +3185,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
-        <v>20.9</v>
+        <v>19.9</v>
       </c>
       <c r="D76" t="n">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="E76" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="F76" t="n">
-        <v>2026.6935</v>
+        <v>17200.7938</v>
       </c>
       <c r="G76" t="n">
-        <v>20.57999999999999</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H76" t="n">
-        <v>20.31500000000002</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L76" t="n">
-        <v>20</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,42 +3224,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="D77" t="n">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="F77" t="n">
-        <v>306123.0557</v>
+        <v>13483.6479</v>
       </c>
       <c r="G77" t="n">
-        <v>20.54666666666666</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H77" t="n">
-        <v>20.32333333333336</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>20</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,42 +3263,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="C78" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="D78" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="E78" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="F78" t="n">
-        <v>207579</v>
+        <v>63595.781</v>
       </c>
       <c r="G78" t="n">
-        <v>20.50666666666666</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H78" t="n">
-        <v>20.32500000000002</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>20</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3736,42 +3302,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="C79" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="D79" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="E79" t="n">
-        <v>20.6</v>
+        <v>20.1</v>
       </c>
       <c r="F79" t="n">
-        <v>37200</v>
+        <v>4380</v>
       </c>
       <c r="G79" t="n">
-        <v>20.5</v>
+        <v>384158.2500029886</v>
       </c>
       <c r="H79" t="n">
-        <v>20.32666666666669</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>20</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="C80" t="n">
         <v>20.7</v>
@@ -3789,33 +3350,28 @@
         <v>20.7</v>
       </c>
       <c r="E80" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="F80" t="n">
-        <v>140131.2077</v>
+        <v>2399</v>
       </c>
       <c r="G80" t="n">
-        <v>20.5</v>
+        <v>386557.2500029886</v>
       </c>
       <c r="H80" t="n">
-        <v>20.34333333333335</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>20</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,42 +3380,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C81" t="n">
-        <v>21.8</v>
+        <v>19.9</v>
       </c>
       <c r="D81" t="n">
-        <v>21.9</v>
+        <v>20.4</v>
       </c>
       <c r="E81" t="n">
-        <v>20.9</v>
+        <v>19.9</v>
       </c>
       <c r="F81" t="n">
-        <v>41178.6323</v>
+        <v>28176</v>
       </c>
       <c r="G81" t="n">
-        <v>20.59333333333334</v>
+        <v>358381.2500029886</v>
       </c>
       <c r="H81" t="n">
-        <v>20.37333333333335</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>20</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,42 +3419,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.8</v>
+        <v>20.1</v>
       </c>
       <c r="C82" t="n">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="D82" t="n">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="E82" t="n">
-        <v>21.8</v>
+        <v>20.1</v>
       </c>
       <c r="F82" t="n">
-        <v>146295</v>
+        <v>2230.1415</v>
       </c>
       <c r="G82" t="n">
-        <v>20.72666666666667</v>
+        <v>360611.3915029886</v>
       </c>
       <c r="H82" t="n">
-        <v>20.41333333333335</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>20</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,42 +3458,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="C83" t="n">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="D83" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="E83" t="n">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="F83" t="n">
-        <v>6000</v>
+        <v>6324.3303</v>
       </c>
       <c r="G83" t="n">
-        <v>20.78666666666667</v>
+        <v>366935.7218029886</v>
       </c>
       <c r="H83" t="n">
-        <v>20.43833333333335</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>20</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,42 +3497,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21.9</v>
+        <v>20.5</v>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="D84" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="E84" t="n">
-        <v>21.9</v>
+        <v>20.2</v>
       </c>
       <c r="F84" t="n">
-        <v>9523</v>
+        <v>26746</v>
       </c>
       <c r="G84" t="n">
-        <v>20.89333333333333</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H84" t="n">
-        <v>20.47000000000002</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>20</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,42 +3536,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="C85" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="D85" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="E85" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="F85" t="n">
-        <v>30096.1136</v>
+        <v>216624.439</v>
       </c>
       <c r="G85" t="n">
-        <v>20.99333333333334</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H85" t="n">
-        <v>20.50333333333335</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>20</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,42 +3575,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="D86" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="E86" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>29419.9285</v>
       </c>
       <c r="G86" t="n">
-        <v>21.1</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H86" t="n">
-        <v>20.53166666666669</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>20</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,42 +3614,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="C87" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="D87" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="E87" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="F87" t="n">
-        <v>336</v>
+        <v>400.7804</v>
       </c>
       <c r="G87" t="n">
-        <v>21.20666666666667</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H87" t="n">
-        <v>20.56000000000002</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>20</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,42 +3653,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="C88" t="n">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="D88" t="n">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="E88" t="n">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="F88" t="n">
-        <v>74.04559999999999</v>
+        <v>1292</v>
       </c>
       <c r="G88" t="n">
-        <v>21.34000000000001</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H88" t="n">
-        <v>20.58166666666669</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>20</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,42 +3692,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="C89" t="n">
-        <v>22.2</v>
+        <v>20.7</v>
       </c>
       <c r="D89" t="n">
-        <v>22.2</v>
+        <v>20.7</v>
       </c>
       <c r="E89" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="F89" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G89" t="n">
-        <v>21.45333333333334</v>
+        <v>399681.7218029886</v>
       </c>
       <c r="H89" t="n">
-        <v>20.61166666666669</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>20</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,42 +3731,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22.2</v>
+        <v>20.7</v>
       </c>
       <c r="C90" t="n">
-        <v>22.2</v>
+        <v>20.7</v>
       </c>
       <c r="D90" t="n">
-        <v>22.2</v>
+        <v>20.7</v>
       </c>
       <c r="E90" t="n">
-        <v>22.2</v>
+        <v>20.7</v>
       </c>
       <c r="F90" t="n">
-        <v>2263</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="n">
-        <v>21.56</v>
+        <v>399681.7218029886</v>
       </c>
       <c r="H90" t="n">
-        <v>20.64500000000002</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>20</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,42 +3770,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22.1</v>
+        <v>20.7</v>
       </c>
       <c r="C91" t="n">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="D91" t="n">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="E91" t="n">
-        <v>22.1</v>
+        <v>20.7</v>
       </c>
       <c r="F91" t="n">
-        <v>56924.8648</v>
+        <v>8618</v>
       </c>
       <c r="G91" t="n">
-        <v>21.64666666666667</v>
+        <v>408299.7218029886</v>
       </c>
       <c r="H91" t="n">
-        <v>20.67500000000002</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>20</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4308,42 +3809,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="C92" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="D92" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="E92" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="F92" t="n">
-        <v>56782.5526</v>
+        <v>10589.3393</v>
       </c>
       <c r="G92" t="n">
-        <v>21.71333333333333</v>
+        <v>408299.7218029886</v>
       </c>
       <c r="H92" t="n">
-        <v>20.70000000000002</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>20</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,42 +3848,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="C93" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="D93" t="n">
-        <v>21.8</v>
+        <v>20.8</v>
       </c>
       <c r="E93" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="F93" t="n">
-        <v>40024.5235</v>
+        <v>2352</v>
       </c>
       <c r="G93" t="n">
-        <v>21.78666666666667</v>
+        <v>405947.7218029886</v>
       </c>
       <c r="H93" t="n">
-        <v>20.73000000000002</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>20</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4396,43 +3887,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="C94" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="D94" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="E94" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="F94" t="n">
-        <v>26462.3447</v>
+        <v>9621.8285</v>
       </c>
       <c r="G94" t="n">
-        <v>21.86</v>
+        <v>405947.7218029886</v>
       </c>
       <c r="H94" t="n">
-        <v>20.75000000000002</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>20</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>1.08</v>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4440,36 +3926,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="C95" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="D95" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="E95" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="F95" t="n">
-        <v>4224.8864</v>
+        <v>6016.6379</v>
       </c>
       <c r="G95" t="n">
-        <v>21.91333333333333</v>
+        <v>399931.0839029886</v>
       </c>
       <c r="H95" t="n">
-        <v>20.77166666666669</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,36 +3965,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="C96" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="D96" t="n">
-        <v>21.4</v>
+        <v>20.4</v>
       </c>
       <c r="E96" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="F96" t="n">
-        <v>4700</v>
+        <v>3166.0615</v>
       </c>
       <c r="G96" t="n">
-        <v>21.88</v>
+        <v>399931.0839029886</v>
       </c>
       <c r="H96" t="n">
-        <v>20.78166666666668</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4516,36 +4004,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="C97" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="D97" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="E97" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="F97" t="n">
-        <v>14211.4327</v>
+        <v>38783.5125</v>
       </c>
       <c r="G97" t="n">
-        <v>21.80666666666667</v>
+        <v>438714.5964029887</v>
       </c>
       <c r="H97" t="n">
-        <v>20.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,36 +4043,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="C98" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="D98" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="E98" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F98" t="n">
-        <v>37515.2335</v>
+        <v>3205</v>
       </c>
       <c r="G98" t="n">
-        <v>21.74</v>
+        <v>435509.5964029887</v>
       </c>
       <c r="H98" t="n">
-        <v>20.80166666666668</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4592,36 +4082,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="C99" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D99" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E99" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="F99" t="n">
-        <v>6572.0297</v>
+        <v>7475</v>
       </c>
       <c r="G99" t="n">
-        <v>21.64666666666667</v>
+        <v>442984.5964029887</v>
       </c>
       <c r="H99" t="n">
-        <v>20.80333333333335</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,36 +4121,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="C100" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D100" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="E100" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F100" t="n">
-        <v>15073.5474</v>
+        <v>41.8136</v>
       </c>
       <c r="G100" t="n">
-        <v>21.57333333333333</v>
+        <v>442942.7828029887</v>
       </c>
       <c r="H100" t="n">
-        <v>20.81333333333335</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,36 +4160,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C101" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D101" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="E101" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F101" t="n">
-        <v>956.937</v>
+        <v>471.4101</v>
       </c>
       <c r="G101" t="n">
-        <v>21.5</v>
+        <v>442942.7828029887</v>
       </c>
       <c r="H101" t="n">
-        <v>20.82833333333335</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,36 +4199,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C102" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="D102" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="E102" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="F102" t="n">
-        <v>2614</v>
+        <v>110504.3894</v>
       </c>
       <c r="G102" t="n">
-        <v>21.42666666666667</v>
+        <v>332438.3934029887</v>
       </c>
       <c r="H102" t="n">
-        <v>20.84666666666669</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,36 +4238,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="C103" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="D103" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="E103" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F103" t="n">
-        <v>4000</v>
+        <v>7120</v>
       </c>
       <c r="G103" t="n">
-        <v>21.39333333333333</v>
+        <v>339558.3934029887</v>
       </c>
       <c r="H103" t="n">
-        <v>20.87166666666668</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,33 +4280,34 @@
         <v>20.5</v>
       </c>
       <c r="C104" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D104" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="E104" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="F104" t="n">
-        <v>144</v>
+        <v>43443</v>
       </c>
       <c r="G104" t="n">
-        <v>21.28</v>
+        <v>383001.3934029887</v>
       </c>
       <c r="H104" t="n">
-        <v>20.87833333333335</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,36 +4316,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="C105" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="D105" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="E105" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F105" t="n">
-        <v>16009</v>
+        <v>2026.6935</v>
       </c>
       <c r="G105" t="n">
-        <v>21.22</v>
+        <v>385028.0869029887</v>
       </c>
       <c r="H105" t="n">
-        <v>20.90166666666669</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,36 +4355,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="D106" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="E106" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="F106" t="n">
-        <v>8601</v>
+        <v>306123.0557</v>
       </c>
       <c r="G106" t="n">
-        <v>21.14</v>
+        <v>78905.03120298864</v>
       </c>
       <c r="H106" t="n">
-        <v>20.92000000000002</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,36 +4394,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C107" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="D107" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="E107" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="F107" t="n">
-        <v>1400</v>
+        <v>207579</v>
       </c>
       <c r="G107" t="n">
-        <v>21.11333333333334</v>
+        <v>-128673.9687970114</v>
       </c>
       <c r="H107" t="n">
-        <v>20.94333333333335</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,36 +4433,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="C108" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="D108" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="E108" t="n">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="F108" t="n">
-        <v>33375</v>
+        <v>37200</v>
       </c>
       <c r="G108" t="n">
-        <v>21.08666666666667</v>
+        <v>-128673.9687970114</v>
       </c>
       <c r="H108" t="n">
-        <v>20.96666666666668</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,36 +4472,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="C109" t="n">
-        <v>21.5</v>
+        <v>20.7</v>
       </c>
       <c r="D109" t="n">
-        <v>21.5</v>
+        <v>20.7</v>
       </c>
       <c r="E109" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="F109" t="n">
-        <v>3991.3482</v>
+        <v>140131.2077</v>
       </c>
       <c r="G109" t="n">
-        <v>21.07333333333334</v>
+        <v>11457.23890298864</v>
       </c>
       <c r="H109" t="n">
-        <v>20.99333333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,36 +4511,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="C110" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="D110" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="E110" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="F110" t="n">
-        <v>33052.092</v>
+        <v>41178.6323</v>
       </c>
       <c r="G110" t="n">
-        <v>21.05333333333334</v>
+        <v>52635.87120298864</v>
       </c>
       <c r="H110" t="n">
-        <v>21.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,36 +4550,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="C111" t="n">
-        <v>21.1</v>
+        <v>22.4</v>
       </c>
       <c r="D111" t="n">
-        <v>21.3</v>
+        <v>22.4</v>
       </c>
       <c r="E111" t="n">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="F111" t="n">
-        <v>22276</v>
+        <v>146295</v>
       </c>
       <c r="G111" t="n">
-        <v>21.04000000000001</v>
+        <v>198930.8712029886</v>
       </c>
       <c r="H111" t="n">
-        <v>21.01666666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,36 +4589,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.4</v>
+        <v>22</v>
       </c>
       <c r="C112" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D112" t="n">
-        <v>21.4</v>
+        <v>22</v>
       </c>
       <c r="E112" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F112" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G112" t="n">
-        <v>21.04666666666667</v>
+        <v>192930.8712029886</v>
       </c>
       <c r="H112" t="n">
-        <v>21.04166666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5124,36 +4628,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.2</v>
+        <v>21.9</v>
       </c>
       <c r="C113" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="D113" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="E113" t="n">
-        <v>21.2</v>
+        <v>21.9</v>
       </c>
       <c r="F113" t="n">
-        <v>5486.1003</v>
+        <v>9523</v>
       </c>
       <c r="G113" t="n">
-        <v>21.09333333333334</v>
+        <v>202453.8712029886</v>
       </c>
       <c r="H113" t="n">
-        <v>21.06000000000001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,36 +4667,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="C114" t="n">
-        <v>21.4</v>
+        <v>22</v>
       </c>
       <c r="D114" t="n">
-        <v>21.4</v>
+        <v>22</v>
       </c>
       <c r="E114" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="F114" t="n">
-        <v>3723.8059</v>
+        <v>30096.1136</v>
       </c>
       <c r="G114" t="n">
-        <v>21.14666666666666</v>
+        <v>202453.8712029886</v>
       </c>
       <c r="H114" t="n">
-        <v>21.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,36 +4706,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="C115" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="D115" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="E115" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="F115" t="n">
-        <v>1951.2204</v>
+        <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>21.16666666666667</v>
+        <v>202453.8712029886</v>
       </c>
       <c r="H115" t="n">
-        <v>21.09166666666668</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,36 +4745,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="C116" t="n">
-        <v>21.3</v>
+        <v>22</v>
       </c>
       <c r="D116" t="n">
-        <v>21.3</v>
+        <v>22</v>
       </c>
       <c r="E116" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="F116" t="n">
-        <v>9404</v>
+        <v>336</v>
       </c>
       <c r="G116" t="n">
-        <v>21.19333333333334</v>
+        <v>202453.8712029886</v>
       </c>
       <c r="H116" t="n">
-        <v>21.10500000000001</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5276,36 +4784,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="C117" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="D117" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="E117" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="F117" t="n">
-        <v>551.0328</v>
+        <v>74.04559999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>21.22000000000001</v>
+        <v>202379.8256029886</v>
       </c>
       <c r="H117" t="n">
-        <v>21.11833333333334</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,36 +4823,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C118" t="n">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="D118" t="n">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="E118" t="n">
-        <v>20.6</v>
+        <v>22</v>
       </c>
       <c r="F118" t="n">
-        <v>48626.6673</v>
+        <v>4000</v>
       </c>
       <c r="G118" t="n">
-        <v>21.17333333333334</v>
+        <v>206379.8256029886</v>
       </c>
       <c r="H118" t="n">
-        <v>21.12000000000001</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,36 +4862,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20.7</v>
+        <v>22.2</v>
       </c>
       <c r="C119" t="n">
-        <v>20.7</v>
+        <v>22.2</v>
       </c>
       <c r="D119" t="n">
-        <v>20.7</v>
+        <v>22.2</v>
       </c>
       <c r="E119" t="n">
-        <v>20.7</v>
+        <v>22.2</v>
       </c>
       <c r="F119" t="n">
-        <v>5160.174</v>
+        <v>2263</v>
       </c>
       <c r="G119" t="n">
-        <v>21.18666666666667</v>
+        <v>206379.8256029886</v>
       </c>
       <c r="H119" t="n">
-        <v>21.12333333333334</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,36 +4901,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.9</v>
+        <v>22.1</v>
       </c>
       <c r="C120" t="n">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="D120" t="n">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="E120" t="n">
-        <v>20.9</v>
+        <v>22.1</v>
       </c>
       <c r="F120" t="n">
-        <v>23041.7339</v>
+        <v>56924.8648</v>
       </c>
       <c r="G120" t="n">
-        <v>21.18666666666667</v>
+        <v>206379.8256029886</v>
       </c>
       <c r="H120" t="n">
-        <v>21.13333333333334</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,36 +4940,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="C121" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="D121" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="E121" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>56782.5526</v>
       </c>
       <c r="G121" t="n">
-        <v>21.2</v>
+        <v>149597.2730029886</v>
       </c>
       <c r="H121" t="n">
-        <v>21.14166666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,36 +4979,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="C122" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="D122" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="E122" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="F122" t="n">
-        <v>10994.0337</v>
+        <v>40024.5235</v>
       </c>
       <c r="G122" t="n">
-        <v>21.16666666666667</v>
+        <v>149597.2730029886</v>
       </c>
       <c r="H122" t="n">
-        <v>21.13500000000001</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,36 +5018,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="C123" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="D123" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="E123" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="F123" t="n">
-        <v>9500</v>
+        <v>26462.3447</v>
       </c>
       <c r="G123" t="n">
-        <v>21.18</v>
+        <v>149597.2730029886</v>
       </c>
       <c r="H123" t="n">
-        <v>21.14</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,36 +5057,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="C124" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D124" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="E124" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>4224.8864</v>
       </c>
       <c r="G124" t="n">
-        <v>21.17333333333334</v>
+        <v>145372.3866029886</v>
       </c>
       <c r="H124" t="n">
-        <v>21.15166666666667</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,36 +5096,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="C125" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D125" t="n">
         <v>21.4</v>
       </c>
       <c r="E125" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F125" t="n">
-        <v>83</v>
+        <v>4700</v>
       </c>
       <c r="G125" t="n">
-        <v>21.18666666666667</v>
+        <v>140672.3866029886</v>
       </c>
       <c r="H125" t="n">
-        <v>21.16333333333334</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5618,36 +5135,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="C126" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="D126" t="n">
         <v>21.4</v>
       </c>
       <c r="E126" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F126" t="n">
-        <v>11</v>
+        <v>14211.4327</v>
       </c>
       <c r="G126" t="n">
-        <v>21.20666666666666</v>
+        <v>140672.3866029886</v>
       </c>
       <c r="H126" t="n">
-        <v>21.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,36 +5174,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="C127" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="D127" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="E127" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="F127" t="n">
-        <v>662</v>
+        <v>37515.2335</v>
       </c>
       <c r="G127" t="n">
-        <v>21.21333333333333</v>
+        <v>103157.1531029886</v>
       </c>
       <c r="H127" t="n">
-        <v>21.19833333333334</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,36 +5213,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="C128" t="n">
-        <v>21.7</v>
+        <v>20.6</v>
       </c>
       <c r="D128" t="n">
-        <v>21.7</v>
+        <v>20.6</v>
       </c>
       <c r="E128" t="n">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="F128" t="n">
-        <v>4000</v>
+        <v>6572.0297</v>
       </c>
       <c r="G128" t="n">
-        <v>21.24666666666667</v>
+        <v>109729.1828029886</v>
       </c>
       <c r="H128" t="n">
-        <v>21.21666666666668</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,36 +5252,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="C129" t="n">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="D129" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="E129" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="F129" t="n">
-        <v>14915.8796</v>
+        <v>15073.5474</v>
       </c>
       <c r="G129" t="n">
-        <v>21.26</v>
+        <v>124802.7302029886</v>
       </c>
       <c r="H129" t="n">
-        <v>21.23666666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5770,36 +5291,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="C130" t="n">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="D130" t="n">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="E130" t="n">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="F130" t="n">
-        <v>666.9861751152074</v>
+        <v>956.937</v>
       </c>
       <c r="G130" t="n">
-        <v>21.29333333333334</v>
+        <v>124802.7302029886</v>
       </c>
       <c r="H130" t="n">
-        <v>21.25666666666667</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5808,36 +5330,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="C131" t="n">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="D131" t="n">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="E131" t="n">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="F131" t="n">
-        <v>91.61290322580645</v>
+        <v>2614</v>
       </c>
       <c r="G131" t="n">
-        <v>21.32</v>
+        <v>124802.7302029886</v>
       </c>
       <c r="H131" t="n">
-        <v>21.27833333333334</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5846,36 +5369,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C132" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="D132" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="E132" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="F132" t="n">
-        <v>114.375</v>
+        <v>4000</v>
       </c>
       <c r="G132" t="n">
-        <v>21.3</v>
+        <v>128802.7302029886</v>
       </c>
       <c r="H132" t="n">
-        <v>21.28833333333334</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,36 +5408,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="C133" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="D133" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="E133" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="F133" t="n">
-        <v>14000</v>
+        <v>144</v>
       </c>
       <c r="G133" t="n">
-        <v>21.34666666666667</v>
+        <v>128658.7302029886</v>
       </c>
       <c r="H133" t="n">
-        <v>21.31333333333334</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5922,7 +5447,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C134" t="n">
         <v>21.3</v>
@@ -5931,27 +5456,28 @@
         <v>21.3</v>
       </c>
       <c r="E134" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F134" t="n">
-        <v>24000</v>
+        <v>16009</v>
       </c>
       <c r="G134" t="n">
-        <v>21.38666666666667</v>
+        <v>144667.7302029886</v>
       </c>
       <c r="H134" t="n">
-        <v>21.32666666666667</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5960,36 +5486,1178 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>21</v>
+      </c>
+      <c r="C135" t="n">
+        <v>21</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21</v>
+      </c>
+      <c r="E135" t="n">
+        <v>21</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8601</v>
+      </c>
+      <c r="G135" t="n">
+        <v>136066.7302029886</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>21</v>
+      </c>
+      <c r="C136" t="n">
         <v>21.3</v>
       </c>
-      <c r="C135" t="n">
+      <c r="D136" t="n">
         <v>21.3</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E136" t="n">
+        <v>21</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G136" t="n">
+        <v>137466.7302029886</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>21.3</v>
       </c>
-      <c r="E135" t="n">
+      <c r="C137" t="n">
         <v>21.3</v>
       </c>
-      <c r="F135" t="n">
+      <c r="D137" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>33375</v>
+      </c>
+      <c r="G137" t="n">
+        <v>137466.7302029886</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3991.3482</v>
+      </c>
+      <c r="G138" t="n">
+        <v>141458.0784029886</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D139" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33052.092</v>
+      </c>
+      <c r="G139" t="n">
+        <v>108405.9864029886</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>22276</v>
+      </c>
+      <c r="G140" t="n">
+        <v>86129.98640298864</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>89129.98640298864</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5486.1003</v>
+      </c>
+      <c r="G142" t="n">
+        <v>83643.88610298863</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3723.8059</v>
+      </c>
+      <c r="G143" t="n">
+        <v>87367.69200298864</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1951.2204</v>
+      </c>
+      <c r="G144" t="n">
+        <v>85416.47160298863</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9404</v>
+      </c>
+      <c r="G145" t="n">
+        <v>94820.47160298863</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>551.0328</v>
+      </c>
+      <c r="G146" t="n">
+        <v>94820.47160298863</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>21</v>
+      </c>
+      <c r="C147" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>21</v>
+      </c>
+      <c r="E147" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>48626.6673</v>
+      </c>
+      <c r="G147" t="n">
+        <v>46193.80430298863</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>5160.174</v>
+      </c>
+      <c r="G148" t="n">
+        <v>51353.97830298863</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E149" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>23041.7339</v>
+      </c>
+      <c r="G149" t="n">
+        <v>74395.71220298862</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>72395.71220298862</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10994.0337</v>
+      </c>
+      <c r="G151" t="n">
+        <v>61401.67850298862</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G152" t="n">
+        <v>70901.67850298862</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>83</v>
+      </c>
+      <c r="G154" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11</v>
+      </c>
+      <c r="G155" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>662</v>
+      </c>
+      <c r="G156" t="n">
+        <v>69563.67850298862</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>73563.67850298862</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14915.8796</v>
+      </c>
+      <c r="G158" t="n">
+        <v>58647.79890298862</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D159" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>666.9861751152074</v>
+      </c>
+      <c r="G159" t="n">
+        <v>59314.78507810383</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C160" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D160" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>91.61290322580645</v>
+      </c>
+      <c r="G160" t="n">
+        <v>59314.78507810383</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>21</v>
+      </c>
+      <c r="C161" t="n">
+        <v>21</v>
+      </c>
+      <c r="D161" t="n">
+        <v>21</v>
+      </c>
+      <c r="E161" t="n">
+        <v>21</v>
+      </c>
+      <c r="F161" t="n">
+        <v>114.375</v>
+      </c>
+      <c r="G161" t="n">
+        <v>59200.41007810383</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>21</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F164" t="n">
         <v>528.1441</v>
       </c>
-      <c r="G135" t="n">
-        <v>21.38666666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>21.33833333333333</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="G164" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.6</v>
+        <v>20.1</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6</v>
+        <v>20.1</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
       <c r="F2" t="n">
-        <v>15455</v>
+        <v>17.2376</v>
       </c>
       <c r="G2" t="n">
-        <v>956799.1177029888</v>
+        <v>19.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.6</v>
+        <v>20.4</v>
       </c>
       <c r="C3" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6</v>
+        <v>20.7</v>
       </c>
       <c r="E3" t="n">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="F3" t="n">
-        <v>15240</v>
+        <v>19969.7249</v>
       </c>
       <c r="G3" t="n">
-        <v>956799.1177029888</v>
+        <v>20.01999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="C4" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="D4" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="E4" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="F4" t="n">
-        <v>9528.243200000001</v>
+        <v>29805</v>
       </c>
       <c r="G4" t="n">
-        <v>947270.8745029888</v>
+        <v>20.06</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D5" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="E5" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F5" t="n">
-        <v>7584.3333</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>939686.5412029887</v>
+        <v>20.29999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="C6" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="E6" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="F6" t="n">
-        <v>30388.5749</v>
+        <v>4000</v>
       </c>
       <c r="G6" t="n">
-        <v>970075.1161029887</v>
+        <v>20.38</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="C7" t="n">
-        <v>21.2</v>
+        <v>19.7</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="E7" t="n">
-        <v>21.2</v>
+        <v>19.7</v>
       </c>
       <c r="F7" t="n">
-        <v>29588.575</v>
+        <v>4000</v>
       </c>
       <c r="G7" t="n">
-        <v>999663.6911029887</v>
+        <v>20.29999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>6775</v>
+        <v>4367.1142</v>
       </c>
       <c r="G8" t="n">
-        <v>992888.6911029887</v>
+        <v>20.18</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>23142.4247</v>
+        <v>5589.8198</v>
       </c>
       <c r="G9" t="n">
-        <v>1016031.115802989</v>
+        <v>20.13999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="F10" t="n">
-        <v>13610.8207</v>
+        <v>16744.0653</v>
       </c>
       <c r="G10" t="n">
-        <v>1016031.115802989</v>
+        <v>20.04</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>21.3</v>
+        <v>20.1</v>
       </c>
       <c r="D11" t="n">
-        <v>21.3</v>
+        <v>20.1</v>
       </c>
       <c r="E11" t="n">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>5590</v>
+        <v>13727.0653</v>
       </c>
       <c r="G11" t="n">
-        <v>1021621.115802989</v>
+        <v>19.96</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>1596</v>
+        <v>24587.1797</v>
       </c>
       <c r="G12" t="n">
-        <v>1020025.115802989</v>
+        <v>20.02</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="C13" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="D13" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="E13" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="F13" t="n">
-        <v>6000</v>
+        <v>39.1133</v>
       </c>
       <c r="G13" t="n">
-        <v>1020025.115802989</v>
+        <v>20.07999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="D14" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="E14" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="F14" t="n">
-        <v>37480</v>
+        <v>760.8867</v>
       </c>
       <c r="G14" t="n">
-        <v>1020025.115802989</v>
+        <v>20.13999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C15" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="D15" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="E15" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F15" t="n">
-        <v>13171.3682</v>
+        <v>50524.5597</v>
       </c>
       <c r="G15" t="n">
-        <v>1033196.484002989</v>
+        <v>20.23999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C16" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D16" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E16" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F16" t="n">
-        <v>22233.1606</v>
+        <v>12000</v>
       </c>
       <c r="G16" t="n">
-        <v>1010963.323402989</v>
+        <v>20.29999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C17" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="D17" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E17" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="F17" t="n">
-        <v>15694.9078</v>
+        <v>58974.0881</v>
       </c>
       <c r="G17" t="n">
-        <v>1010963.323402989</v>
+        <v>20.34</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C18" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D18" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E18" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>18131.7073</v>
       </c>
       <c r="G18" t="n">
-        <v>1010963.323402989</v>
+        <v>20.35999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="C19" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="D19" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="E19" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="F19" t="n">
-        <v>31748</v>
+        <v>6000</v>
       </c>
       <c r="G19" t="n">
-        <v>979215.3234029887</v>
+        <v>20.34</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="D20" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="F20" t="n">
-        <v>252134.3284</v>
+        <v>46691.2785</v>
       </c>
       <c r="G20" t="n">
-        <v>727080.9950029887</v>
+        <v>20.21999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="C21" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="D21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="E21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="F21" t="n">
-        <v>32308</v>
+        <v>8305</v>
       </c>
       <c r="G21" t="n">
-        <v>759388.9950029887</v>
+        <v>20.23999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="C22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="D22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="E22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="F22" t="n">
-        <v>800</v>
+        <v>7744.596</v>
       </c>
       <c r="G22" t="n">
-        <v>760188.9950029887</v>
+        <v>20.23999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,13 +1187,14 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="C23" t="n">
         <v>20.7</v>
@@ -1177,13 +1203,13 @@
         <v>20.7</v>
       </c>
       <c r="E23" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="F23" t="n">
-        <v>1442</v>
+        <v>66168</v>
       </c>
       <c r="G23" t="n">
-        <v>761630.9950029887</v>
+        <v>20.29999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="C24" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="D24" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="E24" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="F24" t="n">
-        <v>1442</v>
+        <v>800</v>
       </c>
       <c r="G24" t="n">
-        <v>763072.9950029887</v>
+        <v>20.29999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="C25" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="D25" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="E25" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="F25" t="n">
-        <v>5940</v>
+        <v>800</v>
       </c>
       <c r="G25" t="n">
-        <v>763072.9950029887</v>
+        <v>20.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="C26" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="D26" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="E26" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="F26" t="n">
-        <v>4672.4523</v>
+        <v>1400</v>
       </c>
       <c r="G26" t="n">
-        <v>767745.4473029887</v>
+        <v>20.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="C27" t="n">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="D27" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="E27" t="n">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="F27" t="n">
-        <v>8648</v>
+        <v>5879</v>
       </c>
       <c r="G27" t="n">
-        <v>767745.4473029887</v>
+        <v>20.41999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>97321</v>
+        <v>800</v>
       </c>
       <c r="G28" t="n">
-        <v>670424.4473029887</v>
+        <v>20.27999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20.9</v>
+        <v>19.9</v>
       </c>
       <c r="C29" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="D29" t="n">
-        <v>20.9</v>
+        <v>19.9</v>
       </c>
       <c r="E29" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="F29" t="n">
-        <v>71</v>
+        <v>156024.6623</v>
       </c>
       <c r="G29" t="n">
-        <v>670495.4473029887</v>
+        <v>20.19999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20.8</v>
+        <v>19.9</v>
       </c>
       <c r="C30" t="n">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="D30" t="n">
-        <v>20.8</v>
+        <v>19.9</v>
       </c>
       <c r="E30" t="n">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8396</v>
+        <v>121884.2817</v>
       </c>
       <c r="G30" t="n">
-        <v>670494.6077029888</v>
+        <v>20.07999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="C31" t="n">
         <v>20.1</v>
       </c>
       <c r="D31" t="n">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="E31" t="n">
         <v>20.1</v>
       </c>
       <c r="F31" t="n">
-        <v>1997</v>
+        <v>1444.4776</v>
       </c>
       <c r="G31" t="n">
-        <v>668497.6077029888</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="C32" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="D32" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="E32" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="F32" t="n">
-        <v>88957</v>
+        <v>73934.0793</v>
       </c>
       <c r="G32" t="n">
-        <v>579540.6077029888</v>
+        <v>19.91999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1521,19 +1557,19 @@
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="D33" t="n">
         <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="F33" t="n">
-        <v>6835</v>
+        <v>85525.5095</v>
       </c>
       <c r="G33" t="n">
-        <v>586375.6077029888</v>
+        <v>19.89999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="D34" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>17200.7938</v>
       </c>
       <c r="G34" t="n">
-        <v>586675.6077029888</v>
+        <v>19.91999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="D35" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="E35" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="F35" t="n">
-        <v>64</v>
+        <v>13483.6479</v>
       </c>
       <c r="G35" t="n">
-        <v>586675.6077029888</v>
+        <v>19.93999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,69 +1655,65 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="C36" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="D36" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="E36" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="F36" t="n">
-        <v>10376</v>
+        <v>63595.781</v>
       </c>
       <c r="G36" t="n">
-        <v>597051.6077029888</v>
+        <v>19.89999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>20.2</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="C37" t="n">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="D37" t="n">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="E37" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="F37" t="n">
-        <v>31190.232</v>
+        <v>4380</v>
       </c>
       <c r="G37" t="n">
-        <v>628241.8397029887</v>
+        <v>19.95999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1689,36 +1723,33 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="C38" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D38" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="E38" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="F38" t="n">
-        <v>524</v>
+        <v>2399</v>
       </c>
       <c r="G38" t="n">
-        <v>627717.8397029887</v>
+        <v>20.11999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,14 +1759,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1745,19 +1773,19 @@
         <v>20.4</v>
       </c>
       <c r="C39" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="D39" t="n">
         <v>20.4</v>
       </c>
       <c r="E39" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1436.784</v>
+        <v>28176</v>
       </c>
       <c r="G39" t="n">
-        <v>627717.8397029887</v>
+        <v>20.11999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1767,14 +1795,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1784,19 +1809,19 @@
         <v>20.1</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="D40" t="n">
         <v>20.1</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="F40" t="n">
-        <v>6000</v>
+        <v>2230.1415</v>
       </c>
       <c r="G40" t="n">
-        <v>621717.8397029887</v>
+        <v>20.15999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1806,36 +1831,33 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="F41" t="n">
-        <v>4000</v>
+        <v>6324.3303</v>
       </c>
       <c r="G41" t="n">
-        <v>621717.8397029887</v>
+        <v>20.21999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,36 +1867,33 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C42" t="n">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="E42" t="n">
-        <v>19.3</v>
+        <v>20.2</v>
       </c>
       <c r="F42" t="n">
-        <v>5576.4681</v>
+        <v>26746</v>
       </c>
       <c r="G42" t="n">
-        <v>616141.3716029887</v>
+        <v>20.27999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1884,75 +1903,73 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="C43" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="D43" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="E43" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="F43" t="n">
-        <v>4000</v>
+        <v>216624.439</v>
       </c>
       <c r="G43" t="n">
-        <v>620141.3716029887</v>
+        <v>20.23999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="C44" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="D44" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="E44" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="F44" t="n">
-        <v>17.2376</v>
+        <v>29419.9285</v>
       </c>
       <c r="G44" t="n">
-        <v>620141.3716029887</v>
+        <v>20.35999999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1961,76 +1978,84 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>20.5</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="C45" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D45" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="E45" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="F45" t="n">
-        <v>19969.7249</v>
+        <v>400.7804</v>
       </c>
       <c r="G45" t="n">
-        <v>640111.0965029887</v>
+        <v>20.43999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>20.5</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="C46" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="D46" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E46" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="F46" t="n">
-        <v>29805</v>
+        <v>1292</v>
       </c>
       <c r="G46" t="n">
-        <v>610306.0965029887</v>
+        <v>20.49999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2040,14 +2065,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2057,58 +2079,61 @@
         <v>20.5</v>
       </c>
       <c r="C47" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D47" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E47" t="n">
         <v>20.5</v>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G47" t="n">
-        <v>612306.0965029887</v>
+        <v>20.53999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>20.5</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C48" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D48" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E48" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F48" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="n">
-        <v>612306.0965029887</v>
+        <v>20.57999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2126,28 +2151,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.1</v>
+        <v>20.7</v>
       </c>
       <c r="C49" t="n">
-        <v>19.7</v>
+        <v>21.2</v>
       </c>
       <c r="D49" t="n">
-        <v>20.1</v>
+        <v>21.2</v>
       </c>
       <c r="E49" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>8618</v>
       </c>
       <c r="G49" t="n">
-        <v>608306.0965029887</v>
+        <v>20.71999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2165,28 +2191,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="E50" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="F50" t="n">
-        <v>4367.1142</v>
+        <v>10589.3393</v>
       </c>
       <c r="G50" t="n">
-        <v>612673.2107029887</v>
+        <v>20.85999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2204,28 +2231,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="F51" t="n">
-        <v>5589.8198</v>
+        <v>2352</v>
       </c>
       <c r="G51" t="n">
-        <v>612673.2107029887</v>
+        <v>20.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2243,28 +2271,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19.9</v>
+        <v>20.7</v>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="E52" t="n">
-        <v>19.9</v>
+        <v>20.7</v>
       </c>
       <c r="F52" t="n">
-        <v>16744.0653</v>
+        <v>9621.8285</v>
       </c>
       <c r="G52" t="n">
-        <v>612673.2107029887</v>
+        <v>20.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2282,28 +2311,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="C53" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="D53" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="F53" t="n">
-        <v>13727.0653</v>
+        <v>6016.6379</v>
       </c>
       <c r="G53" t="n">
-        <v>626400.2760029887</v>
+        <v>20.84</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2321,28 +2351,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="F54" t="n">
-        <v>24587.1797</v>
+        <v>3166.0615</v>
       </c>
       <c r="G54" t="n">
-        <v>601813.0963029887</v>
+        <v>20.67999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2360,28 +2391,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="C55" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="D55" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="E55" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="F55" t="n">
-        <v>39.1133</v>
+        <v>38783.5125</v>
       </c>
       <c r="G55" t="n">
-        <v>601852.2096029887</v>
+        <v>20.56</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2399,28 +2431,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="C56" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="D56" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="E56" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="F56" t="n">
-        <v>760.8867</v>
+        <v>3205</v>
       </c>
       <c r="G56" t="n">
-        <v>601852.2096029887</v>
+        <v>20.49999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2438,6 +2471,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,10 +2490,10 @@
         <v>20.4</v>
       </c>
       <c r="F57" t="n">
-        <v>50524.5597</v>
+        <v>7475</v>
       </c>
       <c r="G57" t="n">
-        <v>652376.7693029887</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2477,6 +2511,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2495,10 +2530,10 @@
         <v>20.4</v>
       </c>
       <c r="F58" t="n">
-        <v>12000</v>
+        <v>41.8136</v>
       </c>
       <c r="G58" t="n">
-        <v>640376.7693029887</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2516,6 +2551,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2525,19 +2561,19 @@
         <v>20.4</v>
       </c>
       <c r="C59" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="D59" t="n">
         <v>20.4</v>
       </c>
       <c r="E59" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="F59" t="n">
-        <v>58974.0881</v>
+        <v>471.4101</v>
       </c>
       <c r="G59" t="n">
-        <v>581402.6812029886</v>
+        <v>20.45999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2555,6 +2591,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2564,19 +2601,19 @@
         <v>20.4</v>
       </c>
       <c r="C60" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="D60" t="n">
         <v>20.4</v>
       </c>
       <c r="E60" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="F60" t="n">
-        <v>18131.7073</v>
+        <v>110504.3894</v>
       </c>
       <c r="G60" t="n">
-        <v>599534.3885029886</v>
+        <v>20.29999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2594,28 +2631,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="C61" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="D61" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="E61" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="F61" t="n">
-        <v>6000</v>
+        <v>7120</v>
       </c>
       <c r="G61" t="n">
-        <v>593534.3885029886</v>
+        <v>20.31999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2633,28 +2671,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C62" t="n">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="E62" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="F62" t="n">
-        <v>46691.2785</v>
+        <v>43443</v>
       </c>
       <c r="G62" t="n">
-        <v>546843.1100029886</v>
+        <v>20.33999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2672,36 +2711,39 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="C63" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="D63" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="E63" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="F63" t="n">
-        <v>8305</v>
+        <v>2026.6935</v>
       </c>
       <c r="G63" t="n">
-        <v>555148.1100029886</v>
+        <v>20.43999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>20.6</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2711,36 +2753,39 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.2</v>
+        <v>20.9</v>
       </c>
       <c r="C64" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="D64" t="n">
-        <v>20.2</v>
+        <v>21.4</v>
       </c>
       <c r="E64" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="F64" t="n">
-        <v>7744.596</v>
+        <v>306123.0557</v>
       </c>
       <c r="G64" t="n">
-        <v>547403.5140029886</v>
+        <v>20.49999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>20.9</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2750,28 +2795,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="C65" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D65" t="n">
         <v>20.7</v>
       </c>
       <c r="E65" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="F65" t="n">
-        <v>66168</v>
+        <v>207579</v>
       </c>
       <c r="G65" t="n">
-        <v>613571.5140029886</v>
+        <v>20.65999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2789,28 +2835,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="C66" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="D66" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="E66" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="F66" t="n">
-        <v>800</v>
+        <v>37200</v>
       </c>
       <c r="G66" t="n">
-        <v>612771.5140029886</v>
+        <v>20.67999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2828,28 +2875,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="C67" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="D67" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="E67" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="F67" t="n">
-        <v>800</v>
+        <v>140131.2077</v>
       </c>
       <c r="G67" t="n">
-        <v>613571.5140029886</v>
+        <v>20.69999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2867,28 +2915,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="C68" t="n">
-        <v>20.5</v>
+        <v>21.8</v>
       </c>
       <c r="D68" t="n">
-        <v>20.5</v>
+        <v>21.9</v>
       </c>
       <c r="E68" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F68" t="n">
-        <v>1400</v>
+        <v>41178.6323</v>
       </c>
       <c r="G68" t="n">
-        <v>614971.5140029886</v>
+        <v>20.87999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2906,28 +2955,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20.5</v>
+        <v>21.8</v>
       </c>
       <c r="C69" t="n">
-        <v>20.3</v>
+        <v>22.4</v>
       </c>
       <c r="D69" t="n">
-        <v>20.5</v>
+        <v>22.4</v>
       </c>
       <c r="E69" t="n">
-        <v>20.3</v>
+        <v>21.8</v>
       </c>
       <c r="F69" t="n">
-        <v>5879</v>
+        <v>146295</v>
       </c>
       <c r="G69" t="n">
-        <v>609092.5140029886</v>
+        <v>21.21999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2945,28 +2995,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="F70" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="G70" t="n">
-        <v>608292.5140029886</v>
+        <v>21.39999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2984,28 +3035,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19.9</v>
+        <v>21.9</v>
       </c>
       <c r="C71" t="n">
-        <v>19.8</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="E71" t="n">
-        <v>19.8</v>
+        <v>21.9</v>
       </c>
       <c r="F71" t="n">
-        <v>156024.6623</v>
+        <v>9523</v>
       </c>
       <c r="G71" t="n">
-        <v>452267.8517029886</v>
+        <v>21.67999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3023,28 +3075,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="C72" t="n">
-        <v>19.8</v>
+        <v>22</v>
       </c>
       <c r="D72" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="E72" t="n">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="F72" t="n">
-        <v>121884.2817</v>
+        <v>30096.1136</v>
       </c>
       <c r="G72" t="n">
-        <v>452267.8517029886</v>
+        <v>21.93999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3062,28 +3115,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20.1</v>
+        <v>22</v>
       </c>
       <c r="C73" t="n">
-        <v>20.1</v>
+        <v>22</v>
       </c>
       <c r="D73" t="n">
-        <v>20.1</v>
+        <v>22</v>
       </c>
       <c r="E73" t="n">
-        <v>20.1</v>
+        <v>22</v>
       </c>
       <c r="F73" t="n">
-        <v>1444.4776</v>
+        <v>2000</v>
       </c>
       <c r="G73" t="n">
-        <v>453712.3293029886</v>
+        <v>21.97999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3101,28 +3155,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="C74" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="D74" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="E74" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="F74" t="n">
-        <v>73934.0793</v>
+        <v>336</v>
       </c>
       <c r="G74" t="n">
-        <v>379778.2500029886</v>
+        <v>21.89999999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3140,28 +3195,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="C75" t="n">
-        <v>19.9</v>
+        <v>21.8</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="E75" t="n">
-        <v>19.9</v>
+        <v>21.8</v>
       </c>
       <c r="F75" t="n">
-        <v>85525.5095</v>
+        <v>74.04559999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>379778.2500029886</v>
+        <v>21.95999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3179,28 +3235,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C76" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="E76" t="n">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="F76" t="n">
-        <v>17200.7938</v>
+        <v>4000</v>
       </c>
       <c r="G76" t="n">
-        <v>379778.2500029886</v>
+        <v>21.99999999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3218,28 +3275,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="C77" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="E77" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="F77" t="n">
-        <v>13483.6479</v>
+        <v>2263</v>
       </c>
       <c r="G77" t="n">
-        <v>379778.2500029886</v>
+        <v>22.03999999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3257,28 +3315,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19.9</v>
+        <v>22.1</v>
       </c>
       <c r="C78" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="D78" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="E78" t="n">
-        <v>19.9</v>
+        <v>22.1</v>
       </c>
       <c r="F78" t="n">
-        <v>63595.781</v>
+        <v>56924.8648</v>
       </c>
       <c r="G78" t="n">
-        <v>379778.2500029886</v>
+        <v>22.07999999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3296,28 +3355,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20.1</v>
+        <v>21.7</v>
       </c>
       <c r="C79" t="n">
-        <v>20.2</v>
+        <v>21.7</v>
       </c>
       <c r="D79" t="n">
-        <v>20.2</v>
+        <v>21.7</v>
       </c>
       <c r="E79" t="n">
-        <v>20.1</v>
+        <v>21.7</v>
       </c>
       <c r="F79" t="n">
-        <v>4380</v>
+        <v>56782.5526</v>
       </c>
       <c r="G79" t="n">
-        <v>384158.2500029886</v>
+        <v>22.01999999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3335,28 +3395,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20.2</v>
+        <v>21.8</v>
       </c>
       <c r="C80" t="n">
-        <v>20.7</v>
+        <v>21.7</v>
       </c>
       <c r="D80" t="n">
-        <v>20.7</v>
+        <v>21.8</v>
       </c>
       <c r="E80" t="n">
-        <v>20.2</v>
+        <v>21.7</v>
       </c>
       <c r="F80" t="n">
-        <v>2399</v>
+        <v>40024.5235</v>
       </c>
       <c r="G80" t="n">
-        <v>386557.2500029886</v>
+        <v>21.99999999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3374,28 +3435,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20.4</v>
+        <v>21.7</v>
       </c>
       <c r="C81" t="n">
-        <v>19.9</v>
+        <v>21.7</v>
       </c>
       <c r="D81" t="n">
-        <v>20.4</v>
+        <v>21.7</v>
       </c>
       <c r="E81" t="n">
-        <v>19.9</v>
+        <v>21.7</v>
       </c>
       <c r="F81" t="n">
-        <v>28176</v>
+        <v>26462.3447</v>
       </c>
       <c r="G81" t="n">
-        <v>358381.2500029886</v>
+        <v>21.89999999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3413,28 +3475,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20.1</v>
+        <v>21.5</v>
       </c>
       <c r="C82" t="n">
-        <v>20.1</v>
+        <v>21.5</v>
       </c>
       <c r="D82" t="n">
-        <v>20.1</v>
+        <v>21.5</v>
       </c>
       <c r="E82" t="n">
-        <v>20.1</v>
+        <v>21.5</v>
       </c>
       <c r="F82" t="n">
-        <v>2230.1415</v>
+        <v>4224.8864</v>
       </c>
       <c r="G82" t="n">
-        <v>360611.3915029886</v>
+        <v>21.75999999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3452,28 +3515,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="C83" t="n">
-        <v>20.2</v>
+        <v>21.3</v>
       </c>
       <c r="D83" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="E83" t="n">
-        <v>20.2</v>
+        <v>21.3</v>
       </c>
       <c r="F83" t="n">
-        <v>6324.3303</v>
+        <v>4700</v>
       </c>
       <c r="G83" t="n">
-        <v>366935.7218029886</v>
+        <v>21.57999999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3491,28 +3555,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="C84" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="D84" t="n">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="E84" t="n">
-        <v>20.2</v>
+        <v>21.3</v>
       </c>
       <c r="F84" t="n">
-        <v>26746</v>
+        <v>14211.4327</v>
       </c>
       <c r="G84" t="n">
-        <v>393681.7218029886</v>
+        <v>21.49999999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3530,28 +3595,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="C85" t="n">
         <v>20.5</v>
       </c>
       <c r="D85" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="E85" t="n">
         <v>20.5</v>
       </c>
       <c r="F85" t="n">
-        <v>216624.439</v>
+        <v>37515.2335</v>
       </c>
       <c r="G85" t="n">
-        <v>393681.7218029886</v>
+        <v>21.25999999999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3569,28 +3635,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="C86" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="D86" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="E86" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="F86" t="n">
-        <v>29419.9285</v>
+        <v>6572.0297</v>
       </c>
       <c r="G86" t="n">
-        <v>393681.7218029886</v>
+        <v>21.03999999999997</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3608,28 +3675,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="C87" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="D87" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="E87" t="n">
         <v>20.5</v>
       </c>
       <c r="F87" t="n">
-        <v>400.7804</v>
+        <v>15073.5474</v>
       </c>
       <c r="G87" t="n">
-        <v>393681.7218029886</v>
+        <v>20.91999999999997</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3647,28 +3715,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="C88" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="D88" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="E88" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F88" t="n">
-        <v>1292</v>
+        <v>956.937</v>
       </c>
       <c r="G88" t="n">
-        <v>393681.7218029886</v>
+        <v>20.83999999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3686,28 +3755,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="C89" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="D89" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="E89" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="F89" t="n">
-        <v>6000</v>
+        <v>2614</v>
       </c>
       <c r="G89" t="n">
-        <v>399681.7218029886</v>
+        <v>20.75999999999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3725,28 +3795,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="C90" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="D90" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="E90" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G90" t="n">
-        <v>399681.7218029886</v>
+        <v>20.91999999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3764,28 +3835,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="C91" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="D91" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="E91" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="F91" t="n">
-        <v>8618</v>
+        <v>144</v>
       </c>
       <c r="G91" t="n">
-        <v>408299.7218029886</v>
+        <v>20.89999999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3803,28 +3875,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="C92" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="D92" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="E92" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F92" t="n">
-        <v>10589.3393</v>
+        <v>16009</v>
       </c>
       <c r="G92" t="n">
-        <v>408299.7218029886</v>
+        <v>20.97999999999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3842,28 +3915,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C93" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D93" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="E93" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="F93" t="n">
-        <v>2352</v>
+        <v>8601</v>
       </c>
       <c r="G93" t="n">
-        <v>405947.7218029886</v>
+        <v>20.99999999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3881,28 +3955,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="C94" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="D94" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="E94" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="F94" t="n">
-        <v>9621.8285</v>
+        <v>1400</v>
       </c>
       <c r="G94" t="n">
-        <v>405947.7218029886</v>
+        <v>21.07999999999997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3920,28 +3995,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="C95" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="D95" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="E95" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="F95" t="n">
-        <v>6016.6379</v>
+        <v>33375</v>
       </c>
       <c r="G95" t="n">
-        <v>399931.0839029886</v>
+        <v>21.07999999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3959,28 +4035,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="C96" t="n">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="D96" t="n">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="E96" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="F96" t="n">
-        <v>3166.0615</v>
+        <v>3991.3482</v>
       </c>
       <c r="G96" t="n">
-        <v>399931.0839029886</v>
+        <v>21.27999999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3998,28 +4075,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="C97" t="n">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="D97" t="n">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="E97" t="n">
-        <v>20.4</v>
+        <v>21.1</v>
       </c>
       <c r="F97" t="n">
-        <v>38783.5125</v>
+        <v>33052.092</v>
       </c>
       <c r="G97" t="n">
-        <v>438714.5964029887</v>
+        <v>21.25999999999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4037,28 +4115,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="C98" t="n">
-        <v>20.4</v>
+        <v>21.1</v>
       </c>
       <c r="D98" t="n">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="E98" t="n">
-        <v>20.4</v>
+        <v>21.1</v>
       </c>
       <c r="F98" t="n">
-        <v>3205</v>
+        <v>22276</v>
       </c>
       <c r="G98" t="n">
-        <v>435509.5964029887</v>
+        <v>21.27999999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4076,28 +4155,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="C99" t="n">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="D99" t="n">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="E99" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="F99" t="n">
-        <v>7475</v>
+        <v>3000</v>
       </c>
       <c r="G99" t="n">
-        <v>442984.5964029887</v>
+        <v>21.29999999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4115,28 +4195,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="C100" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="D100" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="E100" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="F100" t="n">
-        <v>41.8136</v>
+        <v>5486.1003</v>
       </c>
       <c r="G100" t="n">
-        <v>442942.7828029887</v>
+        <v>21.27999999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4154,28 +4235,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="C101" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="D101" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="E101" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="F101" t="n">
-        <v>471.4101</v>
+        <v>3723.8059</v>
       </c>
       <c r="G101" t="n">
-        <v>442942.7828029887</v>
+        <v>21.25999999999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4193,28 +4275,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="C102" t="n">
-        <v>19.8</v>
+        <v>21.2</v>
       </c>
       <c r="D102" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="E102" t="n">
-        <v>19.8</v>
+        <v>21.2</v>
       </c>
       <c r="F102" t="n">
-        <v>110504.3894</v>
+        <v>1951.2204</v>
       </c>
       <c r="G102" t="n">
-        <v>332438.3934029887</v>
+        <v>21.25999999999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4232,28 +4315,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="C103" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="D103" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="E103" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="F103" t="n">
-        <v>7120</v>
+        <v>9404</v>
       </c>
       <c r="G103" t="n">
-        <v>339558.3934029887</v>
+        <v>21.29999999999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4271,28 +4355,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>20.5</v>
+        <v>21.3</v>
       </c>
       <c r="C104" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="D104" t="n">
-        <v>20.6</v>
+        <v>21.3</v>
       </c>
       <c r="E104" t="n">
-        <v>20.2</v>
+        <v>21.3</v>
       </c>
       <c r="F104" t="n">
-        <v>43443</v>
+        <v>551.0328</v>
       </c>
       <c r="G104" t="n">
-        <v>383001.3934029887</v>
+        <v>21.27999999999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4310,36 +4395,39 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>21</v>
+      </c>
+      <c r="C105" t="n">
         <v>20.6</v>
       </c>
-      <c r="C105" t="n">
-        <v>20.9</v>
-      </c>
       <c r="D105" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="E105" t="n">
         <v>20.6</v>
       </c>
       <c r="F105" t="n">
-        <v>2026.6935</v>
+        <v>48626.6673</v>
       </c>
       <c r="G105" t="n">
-        <v>385028.0869029887</v>
+        <v>21.15999999999997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>21.3</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4349,36 +4437,39 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="C106" t="n">
         <v>20.7</v>
       </c>
       <c r="D106" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="E106" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5160.174</v>
+      </c>
+      <c r="G106" t="n">
+        <v>21.01999999999997</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
         <v>20.6</v>
       </c>
-      <c r="F106" t="n">
-        <v>306123.0557</v>
-      </c>
-      <c r="G106" t="n">
-        <v>78905.03120298864</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4388,36 +4479,39 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>23041.7339</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21.03999999999997</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
         <v>20.7</v>
       </c>
-      <c r="C107" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E107" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F107" t="n">
-        <v>207579</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-128673.9687970114</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -4427,36 +4521,39 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="C108" t="n">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="D108" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="E108" t="n">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="F108" t="n">
-        <v>37200</v>
+        <v>2000</v>
       </c>
       <c r="G108" t="n">
-        <v>-128673.9687970114</v>
+        <v>21.01999999999997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>21.3</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4466,36 +4563,39 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="C109" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="D109" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="E109" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="F109" t="n">
-        <v>140131.2077</v>
+        <v>10994.0337</v>
       </c>
       <c r="G109" t="n">
-        <v>11457.23890298864</v>
+        <v>20.91999999999997</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>21.2</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -4505,36 +4605,39 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="C110" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="D110" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="E110" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F110" t="n">
-        <v>41178.6323</v>
+        <v>9500</v>
       </c>
       <c r="G110" t="n">
-        <v>52635.87120298864</v>
+        <v>21.09999999999997</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>20.8</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4544,28 +4647,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="C111" t="n">
-        <v>22.4</v>
+        <v>21.4</v>
       </c>
       <c r="D111" t="n">
-        <v>22.4</v>
+        <v>21.4</v>
       </c>
       <c r="E111" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="F111" t="n">
-        <v>146295</v>
+        <v>2000</v>
       </c>
       <c r="G111" t="n">
-        <v>198930.8712029886</v>
+        <v>21.23999999999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4583,28 +4687,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>22</v>
+        <v>21.4</v>
       </c>
       <c r="C112" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="D112" t="n">
-        <v>22</v>
+        <v>21.4</v>
       </c>
       <c r="E112" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F112" t="n">
-        <v>6000</v>
+        <v>83</v>
       </c>
       <c r="G112" t="n">
-        <v>192930.8712029886</v>
+        <v>21.25999999999997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4622,28 +4727,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="C113" t="n">
-        <v>22</v>
+        <v>21.4</v>
       </c>
       <c r="D113" t="n">
-        <v>22</v>
+        <v>21.4</v>
       </c>
       <c r="E113" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="F113" t="n">
-        <v>9523</v>
+        <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>202453.8712029886</v>
+        <v>21.29999999999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4661,28 +4767,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>22</v>
+        <v>21.4</v>
       </c>
       <c r="C114" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="D114" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="E114" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F114" t="n">
-        <v>30096.1136</v>
+        <v>662</v>
       </c>
       <c r="G114" t="n">
-        <v>202453.8712029886</v>
+        <v>21.43999999999997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4700,28 +4807,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="C115" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="D115" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="E115" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G115" t="n">
-        <v>202453.8712029886</v>
+        <v>21.47999999999997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4739,28 +4847,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="C116" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="D116" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="E116" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="F116" t="n">
-        <v>336</v>
+        <v>14915.8796</v>
       </c>
       <c r="G116" t="n">
-        <v>202453.8712029886</v>
+        <v>21.51999999999996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4778,28 +4887,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="C117" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="D117" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="E117" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="F117" t="n">
-        <v>74.04559999999999</v>
+        <v>666.9861751152074</v>
       </c>
       <c r="G117" t="n">
-        <v>202379.8256029886</v>
+        <v>21.57999999999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4817,28 +4927,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="C118" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="D118" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="E118" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="F118" t="n">
-        <v>4000</v>
+        <v>91.61290322580645</v>
       </c>
       <c r="G118" t="n">
-        <v>206379.8256029886</v>
+        <v>21.63999999999996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4856,28 +4967,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="D119" t="n">
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="E119" t="n">
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="F119" t="n">
-        <v>2263</v>
+        <v>114.375</v>
       </c>
       <c r="G119" t="n">
-        <v>206379.8256029886</v>
+        <v>21.53999999999996</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4895,28 +5007,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>22.1</v>
+        <v>21.3</v>
       </c>
       <c r="C120" t="n">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
       <c r="D120" t="n">
-        <v>22.2</v>
+        <v>21.3</v>
       </c>
       <c r="E120" t="n">
-        <v>22.1</v>
+        <v>21.3</v>
       </c>
       <c r="F120" t="n">
-        <v>56924.8648</v>
+        <v>14000</v>
       </c>
       <c r="G120" t="n">
-        <v>206379.8256029886</v>
+        <v>21.45999999999996</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4934,28 +5047,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="C121" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="D121" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="E121" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="F121" t="n">
-        <v>56782.5526</v>
+        <v>24000</v>
       </c>
       <c r="G121" t="n">
-        <v>149597.2730029886</v>
+        <v>21.39999999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4973,28 +5087,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="C122" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="D122" t="n">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="E122" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="F122" t="n">
-        <v>40024.5235</v>
+        <v>528.1441</v>
       </c>
       <c r="G122" t="n">
-        <v>149597.2730029886</v>
+        <v>21.31999999999996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5012,1654 +5127,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E123" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>26462.3447</v>
-      </c>
-      <c r="G123" t="n">
-        <v>149597.2730029886</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E124" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4224.8864</v>
-      </c>
-      <c r="G124" t="n">
-        <v>145372.3866029886</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C125" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D125" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4700</v>
-      </c>
-      <c r="G125" t="n">
-        <v>140672.3866029886</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E126" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>14211.4327</v>
-      </c>
-      <c r="G126" t="n">
-        <v>140672.3866029886</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C127" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E127" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>37515.2335</v>
-      </c>
-      <c r="G127" t="n">
-        <v>103157.1531029886</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C128" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D128" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E128" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F128" t="n">
-        <v>6572.0297</v>
-      </c>
-      <c r="G128" t="n">
-        <v>109729.1828029886</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F129" t="n">
-        <v>15073.5474</v>
-      </c>
-      <c r="G129" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C130" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D130" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E130" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F130" t="n">
-        <v>956.937</v>
-      </c>
-      <c r="G130" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D131" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E131" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2614</v>
-      </c>
-      <c r="G131" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D132" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E132" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G132" t="n">
-        <v>128802.7302029886</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F133" t="n">
-        <v>144</v>
-      </c>
-      <c r="G133" t="n">
-        <v>128658.7302029886</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>21</v>
-      </c>
-      <c r="C134" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D134" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E134" t="n">
-        <v>21</v>
-      </c>
-      <c r="F134" t="n">
-        <v>16009</v>
-      </c>
-      <c r="G134" t="n">
-        <v>144667.7302029886</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>21</v>
-      </c>
-      <c r="C135" t="n">
-        <v>21</v>
-      </c>
-      <c r="D135" t="n">
-        <v>21</v>
-      </c>
-      <c r="E135" t="n">
-        <v>21</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8601</v>
-      </c>
-      <c r="G135" t="n">
-        <v>136066.7302029886</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>21</v>
-      </c>
-      <c r="C136" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D136" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E136" t="n">
-        <v>21</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G136" t="n">
-        <v>137466.7302029886</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C137" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D137" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E137" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F137" t="n">
-        <v>33375</v>
-      </c>
-      <c r="G137" t="n">
-        <v>137466.7302029886</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C138" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E138" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3991.3482</v>
-      </c>
-      <c r="G138" t="n">
-        <v>141458.0784029886</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C139" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E139" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>33052.092</v>
-      </c>
-      <c r="G139" t="n">
-        <v>108405.9864029886</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E140" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>22276</v>
-      </c>
-      <c r="G140" t="n">
-        <v>86129.98640298864</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C141" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E141" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>89129.98640298864</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5486.1003</v>
-      </c>
-      <c r="G142" t="n">
-        <v>83643.88610298863</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D143" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3723.8059</v>
-      </c>
-      <c r="G143" t="n">
-        <v>87367.69200298864</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1951.2204</v>
-      </c>
-      <c r="G144" t="n">
-        <v>85416.47160298863</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D145" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E145" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>9404</v>
-      </c>
-      <c r="G145" t="n">
-        <v>94820.47160298863</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C146" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D146" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E146" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F146" t="n">
-        <v>551.0328</v>
-      </c>
-      <c r="G146" t="n">
-        <v>94820.47160298863</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>21</v>
-      </c>
-      <c r="C147" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>21</v>
-      </c>
-      <c r="E147" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>48626.6673</v>
-      </c>
-      <c r="G147" t="n">
-        <v>46193.80430298863</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>5160.174</v>
-      </c>
-      <c r="G148" t="n">
-        <v>51353.97830298863</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C149" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D149" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E149" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F149" t="n">
-        <v>23041.7339</v>
-      </c>
-      <c r="G149" t="n">
-        <v>74395.71220298862</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G150" t="n">
-        <v>72395.71220298862</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D151" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>10994.0337</v>
-      </c>
-      <c r="G151" t="n">
-        <v>61401.67850298862</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G152" t="n">
-        <v>70901.67850298862</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C154" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D154" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F154" t="n">
-        <v>83</v>
-      </c>
-      <c r="G154" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C155" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D155" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E155" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>11</v>
-      </c>
-      <c r="G155" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C156" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>662</v>
-      </c>
-      <c r="G156" t="n">
-        <v>69563.67850298862</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D157" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E157" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>73563.67850298862</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D158" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F158" t="n">
-        <v>14915.8796</v>
-      </c>
-      <c r="G158" t="n">
-        <v>58647.79890298862</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E159" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>666.9861751152074</v>
-      </c>
-      <c r="G159" t="n">
-        <v>59314.78507810383</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>91.61290322580645</v>
-      </c>
-      <c r="G160" t="n">
-        <v>59314.78507810383</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>21</v>
-      </c>
-      <c r="C161" t="n">
-        <v>21</v>
-      </c>
-      <c r="D161" t="n">
-        <v>21</v>
-      </c>
-      <c r="E161" t="n">
-        <v>21</v>
-      </c>
-      <c r="F161" t="n">
-        <v>114.375</v>
-      </c>
-      <c r="G161" t="n">
-        <v>59200.41007810383</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C162" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D162" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E162" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F162" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>21</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C163" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D163" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E163" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C164" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D164" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E164" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F164" t="n">
-        <v>528.1441</v>
-      </c>
-      <c r="G164" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="C2" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="E2" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="F2" t="n">
-        <v>17.2376</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>19.9</v>
+        <v>493851.6156</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="C3" t="n">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="E3" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="F3" t="n">
-        <v>19969.7249</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>20.01999999999999</v>
+        <v>493851.6156</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="C4" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="E4" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="F4" t="n">
-        <v>29805</v>
+        <v>6846.0267</v>
       </c>
       <c r="G4" t="n">
-        <v>20.06</v>
+        <v>493851.6156</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
       <c r="C5" t="n">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
       <c r="E5" t="n">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>104.1935</v>
       </c>
       <c r="G5" t="n">
-        <v>20.29999999999999</v>
+        <v>493851.6156</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="C6" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="E6" t="n">
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="F6" t="n">
-        <v>4000</v>
+        <v>19483.0232</v>
       </c>
       <c r="G6" t="n">
-        <v>20.38</v>
+        <v>474368.5924</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.1</v>
+        <v>21.4</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7</v>
+        <v>21.7</v>
       </c>
       <c r="D7" t="n">
-        <v>20.1</v>
+        <v>21.7</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7</v>
+        <v>21.3</v>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>75261.3444</v>
       </c>
       <c r="G7" t="n">
-        <v>20.29999999999999</v>
+        <v>549629.9368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>21.7</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>21.2</v>
       </c>
       <c r="F8" t="n">
-        <v>4367.1142</v>
+        <v>128106.2141</v>
       </c>
       <c r="G8" t="n">
-        <v>20.18</v>
+        <v>421523.7227</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>21.6</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="F9" t="n">
-        <v>5589.8198</v>
+        <v>33264.288</v>
       </c>
       <c r="G9" t="n">
-        <v>20.13999999999999</v>
+        <v>454788.0107</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>21.9</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>21.9</v>
       </c>
       <c r="E10" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="F10" t="n">
-        <v>16744.0653</v>
+        <v>69197.67660000001</v>
       </c>
       <c r="G10" t="n">
-        <v>20.04</v>
+        <v>523985.6873</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1</v>
+        <v>21.4</v>
       </c>
       <c r="D11" t="n">
-        <v>20.1</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="F11" t="n">
-        <v>13727.0653</v>
+        <v>187407.0120272727</v>
       </c>
       <c r="G11" t="n">
-        <v>19.96</v>
+        <v>336578.6752727274</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21.9</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>21.9</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="F12" t="n">
-        <v>24587.1797</v>
+        <v>93076.6991</v>
       </c>
       <c r="G12" t="n">
-        <v>20.02</v>
+        <v>429655.3743727274</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
       <c r="D13" t="n">
-        <v>20.3</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
       <c r="F13" t="n">
-        <v>39.1133</v>
+        <v>57543.6089</v>
       </c>
       <c r="G13" t="n">
-        <v>20.07999999999999</v>
+        <v>372111.7654727274</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3</v>
+        <v>22.1</v>
       </c>
       <c r="D14" t="n">
-        <v>20.3</v>
+        <v>22.3</v>
       </c>
       <c r="E14" t="n">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="F14" t="n">
-        <v>760.8867</v>
+        <v>201057.8640727273</v>
       </c>
       <c r="G14" t="n">
-        <v>20.13999999999999</v>
+        <v>573169.6295454546</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20.4</v>
+        <v>22.1</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5</v>
+        <v>21.7</v>
       </c>
       <c r="D15" t="n">
-        <v>20.5</v>
+        <v>22.1</v>
       </c>
       <c r="E15" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="F15" t="n">
-        <v>50524.5597</v>
+        <v>167742.0817</v>
       </c>
       <c r="G15" t="n">
-        <v>20.23999999999999</v>
+        <v>405427.5478454547</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="D16" t="n">
-        <v>20.4</v>
+        <v>22.3</v>
       </c>
       <c r="E16" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>182381.7102</v>
       </c>
       <c r="G16" t="n">
-        <v>20.29999999999999</v>
+        <v>223045.8376454547</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20.4</v>
+        <v>22.1</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2</v>
+        <v>21.6</v>
       </c>
       <c r="D17" t="n">
-        <v>20.4</v>
+        <v>22.2</v>
       </c>
       <c r="E17" t="n">
-        <v>20.2</v>
+        <v>21.3</v>
       </c>
       <c r="F17" t="n">
-        <v>58974.0881</v>
+        <v>305223.3417</v>
       </c>
       <c r="G17" t="n">
-        <v>20.34</v>
+        <v>528269.1793454547</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="C18" t="n">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>20.4</v>
+        <v>22.1</v>
       </c>
       <c r="E18" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="F18" t="n">
-        <v>18131.7073</v>
+        <v>200240.3992</v>
       </c>
       <c r="G18" t="n">
-        <v>20.35999999999999</v>
+        <v>728509.5785454547</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="D19" t="n">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="E19" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="F19" t="n">
-        <v>6000</v>
+        <v>33929.0115</v>
       </c>
       <c r="G19" t="n">
-        <v>20.34</v>
+        <v>694580.5670454546</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="C20" t="n">
-        <v>19.9</v>
+        <v>21.5</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>21.8</v>
       </c>
       <c r="E20" t="n">
-        <v>19.9</v>
+        <v>21.5</v>
       </c>
       <c r="F20" t="n">
-        <v>46691.2785</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="n">
-        <v>20.21999999999999</v>
+        <v>694580.5670454546</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.3</v>
+        <v>21.6</v>
       </c>
       <c r="C21" t="n">
-        <v>20.5</v>
+        <v>21.8</v>
       </c>
       <c r="D21" t="n">
-        <v>20.5</v>
+        <v>21.9</v>
       </c>
       <c r="E21" t="n">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="F21" t="n">
-        <v>8305</v>
+        <v>225656.3446</v>
       </c>
       <c r="G21" t="n">
-        <v>20.23999999999999</v>
+        <v>920236.9116454546</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20.2</v>
+        <v>21.9</v>
       </c>
       <c r="C22" t="n">
-        <v>20.2</v>
+        <v>21.9</v>
       </c>
       <c r="D22" t="n">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>20.2</v>
+        <v>21.4</v>
       </c>
       <c r="F22" t="n">
-        <v>7744.596</v>
+        <v>231643.2335575343</v>
       </c>
       <c r="G22" t="n">
-        <v>20.23999999999999</v>
+        <v>1151880.145202989</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="C23" t="n">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="D23" t="n">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="E23" t="n">
-        <v>20.2</v>
+        <v>21.4</v>
       </c>
       <c r="F23" t="n">
-        <v>66168</v>
+        <v>203226.1614</v>
       </c>
       <c r="G23" t="n">
-        <v>20.29999999999999</v>
+        <v>1151880.145202989</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="C24" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="D24" t="n">
-        <v>20.2</v>
+        <v>21.7</v>
       </c>
       <c r="E24" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="F24" t="n">
-        <v>800</v>
+        <v>152010.9393</v>
       </c>
       <c r="G24" t="n">
-        <v>20.29999999999999</v>
+        <v>999869.2059029888</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="C25" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="D25" t="n">
-        <v>20.4</v>
+        <v>21.9</v>
       </c>
       <c r="E25" t="n">
-        <v>20.4</v>
+        <v>21.4</v>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>197355.6041</v>
       </c>
       <c r="G25" t="n">
-        <v>20.4</v>
+        <v>802513.6018029888</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="C26" t="n">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
       <c r="D26" t="n">
-        <v>20.5</v>
+        <v>21.6</v>
       </c>
       <c r="E26" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1400</v>
+        <v>188163.6122</v>
       </c>
       <c r="G26" t="n">
-        <v>20.4</v>
+        <v>990677.2140029888</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20.5</v>
+        <v>21.7</v>
       </c>
       <c r="C27" t="n">
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="D27" t="n">
-        <v>20.5</v>
+        <v>21.8</v>
       </c>
       <c r="E27" t="n">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="F27" t="n">
-        <v>5879</v>
+        <v>102109.1475</v>
       </c>
       <c r="G27" t="n">
-        <v>20.41999999999999</v>
+        <v>888568.0665029888</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>21.3</v>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>84.7727</v>
       </c>
       <c r="G28" t="n">
-        <v>20.27999999999999</v>
+        <v>888652.8392029888</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19.9</v>
+        <v>21.4</v>
       </c>
       <c r="C29" t="n">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="D29" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="E29" t="n">
-        <v>19.8</v>
+        <v>21.4</v>
       </c>
       <c r="F29" t="n">
-        <v>156024.6623</v>
+        <v>52691.2785</v>
       </c>
       <c r="G29" t="n">
-        <v>20.19999999999999</v>
+        <v>941344.1177029888</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19.9</v>
+        <v>21.5</v>
       </c>
       <c r="C30" t="n">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="D30" t="n">
-        <v>19.9</v>
+        <v>21.5</v>
       </c>
       <c r="E30" t="n">
-        <v>19.8</v>
+        <v>21.5</v>
       </c>
       <c r="F30" t="n">
-        <v>121884.2817</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>20.07999999999999</v>
+        <v>941344.1177029888</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.1</v>
+        <v>21.4</v>
       </c>
       <c r="C31" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="D31" t="n">
-        <v>20.1</v>
+        <v>21.6</v>
       </c>
       <c r="E31" t="n">
-        <v>20.1</v>
+        <v>21.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1444.4776</v>
+        <v>15455</v>
       </c>
       <c r="G31" t="n">
-        <v>19.99999999999999</v>
+        <v>956799.1177029888</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="C32" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="D32" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="E32" t="n">
-        <v>19.9</v>
+        <v>21.6</v>
       </c>
       <c r="F32" t="n">
-        <v>73934.0793</v>
+        <v>15240</v>
       </c>
       <c r="G32" t="n">
-        <v>19.91999999999999</v>
+        <v>956799.1177029888</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="C33" t="n">
-        <v>19.9</v>
+        <v>21.3</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>21.4</v>
       </c>
       <c r="E33" t="n">
-        <v>19.9</v>
+        <v>21.3</v>
       </c>
       <c r="F33" t="n">
-        <v>85525.5095</v>
+        <v>9528.243200000001</v>
       </c>
       <c r="G33" t="n">
-        <v>19.89999999999999</v>
+        <v>947270.8745029888</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>21.6</v>
       </c>
       <c r="C34" t="n">
-        <v>19.9</v>
+        <v>20.8</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>21.6</v>
       </c>
       <c r="E34" t="n">
-        <v>19.9</v>
+        <v>20.8</v>
       </c>
       <c r="F34" t="n">
-        <v>17200.7938</v>
+        <v>7584.3333</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91999999999999</v>
+        <v>939686.5412029887</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="F35" t="n">
-        <v>13483.6479</v>
+        <v>30388.5749</v>
       </c>
       <c r="G35" t="n">
-        <v>19.93999999999999</v>
+        <v>970075.1161029887</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="C36" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="D36" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="E36" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="F36" t="n">
-        <v>63595.781</v>
+        <v>29588.575</v>
       </c>
       <c r="G36" t="n">
-        <v>19.89999999999999</v>
+        <v>999663.6911029887</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20.1</v>
+        <v>21.1</v>
       </c>
       <c r="C37" t="n">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="D37" t="n">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="E37" t="n">
-        <v>20.1</v>
+        <v>21.1</v>
       </c>
       <c r="F37" t="n">
-        <v>4380</v>
+        <v>6775</v>
       </c>
       <c r="G37" t="n">
-        <v>19.95999999999999</v>
+        <v>992888.6911029887</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="C38" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="D38" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="E38" t="n">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="F38" t="n">
-        <v>2399</v>
+        <v>23142.4247</v>
       </c>
       <c r="G38" t="n">
-        <v>20.11999999999999</v>
+        <v>1016031.115802989</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="C39" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="D39" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="E39" t="n">
-        <v>19.9</v>
+        <v>21.2</v>
       </c>
       <c r="F39" t="n">
-        <v>28176</v>
+        <v>13610.8207</v>
       </c>
       <c r="G39" t="n">
-        <v>20.11999999999999</v>
+        <v>1016031.115802989</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.1</v>
+        <v>21.2</v>
       </c>
       <c r="C40" t="n">
-        <v>20.1</v>
+        <v>21.3</v>
       </c>
       <c r="D40" t="n">
-        <v>20.1</v>
+        <v>21.3</v>
       </c>
       <c r="E40" t="n">
-        <v>20.1</v>
+        <v>21.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2230.1415</v>
+        <v>5590</v>
       </c>
       <c r="G40" t="n">
-        <v>20.15999999999999</v>
+        <v>1021621.115802989</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20.3</v>
+        <v>21</v>
       </c>
       <c r="C41" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="D41" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="E41" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="F41" t="n">
-        <v>6324.3303</v>
+        <v>1596</v>
       </c>
       <c r="G41" t="n">
-        <v>20.21999999999999</v>
+        <v>1020025.115802989</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="C42" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D42" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="E42" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="F42" t="n">
-        <v>26746</v>
+        <v>6000</v>
       </c>
       <c r="G42" t="n">
-        <v>20.27999999999999</v>
+        <v>1020025.115802989</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,35 +1914,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C43" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D43" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E43" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F43" t="n">
-        <v>216624.439</v>
+        <v>37480</v>
       </c>
       <c r="G43" t="n">
-        <v>20.23999999999999</v>
+        <v>1020025.115802989</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1954,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C44" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="D44" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="E44" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F44" t="n">
-        <v>29419.9285</v>
+        <v>13171.3682</v>
       </c>
       <c r="G44" t="n">
-        <v>20.35999999999999</v>
+        <v>1033196.484002989</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1978,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1996,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C45" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D45" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E45" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F45" t="n">
-        <v>400.7804</v>
+        <v>22233.1606</v>
       </c>
       <c r="G45" t="n">
-        <v>20.43999999999999</v>
+        <v>1010963.323402989</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2040,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C46" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D46" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="E46" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F46" t="n">
-        <v>1292</v>
+        <v>15694.9078</v>
       </c>
       <c r="G46" t="n">
-        <v>20.49999999999999</v>
+        <v>1010963.323402989</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,7 +2058,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="C47" t="n">
         <v>20.7</v>
@@ -2085,29 +2067,23 @@
         <v>20.7</v>
       </c>
       <c r="E47" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="F47" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G47" t="n">
-        <v>20.53999999999999</v>
+        <v>1010963.323402989</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>20.5</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2121,19 +2097,19 @@
         <v>20.7</v>
       </c>
       <c r="C48" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="D48" t="n">
         <v>20.7</v>
       </c>
       <c r="E48" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>31748</v>
       </c>
       <c r="G48" t="n">
-        <v>20.57999999999999</v>
+        <v>979215.3234029887</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2143,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2158,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="C49" t="n">
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="D49" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="E49" t="n">
-        <v>20.7</v>
+        <v>19.8</v>
       </c>
       <c r="F49" t="n">
-        <v>8618</v>
+        <v>252134.3284</v>
       </c>
       <c r="G49" t="n">
-        <v>20.71999999999999</v>
+        <v>727080.9950029887</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2183,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2198,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21.2</v>
+        <v>20.4</v>
       </c>
       <c r="C50" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="D50" t="n">
-        <v>21.2</v>
+        <v>20.4</v>
       </c>
       <c r="E50" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="F50" t="n">
-        <v>10589.3393</v>
+        <v>32308</v>
       </c>
       <c r="G50" t="n">
-        <v>20.85999999999999</v>
+        <v>759388.9950029887</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2223,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="C51" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="D51" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="E51" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="F51" t="n">
-        <v>2352</v>
+        <v>800</v>
       </c>
       <c r="G51" t="n">
-        <v>20.9</v>
+        <v>760188.9950029887</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2263,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2278,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="C52" t="n">
         <v>20.7</v>
@@ -2287,13 +2247,13 @@
         <v>20.7</v>
       </c>
       <c r="E52" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="F52" t="n">
-        <v>9621.8285</v>
+        <v>1442</v>
       </c>
       <c r="G52" t="n">
-        <v>20.9</v>
+        <v>761630.9950029887</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2303,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2318,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="C53" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="D53" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="E53" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="F53" t="n">
-        <v>6016.6379</v>
+        <v>1442</v>
       </c>
       <c r="G53" t="n">
-        <v>20.84</v>
+        <v>763072.9950029887</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2343,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="C54" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="D54" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="E54" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F54" t="n">
-        <v>3166.0615</v>
+        <v>5940</v>
       </c>
       <c r="G54" t="n">
-        <v>20.67999999999999</v>
+        <v>763072.9950029887</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2383,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2398,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="C55" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="D55" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="E55" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F55" t="n">
-        <v>38783.5125</v>
+        <v>4672.4523</v>
       </c>
       <c r="G55" t="n">
-        <v>20.56</v>
+        <v>767745.4473029887</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2423,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2438,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="C56" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="D56" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="E56" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="F56" t="n">
-        <v>3205</v>
+        <v>8648</v>
       </c>
       <c r="G56" t="n">
-        <v>20.49999999999999</v>
+        <v>767745.4473029887</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2463,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2478,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="C57" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="D57" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="E57" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F57" t="n">
-        <v>7475</v>
+        <v>97321</v>
       </c>
       <c r="G57" t="n">
-        <v>20.45999999999999</v>
+        <v>670424.4473029887</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2503,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2518,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="C58" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="D58" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="E58" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="F58" t="n">
-        <v>41.8136</v>
+        <v>71</v>
       </c>
       <c r="G58" t="n">
-        <v>20.45999999999999</v>
+        <v>670495.4473029887</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2543,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2558,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="C59" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="D59" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="E59" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="F59" t="n">
-        <v>471.4101</v>
+        <v>0.8396</v>
       </c>
       <c r="G59" t="n">
-        <v>20.45999999999999</v>
+        <v>670494.6077029888</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2583,11 +2515,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="C60" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="D60" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="E60" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="F60" t="n">
-        <v>110504.3894</v>
+        <v>1997</v>
       </c>
       <c r="G60" t="n">
-        <v>20.29999999999999</v>
+        <v>668497.6077029888</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2623,11 +2551,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="C61" t="n">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="D61" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="E61" t="n">
-        <v>20.4</v>
+        <v>19.5</v>
       </c>
       <c r="F61" t="n">
-        <v>7120</v>
+        <v>88957</v>
       </c>
       <c r="G61" t="n">
-        <v>20.31999999999999</v>
+        <v>579540.6077029888</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2663,11 +2587,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2678,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="C62" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="E62" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="F62" t="n">
-        <v>43443</v>
+        <v>6835</v>
       </c>
       <c r="G62" t="n">
-        <v>20.33999999999999</v>
+        <v>586375.6077029888</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2703,11 +2623,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2718,38 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="C63" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="D63" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="E63" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="F63" t="n">
-        <v>2026.6935</v>
+        <v>300</v>
       </c>
       <c r="G63" t="n">
-        <v>20.43999999999999</v>
+        <v>586675.6077029888</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2760,38 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="C64" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="D64" t="n">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="E64" t="n">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="F64" t="n">
-        <v>306123.0557</v>
+        <v>64</v>
       </c>
       <c r="G64" t="n">
-        <v>20.49999999999999</v>
+        <v>586675.6077029888</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>20.9</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2802,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="C65" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="D65" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="E65" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="F65" t="n">
-        <v>207579</v>
+        <v>10376</v>
       </c>
       <c r="G65" t="n">
-        <v>20.65999999999999</v>
+        <v>597051.6077029888</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2827,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2842,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="C66" t="n">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="D66" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="E66" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="F66" t="n">
-        <v>37200</v>
+        <v>31190.232</v>
       </c>
       <c r="G66" t="n">
-        <v>20.67999999999999</v>
+        <v>628241.8397029887</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2867,11 +2767,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2882,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="C67" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="D67" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="E67" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="F67" t="n">
-        <v>140131.2077</v>
+        <v>524</v>
       </c>
       <c r="G67" t="n">
-        <v>20.69999999999999</v>
+        <v>627717.8397029887</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2907,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C68" t="n">
-        <v>21.8</v>
+        <v>20.4</v>
       </c>
       <c r="D68" t="n">
-        <v>21.9</v>
+        <v>20.4</v>
       </c>
       <c r="E68" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="F68" t="n">
-        <v>41178.6323</v>
+        <v>1436.784</v>
       </c>
       <c r="G68" t="n">
-        <v>20.87999999999999</v>
+        <v>627717.8397029887</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2947,11 +2839,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2962,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21.8</v>
+        <v>20.1</v>
       </c>
       <c r="C69" t="n">
-        <v>22.4</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>22.4</v>
+        <v>20.1</v>
       </c>
       <c r="E69" t="n">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="F69" t="n">
-        <v>146295</v>
+        <v>6000</v>
       </c>
       <c r="G69" t="n">
-        <v>21.21999999999999</v>
+        <v>621717.8397029887</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2987,11 +2875,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3002,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C70" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="F70" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G70" t="n">
-        <v>21.39999999999999</v>
+        <v>621717.8397029887</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3027,11 +2911,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3042,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21.9</v>
+        <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>22</v>
+        <v>19.3</v>
       </c>
       <c r="D71" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>21.9</v>
+        <v>19.3</v>
       </c>
       <c r="F71" t="n">
-        <v>9523</v>
+        <v>5576.4681</v>
       </c>
       <c r="G71" t="n">
-        <v>21.67999999999999</v>
+        <v>616141.3716029887</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3067,11 +2947,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3082,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="C72" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="D72" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="E72" t="n">
-        <v>21.5</v>
+        <v>20.1</v>
       </c>
       <c r="F72" t="n">
-        <v>30096.1136</v>
+        <v>4000</v>
       </c>
       <c r="G72" t="n">
-        <v>21.93999999999999</v>
+        <v>620141.3716029887</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3107,11 +2983,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3122,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="C73" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="D73" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="E73" t="n">
-        <v>22</v>
+        <v>20.1</v>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>17.2376</v>
       </c>
       <c r="G73" t="n">
-        <v>21.97999999999999</v>
+        <v>620141.3716029887</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3147,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3162,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>20.6</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>20.7</v>
       </c>
       <c r="E74" t="n">
-        <v>22</v>
+        <v>20.2</v>
       </c>
       <c r="F74" t="n">
-        <v>336</v>
+        <v>19969.7249</v>
       </c>
       <c r="G74" t="n">
-        <v>21.89999999999998</v>
+        <v>640111.0965029887</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3187,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3202,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="C75" t="n">
-        <v>21.8</v>
+        <v>20.2</v>
       </c>
       <c r="D75" t="n">
-        <v>21.8</v>
+        <v>20.6</v>
       </c>
       <c r="E75" t="n">
-        <v>21.8</v>
+        <v>20.2</v>
       </c>
       <c r="F75" t="n">
-        <v>74.04559999999999</v>
+        <v>29805</v>
       </c>
       <c r="G75" t="n">
-        <v>21.95999999999999</v>
+        <v>610306.0965029887</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3227,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="C76" t="n">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="D76" t="n">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="E76" t="n">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="F76" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G76" t="n">
-        <v>21.99999999999998</v>
+        <v>612306.0965029887</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3267,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="C77" t="n">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="D77" t="n">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="E77" t="n">
-        <v>22.2</v>
+        <v>20.5</v>
       </c>
       <c r="F77" t="n">
-        <v>2263</v>
+        <v>4000</v>
       </c>
       <c r="G77" t="n">
-        <v>22.03999999999998</v>
+        <v>612306.0965029887</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3307,11 +3163,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3322,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22.1</v>
+        <v>20.1</v>
       </c>
       <c r="C78" t="n">
-        <v>22.2</v>
+        <v>19.7</v>
       </c>
       <c r="D78" t="n">
-        <v>22.2</v>
+        <v>20.1</v>
       </c>
       <c r="E78" t="n">
-        <v>22.1</v>
+        <v>19.7</v>
       </c>
       <c r="F78" t="n">
-        <v>56924.8648</v>
+        <v>4000</v>
       </c>
       <c r="G78" t="n">
-        <v>22.07999999999998</v>
+        <v>608306.0965029887</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3347,11 +3199,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3362,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="F79" t="n">
-        <v>56782.5526</v>
+        <v>4367.1142</v>
       </c>
       <c r="G79" t="n">
-        <v>22.01999999999997</v>
+        <v>612673.2107029887</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3387,11 +3235,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3402,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>21.8</v>
+        <v>20</v>
       </c>
       <c r="E80" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="F80" t="n">
-        <v>40024.5235</v>
+        <v>5589.8198</v>
       </c>
       <c r="G80" t="n">
-        <v>21.99999999999998</v>
+        <v>612673.2107029887</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3427,11 +3271,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3442,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21.7</v>
+        <v>19.9</v>
       </c>
       <c r="C81" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="E81" t="n">
-        <v>21.7</v>
+        <v>19.9</v>
       </c>
       <c r="F81" t="n">
-        <v>26462.3447</v>
+        <v>16744.0653</v>
       </c>
       <c r="G81" t="n">
-        <v>21.89999999999997</v>
+        <v>612673.2107029887</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3467,11 +3307,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3482,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="C82" t="n">
-        <v>21.5</v>
+        <v>20.1</v>
       </c>
       <c r="D82" t="n">
-        <v>21.5</v>
+        <v>20.1</v>
       </c>
       <c r="E82" t="n">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="F82" t="n">
-        <v>4224.8864</v>
+        <v>13727.0653</v>
       </c>
       <c r="G82" t="n">
-        <v>21.75999999999998</v>
+        <v>626400.2760029887</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3507,11 +3343,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3522,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="C83" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="F83" t="n">
-        <v>4700</v>
+        <v>24587.1797</v>
       </c>
       <c r="G83" t="n">
-        <v>21.57999999999998</v>
+        <v>601813.0963029887</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3547,11 +3379,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3562,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="C84" t="n">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="D84" t="n">
-        <v>21.4</v>
+        <v>20.3</v>
       </c>
       <c r="E84" t="n">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="F84" t="n">
-        <v>14211.4327</v>
+        <v>39.1133</v>
       </c>
       <c r="G84" t="n">
-        <v>21.49999999999998</v>
+        <v>601852.2096029887</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3587,11 +3415,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3602,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="C85" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="D85" t="n">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="E85" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F85" t="n">
-        <v>37515.2335</v>
+        <v>760.8867</v>
       </c>
       <c r="G85" t="n">
-        <v>21.25999999999997</v>
+        <v>601852.2096029887</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3627,11 +3451,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3642,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="C86" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="D86" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="E86" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="F86" t="n">
-        <v>6572.0297</v>
+        <v>50524.5597</v>
       </c>
       <c r="G86" t="n">
-        <v>21.03999999999997</v>
+        <v>652376.7693029887</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3667,11 +3487,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3682,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="C87" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D87" t="n">
-        <v>21.3</v>
+        <v>20.4</v>
       </c>
       <c r="E87" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F87" t="n">
-        <v>15073.5474</v>
+        <v>12000</v>
       </c>
       <c r="G87" t="n">
-        <v>20.91999999999997</v>
+        <v>640376.7693029887</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3707,11 +3523,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3722,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C88" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="D88" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="E88" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="F88" t="n">
-        <v>956.937</v>
+        <v>58974.0881</v>
       </c>
       <c r="G88" t="n">
-        <v>20.83999999999997</v>
+        <v>581402.6812029886</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3747,11 +3559,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3762,34 +3570,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="C89" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="D89" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="E89" t="n">
-        <v>20.9</v>
+        <v>19.9</v>
       </c>
       <c r="F89" t="n">
-        <v>2614</v>
+        <v>18131.7073</v>
       </c>
       <c r="G89" t="n">
-        <v>20.75999999999997</v>
+        <v>599534.3885029886</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>20.2</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3802,30 +3612,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="C90" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="D90" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="E90" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G90" t="n">
-        <v>20.91999999999997</v>
+        <v>593534.3885029886</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>20.4</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3842,22 +3654,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="C91" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="D91" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="F91" t="n">
-        <v>144</v>
+        <v>46691.2785</v>
       </c>
       <c r="G91" t="n">
-        <v>20.89999999999997</v>
+        <v>546843.1100029886</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3882,22 +3694,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="C92" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="D92" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="F92" t="n">
-        <v>16009</v>
+        <v>8305</v>
       </c>
       <c r="G92" t="n">
-        <v>20.97999999999997</v>
+        <v>555148.1100029886</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3922,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="C93" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="D93" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="E93" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="F93" t="n">
-        <v>8601</v>
+        <v>7744.596</v>
       </c>
       <c r="G93" t="n">
-        <v>20.99999999999997</v>
+        <v>547403.5140029886</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3962,22 +3774,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="C94" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="D94" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="E94" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1400</v>
+        <v>66168</v>
       </c>
       <c r="G94" t="n">
-        <v>21.07999999999997</v>
+        <v>613571.5140029886</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4002,22 +3814,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="C95" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="D95" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="E95" t="n">
-        <v>21.3</v>
+        <v>20.2</v>
       </c>
       <c r="F95" t="n">
-        <v>33375</v>
+        <v>800</v>
       </c>
       <c r="G95" t="n">
-        <v>21.07999999999997</v>
+        <v>612771.5140029886</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4042,22 +3854,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.4</v>
+        <v>20.4</v>
       </c>
       <c r="C96" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="D96" t="n">
-        <v>21.5</v>
+        <v>20.4</v>
       </c>
       <c r="E96" t="n">
-        <v>21.4</v>
+        <v>20.4</v>
       </c>
       <c r="F96" t="n">
-        <v>3991.3482</v>
+        <v>800</v>
       </c>
       <c r="G96" t="n">
-        <v>21.27999999999997</v>
+        <v>613571.5140029886</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4082,22 +3894,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="C97" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="D97" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="E97" t="n">
-        <v>21.1</v>
+        <v>20.5</v>
       </c>
       <c r="F97" t="n">
-        <v>33052.092</v>
+        <v>1400</v>
       </c>
       <c r="G97" t="n">
-        <v>21.25999999999997</v>
+        <v>614971.5140029886</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4122,22 +3934,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.2</v>
+        <v>20.5</v>
       </c>
       <c r="C98" t="n">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="D98" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="E98" t="n">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="F98" t="n">
-        <v>22276</v>
+        <v>5879</v>
       </c>
       <c r="G98" t="n">
-        <v>21.27999999999997</v>
+        <v>609092.5140029886</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4162,22 +3974,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="C99" t="n">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="E99" t="n">
-        <v>21.4</v>
+        <v>20</v>
       </c>
       <c r="F99" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="G99" t="n">
-        <v>21.29999999999998</v>
+        <v>608292.5140029886</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4202,22 +4014,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="C100" t="n">
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="D100" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="E100" t="n">
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="F100" t="n">
-        <v>5486.1003</v>
+        <v>156024.6623</v>
       </c>
       <c r="G100" t="n">
-        <v>21.27999999999998</v>
+        <v>452267.8517029886</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4242,22 +4054,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="C101" t="n">
-        <v>21.4</v>
+        <v>19.8</v>
       </c>
       <c r="D101" t="n">
-        <v>21.4</v>
+        <v>19.9</v>
       </c>
       <c r="E101" t="n">
-        <v>21.2</v>
+        <v>19.8</v>
       </c>
       <c r="F101" t="n">
-        <v>3723.8059</v>
+        <v>121884.2817</v>
       </c>
       <c r="G101" t="n">
-        <v>21.25999999999997</v>
+        <v>452267.8517029886</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4282,30 +4094,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="C102" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="D102" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="E102" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="F102" t="n">
-        <v>1951.2204</v>
+        <v>1444.4776</v>
       </c>
       <c r="G102" t="n">
-        <v>21.25999999999997</v>
+        <v>453712.3293029886</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>19.8</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4322,30 +4136,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="C103" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="D103" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="E103" t="n">
-        <v>21.2</v>
+        <v>19.9</v>
       </c>
       <c r="F103" t="n">
-        <v>9404</v>
+        <v>73934.0793</v>
       </c>
       <c r="G103" t="n">
-        <v>21.29999999999997</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>20.1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4362,30 +4178,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="C104" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="D104" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="E104" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="F104" t="n">
-        <v>551.0328</v>
+        <v>85525.5095</v>
       </c>
       <c r="G104" t="n">
-        <v>21.27999999999997</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>19.9</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
@@ -4402,22 +4220,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="D105" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E105" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="F105" t="n">
-        <v>48626.6673</v>
+        <v>17200.7938</v>
       </c>
       <c r="G105" t="n">
-        <v>21.15999999999997</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4426,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
@@ -4444,22 +4262,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="C106" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="D106" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="E106" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="F106" t="n">
-        <v>5160.174</v>
+        <v>13483.6479</v>
       </c>
       <c r="G106" t="n">
-        <v>21.01999999999997</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4468,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>20.6</v>
+        <v>19.9</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
@@ -4486,22 +4304,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>20.9</v>
+        <v>19.9</v>
       </c>
       <c r="C107" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="D107" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="E107" t="n">
-        <v>20.9</v>
+        <v>19.9</v>
       </c>
       <c r="F107" t="n">
-        <v>23041.7339</v>
+        <v>63595.781</v>
       </c>
       <c r="G107" t="n">
-        <v>21.03999999999997</v>
+        <v>379778.2500029886</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4510,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
@@ -4528,22 +4346,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="C108" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="D108" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="E108" t="n">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="F108" t="n">
-        <v>2000</v>
+        <v>4380</v>
       </c>
       <c r="G108" t="n">
-        <v>21.01999999999997</v>
+        <v>384158.2500029886</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4552,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
@@ -4570,22 +4388,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="C109" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="D109" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E109" t="n">
-        <v>20.8</v>
+        <v>20.2</v>
       </c>
       <c r="F109" t="n">
-        <v>10994.0337</v>
+        <v>2399</v>
       </c>
       <c r="G109" t="n">
-        <v>20.91999999999997</v>
+        <v>386557.2500029886</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4594,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
@@ -4612,22 +4430,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="C110" t="n">
-        <v>21.5</v>
+        <v>19.9</v>
       </c>
       <c r="D110" t="n">
-        <v>21.6</v>
+        <v>20.4</v>
       </c>
       <c r="E110" t="n">
-        <v>20.8</v>
+        <v>19.9</v>
       </c>
       <c r="F110" t="n">
-        <v>9500</v>
+        <v>28176</v>
       </c>
       <c r="G110" t="n">
-        <v>21.09999999999997</v>
+        <v>358381.2500029886</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4636,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
@@ -4654,30 +4472,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
       <c r="C111" t="n">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
       <c r="D111" t="n">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
       <c r="E111" t="n">
-        <v>21.4</v>
+        <v>20.1</v>
       </c>
       <c r="F111" t="n">
-        <v>2000</v>
+        <v>2230.1415</v>
       </c>
       <c r="G111" t="n">
-        <v>21.23999999999997</v>
+        <v>360611.3915029886</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>19.9</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4694,30 +4514,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>21.4</v>
+        <v>20.3</v>
       </c>
       <c r="C112" t="n">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="D112" t="n">
-        <v>21.4</v>
+        <v>20.4</v>
       </c>
       <c r="E112" t="n">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="F112" t="n">
-        <v>83</v>
+        <v>6324.3303</v>
       </c>
       <c r="G112" t="n">
-        <v>21.25999999999997</v>
+        <v>366935.7218029886</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>20.1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4734,30 +4556,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="C113" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="D113" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="E113" t="n">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="F113" t="n">
-        <v>11</v>
+        <v>26746</v>
       </c>
       <c r="G113" t="n">
-        <v>21.29999999999997</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>20.2</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4774,30 +4598,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="C114" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="D114" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="E114" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="F114" t="n">
-        <v>662</v>
+        <v>216624.439</v>
       </c>
       <c r="G114" t="n">
-        <v>21.43999999999997</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>20.5</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4814,22 +4640,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="C115" t="n">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="D115" t="n">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="E115" t="n">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="F115" t="n">
-        <v>4000</v>
+        <v>29419.9285</v>
       </c>
       <c r="G115" t="n">
-        <v>21.47999999999997</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4854,22 +4680,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="C116" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="D116" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="E116" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="F116" t="n">
-        <v>14915.8796</v>
+        <v>400.7804</v>
       </c>
       <c r="G116" t="n">
-        <v>21.51999999999996</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4894,22 +4720,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="C117" t="n">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="D117" t="n">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="E117" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
       </c>
       <c r="F117" t="n">
-        <v>666.9861751152074</v>
+        <v>1292</v>
       </c>
       <c r="G117" t="n">
-        <v>21.57999999999996</v>
+        <v>393681.7218029886</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4934,22 +4760,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="C118" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="D118" t="n">
-        <v>21.7</v>
+        <v>20.7</v>
       </c>
       <c r="E118" t="n">
-        <v>21.7</v>
+        <v>20.5</v>
       </c>
       <c r="F118" t="n">
-        <v>91.61290322580645</v>
+        <v>6000</v>
       </c>
       <c r="G118" t="n">
-        <v>21.63999999999996</v>
+        <v>399681.7218029886</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4974,22 +4800,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="C119" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="D119" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="E119" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="F119" t="n">
-        <v>114.375</v>
+        <v>2000</v>
       </c>
       <c r="G119" t="n">
-        <v>21.53999999999996</v>
+        <v>399681.7218029886</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5014,22 +4840,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="C120" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D120" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E120" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="F120" t="n">
-        <v>14000</v>
+        <v>8618</v>
       </c>
       <c r="G120" t="n">
-        <v>21.45999999999996</v>
+        <v>408299.7218029886</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5057,19 +4883,19 @@
         <v>21.2</v>
       </c>
       <c r="C121" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D121" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="E121" t="n">
         <v>21.2</v>
       </c>
       <c r="F121" t="n">
-        <v>24000</v>
+        <v>10589.3393</v>
       </c>
       <c r="G121" t="n">
-        <v>21.39999999999996</v>
+        <v>408299.7218029886</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5094,22 +4920,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="C122" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="D122" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="E122" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="F122" t="n">
-        <v>528.1441</v>
+        <v>2352</v>
       </c>
       <c r="G122" t="n">
-        <v>21.31999999999996</v>
+        <v>405947.7218029886</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5128,6 +4954,2874 @@
         <v>1</v>
       </c>
       <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9621.8285</v>
+      </c>
+      <c r="G123" t="n">
+        <v>405947.7218029886</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6016.6379</v>
+      </c>
+      <c r="G124" t="n">
+        <v>399931.0839029886</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3166.0615</v>
+      </c>
+      <c r="G125" t="n">
+        <v>399931.0839029886</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>38783.5125</v>
+      </c>
+      <c r="G126" t="n">
+        <v>438714.5964029887</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3205</v>
+      </c>
+      <c r="G127" t="n">
+        <v>435509.5964029887</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7475</v>
+      </c>
+      <c r="G128" t="n">
+        <v>442984.5964029887</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>41.8136</v>
+      </c>
+      <c r="G129" t="n">
+        <v>442942.7828029887</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>471.4101</v>
+      </c>
+      <c r="G130" t="n">
+        <v>442942.7828029887</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>110504.3894</v>
+      </c>
+      <c r="G131" t="n">
+        <v>332438.3934029887</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7120</v>
+      </c>
+      <c r="G132" t="n">
+        <v>339558.3934029887</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>43443</v>
+      </c>
+      <c r="G133" t="n">
+        <v>383001.3934029887</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2026.6935</v>
+      </c>
+      <c r="G134" t="n">
+        <v>385028.0869029887</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>306123.0557</v>
+      </c>
+      <c r="G135" t="n">
+        <v>78905.03120298864</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>207579</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-128673.9687970114</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>37200</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-128673.9687970114</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>140131.2077</v>
+      </c>
+      <c r="G138" t="n">
+        <v>11457.23890298864</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>41178.6323</v>
+      </c>
+      <c r="G139" t="n">
+        <v>52635.87120298864</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>146295</v>
+      </c>
+      <c r="G140" t="n">
+        <v>198930.8712029886</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22</v>
+      </c>
+      <c r="C141" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22</v>
+      </c>
+      <c r="E141" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>192930.8712029886</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>22</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9523</v>
+      </c>
+      <c r="G142" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>22</v>
+      </c>
+      <c r="C143" t="n">
+        <v>22</v>
+      </c>
+      <c r="D143" t="n">
+        <v>22</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>30096.1136</v>
+      </c>
+      <c r="G143" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>22</v>
+      </c>
+      <c r="C144" t="n">
+        <v>22</v>
+      </c>
+      <c r="D144" t="n">
+        <v>22</v>
+      </c>
+      <c r="E144" t="n">
+        <v>22</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>22</v>
+      </c>
+      <c r="C145" t="n">
+        <v>22</v>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="n">
+        <v>22</v>
+      </c>
+      <c r="F145" t="n">
+        <v>336</v>
+      </c>
+      <c r="G145" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>74.04559999999999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>202379.8256029886</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>22</v>
+      </c>
+      <c r="C147" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>22</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>206379.8256029886</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2263</v>
+      </c>
+      <c r="G148" t="n">
+        <v>206379.8256029886</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>56924.8648</v>
+      </c>
+      <c r="G149" t="n">
+        <v>206379.8256029886</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>56782.5526</v>
+      </c>
+      <c r="G150" t="n">
+        <v>149597.2730029886</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>40024.5235</v>
+      </c>
+      <c r="G151" t="n">
+        <v>149597.2730029886</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>26462.3447</v>
+      </c>
+      <c r="G152" t="n">
+        <v>149597.2730029886</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4224.8864</v>
+      </c>
+      <c r="G153" t="n">
+        <v>145372.3866029886</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4700</v>
+      </c>
+      <c r="G154" t="n">
+        <v>140672.3866029886</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>14211.4327</v>
+      </c>
+      <c r="G155" t="n">
+        <v>140672.3866029886</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>37515.2335</v>
+      </c>
+      <c r="G156" t="n">
+        <v>103157.1531029886</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6572.0297</v>
+      </c>
+      <c r="G157" t="n">
+        <v>109729.1828029886</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15073.5474</v>
+      </c>
+      <c r="G158" t="n">
+        <v>124802.7302029886</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>956.937</v>
+      </c>
+      <c r="G159" t="n">
+        <v>124802.7302029886</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2614</v>
+      </c>
+      <c r="G160" t="n">
+        <v>124802.7302029886</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>128802.7302029886</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>144</v>
+      </c>
+      <c r="G162" t="n">
+        <v>128658.7302029886</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>21</v>
+      </c>
+      <c r="C163" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>21</v>
+      </c>
+      <c r="F163" t="n">
+        <v>16009</v>
+      </c>
+      <c r="G163" t="n">
+        <v>144667.7302029886</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>21</v>
+      </c>
+      <c r="C164" t="n">
+        <v>21</v>
+      </c>
+      <c r="D164" t="n">
+        <v>21</v>
+      </c>
+      <c r="E164" t="n">
+        <v>21</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8601</v>
+      </c>
+      <c r="G164" t="n">
+        <v>136066.7302029886</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>21</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>21</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G165" t="n">
+        <v>137466.7302029886</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>33375</v>
+      </c>
+      <c r="G166" t="n">
+        <v>137466.7302029886</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3991.3482</v>
+      </c>
+      <c r="G167" t="n">
+        <v>141458.0784029886</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>33052.092</v>
+      </c>
+      <c r="G168" t="n">
+        <v>108405.9864029886</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>22276</v>
+      </c>
+      <c r="G169" t="n">
+        <v>86129.98640298864</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>89129.98640298864</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5486.1003</v>
+      </c>
+      <c r="G171" t="n">
+        <v>83643.88610298863</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3723.8059</v>
+      </c>
+      <c r="G172" t="n">
+        <v>87367.69200298864</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1951.2204</v>
+      </c>
+      <c r="G173" t="n">
+        <v>85416.47160298863</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E174" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9404</v>
+      </c>
+      <c r="G174" t="n">
+        <v>94820.47160298863</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>551.0328</v>
+      </c>
+      <c r="G175" t="n">
+        <v>94820.47160298863</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>21</v>
+      </c>
+      <c r="C176" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>21</v>
+      </c>
+      <c r="E176" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>48626.6673</v>
+      </c>
+      <c r="G176" t="n">
+        <v>46193.80430298863</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5160.174</v>
+      </c>
+      <c r="G177" t="n">
+        <v>51353.97830298863</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23041.7339</v>
+      </c>
+      <c r="G178" t="n">
+        <v>74395.71220298862</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>72395.71220298862</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10994.0337</v>
+      </c>
+      <c r="G180" t="n">
+        <v>61401.67850298862</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G181" t="n">
+        <v>70901.67850298862</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>83</v>
+      </c>
+      <c r="G183" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11</v>
+      </c>
+      <c r="G184" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>662</v>
+      </c>
+      <c r="G185" t="n">
+        <v>69563.67850298862</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>73563.67850298862</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>14915.8796</v>
+      </c>
+      <c r="G187" t="n">
+        <v>58647.79890298862</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>666.9861751152074</v>
+      </c>
+      <c r="G188" t="n">
+        <v>59314.78507810383</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>91.61290322580645</v>
+      </c>
+      <c r="G189" t="n">
+        <v>59314.78507810383</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>21</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21</v>
+      </c>
+      <c r="E190" t="n">
+        <v>21</v>
+      </c>
+      <c r="F190" t="n">
+        <v>114.375</v>
+      </c>
+      <c r="G190" t="n">
+        <v>59200.41007810383</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D192" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E193" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>528.1441</v>
+      </c>
+      <c r="G193" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N193"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>549629.9368</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>421523.7227</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>454788.0107</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>223045.8376454547</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>528269.1793454547</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>728509.5785454547</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>999869.2059029888</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>802513.6018029888</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>888568.0665029888</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>888652.8392029888</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>941344.1177029888</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>941344.1177029888</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>956799.1177029888</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>939686.5412029887</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>970075.1161029887</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>999663.6911029887</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>992888.6911029887</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>1016031.115802989</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>1016031.115802989</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>668497.6077029888</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>621717.8397029887</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,2310 +3322,2105 @@
         <v>599534.3885029886</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
         <v>20.2</v>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="C90" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>593534.3885029886</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>20</v>
+      </c>
+      <c r="C91" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>20</v>
+      </c>
+      <c r="E91" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>46691.2785</v>
+      </c>
+      <c r="G91" t="n">
+        <v>546843.1100029886</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8305</v>
+      </c>
+      <c r="G92" t="n">
+        <v>555148.1100029886</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7744.596</v>
+      </c>
+      <c r="G93" t="n">
+        <v>547403.5140029886</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>66168</v>
+      </c>
+      <c r="G94" t="n">
+        <v>613571.5140029886</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>800</v>
+      </c>
+      <c r="G95" t="n">
+        <v>612771.5140029886</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>800</v>
+      </c>
+      <c r="G96" t="n">
+        <v>613571.5140029886</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G97" t="n">
+        <v>614971.5140029886</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5879</v>
+      </c>
+      <c r="G98" t="n">
+        <v>609092.5140029886</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
+      </c>
+      <c r="C99" t="n">
+        <v>20</v>
+      </c>
+      <c r="D99" t="n">
+        <v>20</v>
+      </c>
+      <c r="E99" t="n">
+        <v>20</v>
+      </c>
+      <c r="F99" t="n">
+        <v>800</v>
+      </c>
+      <c r="G99" t="n">
+        <v>608292.5140029886</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>156024.6623</v>
+      </c>
+      <c r="G100" t="n">
+        <v>452267.8517029886</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C101" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>121884.2817</v>
+      </c>
+      <c r="G101" t="n">
+        <v>452267.8517029886</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1444.4776</v>
+      </c>
+      <c r="G102" t="n">
+        <v>453712.3293029886</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>73934.0793</v>
+      </c>
+      <c r="G103" t="n">
+        <v>379778.2500029886</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20</v>
+      </c>
+      <c r="C104" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>20</v>
+      </c>
+      <c r="E104" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>85525.5095</v>
+      </c>
+      <c r="G104" t="n">
+        <v>379778.2500029886</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C105" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F105" t="n">
+        <v>17200.7938</v>
+      </c>
+      <c r="G105" t="n">
+        <v>379778.2500029886</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20</v>
+      </c>
+      <c r="C106" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>20</v>
+      </c>
+      <c r="E106" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13483.6479</v>
+      </c>
+      <c r="G106" t="n">
+        <v>379778.2500029886</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>63595.781</v>
+      </c>
+      <c r="G107" t="n">
+        <v>379778.2500029886</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4380</v>
+      </c>
+      <c r="G108" t="n">
+        <v>384158.2500029886</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2399</v>
+      </c>
+      <c r="G109" t="n">
+        <v>386557.2500029886</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>28176</v>
+      </c>
+      <c r="G110" t="n">
+        <v>358381.2500029886</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J110" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G90" t="n">
-        <v>593534.3885029886</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2230.1415</v>
+      </c>
+      <c r="G111" t="n">
+        <v>360611.3915029886</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>20</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6324.3303</v>
+      </c>
+      <c r="G112" t="n">
+        <v>366935.7218029886</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
         <v>19.9</v>
       </c>
-      <c r="D91" t="n">
-        <v>20</v>
-      </c>
-      <c r="E91" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F91" t="n">
-        <v>46691.2785</v>
-      </c>
-      <c r="G91" t="n">
-        <v>546843.1100029886</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>20.5</v>
       </c>
-      <c r="D92" t="n">
+      <c r="C113" t="n">
         <v>20.5</v>
       </c>
-      <c r="E92" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F92" t="n">
-        <v>8305</v>
-      </c>
-      <c r="G92" t="n">
-        <v>555148.1100029886</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="D113" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>26746</v>
+      </c>
+      <c r="G113" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="E93" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F93" t="n">
-        <v>7744.596</v>
-      </c>
-      <c r="G93" t="n">
-        <v>547403.5140029886</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>216624.439</v>
+      </c>
+      <c r="G114" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D94" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E94" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>66168</v>
-      </c>
-      <c r="G94" t="n">
-        <v>613571.5140029886</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>29419.9285</v>
+      </c>
+      <c r="G115" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="E95" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>800</v>
-      </c>
-      <c r="G95" t="n">
-        <v>612771.5140029886</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>400.7804</v>
+      </c>
+      <c r="G116" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C96" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D96" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E96" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>800</v>
-      </c>
-      <c r="G96" t="n">
-        <v>613571.5140029886</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G117" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>20.5</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C118" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E118" t="n">
         <v>20.5</v>
       </c>
-      <c r="D97" t="n">
+      <c r="F118" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>399681.7218029886</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="n">
         <v>20.5</v>
       </c>
-      <c r="E97" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G97" t="n">
-        <v>614971.5140029886</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="J118" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>5879</v>
-      </c>
-      <c r="G98" t="n">
-        <v>609092.5140029886</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>399681.7218029886</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>20</v>
-      </c>
-      <c r="C99" t="n">
-        <v>20</v>
-      </c>
-      <c r="D99" t="n">
-        <v>20</v>
-      </c>
-      <c r="E99" t="n">
-        <v>20</v>
-      </c>
-      <c r="F99" t="n">
-        <v>800</v>
-      </c>
-      <c r="G99" t="n">
-        <v>608292.5140029886</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8618</v>
+      </c>
+      <c r="G120" t="n">
+        <v>408299.7218029886</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10589.3393</v>
+      </c>
+      <c r="G121" t="n">
+        <v>408299.7218029886</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
         <v>19.9</v>
       </c>
-      <c r="C100" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D100" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F100" t="n">
-        <v>156024.6623</v>
-      </c>
-      <c r="G100" t="n">
-        <v>452267.8517029886</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2352</v>
+      </c>
+      <c r="G122" t="n">
+        <v>405947.7218029886</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
         <v>19.9</v>
       </c>
-      <c r="C101" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E101" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>121884.2817</v>
-      </c>
-      <c r="G101" t="n">
-        <v>452267.8517029886</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C102" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E102" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1444.4776</v>
-      </c>
-      <c r="G102" t="n">
-        <v>453712.3293029886</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9621.8285</v>
+      </c>
+      <c r="G123" t="n">
+        <v>405947.7218029886</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6016.6379</v>
+      </c>
+      <c r="G124" t="n">
+        <v>399931.0839029886</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
         <v>19.9</v>
       </c>
-      <c r="C103" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D103" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E103" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>73934.0793</v>
-      </c>
-      <c r="G103" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>20</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3166.0615</v>
+      </c>
+      <c r="G125" t="n">
+        <v>399931.0839029886</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
         <v>19.9</v>
       </c>
-      <c r="D104" t="n">
-        <v>20</v>
-      </c>
-      <c r="E104" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>85525.5095</v>
-      </c>
-      <c r="G104" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>20</v>
-      </c>
-      <c r="C105" t="n">
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>38783.5125</v>
+      </c>
+      <c r="G126" t="n">
+        <v>438714.5964029887</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J126" t="n">
         <v>19.9</v>
       </c>
-      <c r="D105" t="n">
-        <v>20</v>
-      </c>
-      <c r="E105" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F105" t="n">
-        <v>17200.7938</v>
-      </c>
-      <c r="G105" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>20</v>
-      </c>
-      <c r="C106" t="n">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3205</v>
+      </c>
+      <c r="G127" t="n">
+        <v>435509.5964029887</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
         <v>19.9</v>
       </c>
-      <c r="D106" t="n">
-        <v>20</v>
-      </c>
-      <c r="E106" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F106" t="n">
-        <v>13483.6479</v>
-      </c>
-      <c r="G106" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7475</v>
+      </c>
+      <c r="G128" t="n">
+        <v>442984.5964029887</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
         <v>19.9</v>
       </c>
-      <c r="C107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>63595.781</v>
-      </c>
-      <c r="G107" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>4380</v>
-      </c>
-      <c r="G108" t="n">
-        <v>384158.2500029886</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>41.8136</v>
+      </c>
+      <c r="G129" t="n">
+        <v>442942.7828029887</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
         <v>19.9</v>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2399</v>
-      </c>
-      <c r="G109" t="n">
-        <v>386557.2500029886</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>471.4101</v>
+      </c>
+      <c r="G130" t="n">
+        <v>442942.7828029887</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>20.4</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C131" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>110504.3894</v>
+      </c>
+      <c r="G131" t="n">
+        <v>332438.3934029887</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
         <v>19.9</v>
       </c>
-      <c r="D110" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E110" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F110" t="n">
-        <v>28176</v>
-      </c>
-      <c r="G110" t="n">
-        <v>358381.2500029886</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2230.1415</v>
-      </c>
-      <c r="G111" t="n">
-        <v>360611.3915029886</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7120</v>
+      </c>
+      <c r="G132" t="n">
+        <v>339558.3934029887</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+      <c r="I132" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="J132" t="n">
         <v>19.9</v>
       </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="C112" t="n">
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E133" t="n">
         <v>20.2</v>
       </c>
-      <c r="D112" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>6324.3303</v>
-      </c>
-      <c r="G112" t="n">
-        <v>366935.7218029886</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="F133" t="n">
+        <v>43443</v>
+      </c>
+      <c r="G133" t="n">
+        <v>383001.3934029887</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+      <c r="I133" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J133" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>26746</v>
-      </c>
-      <c r="G113" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2026.6935</v>
+      </c>
+      <c r="G134" t="n">
+        <v>385028.0869029887</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>216624.439</v>
-      </c>
-      <c r="G114" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>306123.0557</v>
+      </c>
+      <c r="G135" t="n">
+        <v>78905.03120298864</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>29419.9285</v>
-      </c>
-      <c r="G115" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>207579</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-128673.9687970114</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>400.7804</v>
-      </c>
-      <c r="G116" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>37200</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-128673.9687970114</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1292</v>
-      </c>
-      <c r="G117" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>140131.2077</v>
+      </c>
+      <c r="G138" t="n">
+        <v>11457.23890298864</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>399681.7218029886</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>41178.6323</v>
+      </c>
+      <c r="G139" t="n">
+        <v>52635.87120298864</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G119" t="n">
-        <v>399681.7218029886</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>146295</v>
+      </c>
+      <c r="G140" t="n">
+        <v>198930.8712029886</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>8618</v>
-      </c>
-      <c r="G120" t="n">
-        <v>408299.7218029886</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22</v>
+      </c>
+      <c r="C141" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22</v>
+      </c>
+      <c r="E141" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>192930.8712029886</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10589.3393</v>
-      </c>
-      <c r="G121" t="n">
-        <v>408299.7218029886</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>22</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9523</v>
+      </c>
+      <c r="G142" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2352</v>
-      </c>
-      <c r="G122" t="n">
-        <v>405947.7218029886</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>22</v>
+      </c>
+      <c r="C143" t="n">
+        <v>22</v>
+      </c>
+      <c r="D143" t="n">
+        <v>22</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>30096.1136</v>
+      </c>
+      <c r="G143" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>9621.8285</v>
-      </c>
-      <c r="G123" t="n">
-        <v>405947.7218029886</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>22</v>
+      </c>
+      <c r="C144" t="n">
+        <v>22</v>
+      </c>
+      <c r="D144" t="n">
+        <v>22</v>
+      </c>
+      <c r="E144" t="n">
+        <v>22</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6016.6379</v>
-      </c>
-      <c r="G124" t="n">
-        <v>399931.0839029886</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>22</v>
+      </c>
+      <c r="C145" t="n">
+        <v>22</v>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="n">
+        <v>22</v>
+      </c>
+      <c r="F145" t="n">
+        <v>336</v>
+      </c>
+      <c r="G145" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3166.0615</v>
-      </c>
-      <c r="G125" t="n">
-        <v>399931.0839029886</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C126" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>38783.5125</v>
-      </c>
-      <c r="G126" t="n">
-        <v>438714.5964029887</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3205</v>
-      </c>
-      <c r="G127" t="n">
-        <v>435509.5964029887</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7475</v>
-      </c>
-      <c r="G128" t="n">
-        <v>442984.5964029887</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>41.8136</v>
-      </c>
-      <c r="G129" t="n">
-        <v>442942.7828029887</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>471.4101</v>
-      </c>
-      <c r="G130" t="n">
-        <v>442942.7828029887</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>110504.3894</v>
-      </c>
-      <c r="G131" t="n">
-        <v>332438.3934029887</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7120</v>
-      </c>
-      <c r="G132" t="n">
-        <v>339558.3934029887</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>43443</v>
-      </c>
-      <c r="G133" t="n">
-        <v>383001.3934029887</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D134" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2026.6935</v>
-      </c>
-      <c r="G134" t="n">
-        <v>385028.0869029887</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>306123.0557</v>
-      </c>
-      <c r="G135" t="n">
-        <v>78905.03120298864</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>207579</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-128673.9687970114</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>37200</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-128673.9687970114</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>140131.2077</v>
-      </c>
-      <c r="G138" t="n">
-        <v>11457.23890298864</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>41178.6323</v>
-      </c>
-      <c r="G139" t="n">
-        <v>52635.87120298864</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D140" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>146295</v>
-      </c>
-      <c r="G140" t="n">
-        <v>198930.8712029886</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>22</v>
-      </c>
-      <c r="C141" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>22</v>
-      </c>
-      <c r="E141" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>192930.8712029886</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>22</v>
-      </c>
-      <c r="D142" t="n">
-        <v>22</v>
-      </c>
-      <c r="E142" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>9523</v>
-      </c>
-      <c r="G142" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>22</v>
-      </c>
-      <c r="C143" t="n">
-        <v>22</v>
-      </c>
-      <c r="D143" t="n">
-        <v>22</v>
-      </c>
-      <c r="E143" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>30096.1136</v>
-      </c>
-      <c r="G143" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>22</v>
-      </c>
-      <c r="C144" t="n">
-        <v>22</v>
-      </c>
-      <c r="D144" t="n">
-        <v>22</v>
-      </c>
-      <c r="E144" t="n">
-        <v>22</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>22</v>
-      </c>
-      <c r="C145" t="n">
-        <v>22</v>
-      </c>
-      <c r="D145" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" t="n">
-        <v>22</v>
-      </c>
-      <c r="F145" t="n">
-        <v>336</v>
-      </c>
-      <c r="G145" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5916,22 +5445,23 @@
         <v>202379.8256029886</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L146" t="n">
+        <v>1.090477386934674</v>
+      </c>
       <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>1.155440414507772</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5958,20 +5488,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5998,20 +5521,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6038,20 +5554,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6078,20 +5587,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6118,20 +5620,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6158,20 +5653,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6198,20 +5686,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6238,20 +5719,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6278,20 +5752,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6318,20 +5785,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6358,20 +5818,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6398,20 +5851,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6438,20 +5884,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6478,20 +5917,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6518,20 +5950,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6558,20 +5983,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6598,20 +6016,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6638,20 +6049,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6678,20 +6082,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6718,20 +6115,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6758,20 +6148,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6798,20 +6181,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6838,20 +6214,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6878,20 +6247,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6918,20 +6280,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6958,20 +6313,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6998,20 +6346,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7038,20 +6379,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7076,24 +6410,15 @@
         <v>94820.47160298863</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7120,20 +6445,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7158,24 +6476,15 @@
         <v>51353.97830298863</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>20.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7200,24 +6509,15 @@
         <v>74395.71220298862</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7242,24 +6542,15 @@
         <v>72395.71220298862</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7286,20 +6577,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7324,24 +6608,15 @@
         <v>70901.67850298862</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7368,20 +6643,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7408,20 +6676,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7448,20 +6709,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7488,20 +6742,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7528,20 +6775,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7568,20 +6808,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7608,20 +6841,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7648,20 +6874,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7688,20 +6907,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7728,20 +6940,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7768,20 +6973,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7806,24 +7004,17 @@
         <v>73200.41007810383</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>549629.9368</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>421523.7227</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>454788.0107</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>223045.8376454547</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>528269.1793454547</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>728509.5785454547</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>920236.9116454546</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>999869.2059029888</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>802513.6018029888</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>990677.2140029888</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>888568.0665029888</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>888652.8392029888</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>941344.1177029888</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>941344.1177029888</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>956799.1177029888</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>956799.1177029888</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>947270.8745029888</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>939686.5412029887</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>970075.1161029887</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>999663.6911029887</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>992888.6911029887</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1016031.115802989</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1016031.115802989</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>670494.6077029888</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>668497.6077029888</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>579540.6077029888</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>621717.8397029887</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3850,11 +3850,17 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +3893,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3926,17 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,15 +3965,17 @@
         <v>384158.2500029886</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>19.9</v>
       </c>
-      <c r="J108" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,17 +4004,13 @@
         <v>386557.2500029886</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="J109" t="n">
-        <v>19.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4027,17 +4041,13 @@
         <v>358381.2500029886</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J110" t="n">
-        <v>19.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4071,9 +4081,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,9 +4118,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4149,9 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,9 +4192,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,9 +4229,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4266,9 +4266,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4305,9 +4303,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,14 +4337,10 @@
         <v>399681.7218029886</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>19.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4385,9 +4377,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4424,9 +4414,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,12 +4448,12 @@
         <v>408299.7218029886</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>19.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,9 +4490,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4541,9 +4527,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,9 +4564,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,12 +4598,12 @@
         <v>399931.0839029886</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>19.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,14 +4637,10 @@
         <v>438714.5964029887</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>19.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4699,9 +4677,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4738,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,12 +4748,12 @@
         <v>442942.7828029887</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>19.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4816,9 +4790,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,12 +4824,12 @@
         <v>332438.3934029887</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>19.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,14 +4863,12 @@
         <v>339558.3934029887</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>19.8</v>
       </c>
-      <c r="J132" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,14 +4902,12 @@
         <v>383001.3934029887</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>20.5</v>
       </c>
-      <c r="J133" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,14 +4941,12 @@
         <v>385028.0869029887</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>20.6</v>
       </c>
-      <c r="J134" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,14 +4980,12 @@
         <v>78905.03120298864</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>20.9</v>
       </c>
-      <c r="J135" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5058,9 +5022,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,9 +5059,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5136,9 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,9 +5133,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5214,9 +5170,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5253,9 +5207,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,9 +5244,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,9 +5281,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,9 +5318,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5409,9 +5355,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,23 +5389,19 @@
         <v>202379.8256029886</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.090477386934674</v>
-      </c>
-      <c r="M146" t="n">
-        <v>1.155440414507772</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5490,7 +5430,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5523,7 +5467,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5556,7 +5504,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5589,7 +5541,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5622,7 +5578,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5655,7 +5615,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5688,7 +5652,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5721,7 +5689,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5754,7 +5726,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5787,7 +5763,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5820,7 +5800,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5833,17 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5886,7 +5876,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5919,7 +5913,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +5946,17 @@
         <v>128802.7302029886</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>20.9</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5985,7 +5989,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6018,7 +6026,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6051,7 +6063,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6084,7 +6100,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6117,7 +6137,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6150,7 +6174,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6183,7 +6211,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6216,7 +6248,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6249,7 +6285,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6282,7 +6322,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6315,7 +6359,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6348,7 +6396,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6381,7 +6433,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6414,7 +6470,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6447,7 +6507,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6480,7 +6544,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6509,11 +6577,17 @@
         <v>74395.71220298862</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6542,11 +6616,17 @@
         <v>72395.71220298862</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6579,7 +6659,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6608,11 +6692,17 @@
         <v>70901.67850298862</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6645,7 +6735,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6678,7 +6772,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6711,7 +6809,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6744,7 +6846,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6777,7 +6883,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6810,7 +6920,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6843,7 +6957,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6876,7 +6994,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6909,7 +7031,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6938,11 +7064,17 @@
         <v>73200.41007810383</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>21</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6975,7 +7107,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7004,17 +7140,21 @@
         <v>73200.41007810383</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
       <c r="M193" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>728509.5785454547</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>920236.9116454546</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>999869.2059029888</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>802513.6018029888</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>990677.2140029888</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>888568.0665029888</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>888652.8392029888</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>941344.1177029888</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>941344.1177029888</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>956799.1177029888</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>956799.1177029888</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>947270.8745029888</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>939686.5412029887</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>970075.1161029887</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>999663.6911029887</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>992888.6911029887</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1016031.115802989</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>670494.6077029888</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>668497.6077029888</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>579540.6077029888</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3850,3268 +3850,2888 @@
         <v>379778.2500029886</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20</v>
+      </c>
+      <c r="C106" t="n">
         <v>19.9</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+      <c r="D106" t="n">
+        <v>20</v>
+      </c>
+      <c r="E106" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13483.6479</v>
+      </c>
+      <c r="G106" t="n">
+        <v>379778.2500029886</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>63595.781</v>
+      </c>
+      <c r="G107" t="n">
+        <v>379778.2500029886</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4380</v>
+      </c>
+      <c r="G108" t="n">
+        <v>384158.2500029886</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2399</v>
+      </c>
+      <c r="G109" t="n">
+        <v>386557.2500029886</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>28176</v>
+      </c>
+      <c r="G110" t="n">
+        <v>358381.2500029886</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2230.1415</v>
+      </c>
+      <c r="G111" t="n">
+        <v>360611.3915029886</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6324.3303</v>
+      </c>
+      <c r="G112" t="n">
+        <v>366935.7218029886</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>26746</v>
+      </c>
+      <c r="G113" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>216624.439</v>
+      </c>
+      <c r="G114" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>29419.9285</v>
+      </c>
+      <c r="G115" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>400.7804</v>
+      </c>
+      <c r="G116" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G117" t="n">
+        <v>393681.7218029886</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>399681.7218029886</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>399681.7218029886</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8618</v>
+      </c>
+      <c r="G120" t="n">
+        <v>408299.7218029886</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10589.3393</v>
+      </c>
+      <c r="G121" t="n">
+        <v>408299.7218029886</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2352</v>
+      </c>
+      <c r="G122" t="n">
+        <v>405947.7218029886</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>9621.8285</v>
+      </c>
+      <c r="G123" t="n">
+        <v>405947.7218029886</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6016.6379</v>
+      </c>
+      <c r="G124" t="n">
+        <v>399931.0839029886</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3166.0615</v>
+      </c>
+      <c r="G125" t="n">
+        <v>399931.0839029886</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>38783.5125</v>
+      </c>
+      <c r="G126" t="n">
+        <v>438714.5964029887</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3205</v>
+      </c>
+      <c r="G127" t="n">
+        <v>435509.5964029887</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7475</v>
+      </c>
+      <c r="G128" t="n">
+        <v>442984.5964029887</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>41.8136</v>
+      </c>
+      <c r="G129" t="n">
+        <v>442942.7828029887</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>471.4101</v>
+      </c>
+      <c r="G130" t="n">
+        <v>442942.7828029887</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>110504.3894</v>
+      </c>
+      <c r="G131" t="n">
+        <v>332438.3934029887</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7120</v>
+      </c>
+      <c r="G132" t="n">
+        <v>339558.3934029887</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>43443</v>
+      </c>
+      <c r="G133" t="n">
+        <v>383001.3934029887</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2026.6935</v>
+      </c>
+      <c r="G134" t="n">
+        <v>385028.0869029887</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>306123.0557</v>
+      </c>
+      <c r="G135" t="n">
+        <v>78905.03120298864</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>207579</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-128673.9687970114</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>37200</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-128673.9687970114</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>140131.2077</v>
+      </c>
+      <c r="G138" t="n">
+        <v>11457.23890298864</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>41178.6323</v>
+      </c>
+      <c r="G139" t="n">
+        <v>52635.87120298864</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>146295</v>
+      </c>
+      <c r="G140" t="n">
+        <v>198930.8712029886</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22</v>
+      </c>
+      <c r="C141" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22</v>
+      </c>
+      <c r="E141" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>192930.8712029886</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>22</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9523</v>
+      </c>
+      <c r="G142" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>22</v>
+      </c>
+      <c r="C143" t="n">
+        <v>22</v>
+      </c>
+      <c r="D143" t="n">
+        <v>22</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>30096.1136</v>
+      </c>
+      <c r="G143" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>22</v>
+      </c>
+      <c r="C144" t="n">
+        <v>22</v>
+      </c>
+      <c r="D144" t="n">
+        <v>22</v>
+      </c>
+      <c r="E144" t="n">
+        <v>22</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>22</v>
+      </c>
+      <c r="C145" t="n">
+        <v>22</v>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="n">
+        <v>22</v>
+      </c>
+      <c r="F145" t="n">
+        <v>336</v>
+      </c>
+      <c r="G145" t="n">
+        <v>202453.8712029886</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>74.04559999999999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>202379.8256029886</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>22</v>
+      </c>
+      <c r="C147" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>22</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>206379.8256029886</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2263</v>
+      </c>
+      <c r="G148" t="n">
+        <v>206379.8256029886</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>56924.8648</v>
+      </c>
+      <c r="G149" t="n">
+        <v>206379.8256029886</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>56782.5526</v>
+      </c>
+      <c r="G150" t="n">
+        <v>149597.2730029886</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>40024.5235</v>
+      </c>
+      <c r="G151" t="n">
+        <v>149597.2730029886</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>26462.3447</v>
+      </c>
+      <c r="G152" t="n">
+        <v>149597.2730029886</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4224.8864</v>
+      </c>
+      <c r="G153" t="n">
+        <v>145372.3866029886</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E154" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4700</v>
+      </c>
+      <c r="G154" t="n">
+        <v>140672.3866029886</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>14211.4327</v>
+      </c>
+      <c r="G155" t="n">
+        <v>140672.3866029886</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>37515.2335</v>
+      </c>
+      <c r="G156" t="n">
+        <v>103157.1531029886</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6572.0297</v>
+      </c>
+      <c r="G157" t="n">
+        <v>109729.1828029886</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15073.5474</v>
+      </c>
+      <c r="G158" t="n">
+        <v>124802.7302029886</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F159" t="n">
+        <v>956.937</v>
+      </c>
+      <c r="G159" t="n">
+        <v>124802.7302029886</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2614</v>
+      </c>
+      <c r="G160" t="n">
+        <v>124802.7302029886</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>128802.7302029886</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>144</v>
+      </c>
+      <c r="G162" t="n">
+        <v>128658.7302029886</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>21</v>
+      </c>
+      <c r="C163" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>21</v>
+      </c>
+      <c r="F163" t="n">
+        <v>16009</v>
+      </c>
+      <c r="G163" t="n">
+        <v>144667.7302029886</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>21</v>
+      </c>
+      <c r="C164" t="n">
+        <v>21</v>
+      </c>
+      <c r="D164" t="n">
+        <v>21</v>
+      </c>
+      <c r="E164" t="n">
+        <v>21</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8601</v>
+      </c>
+      <c r="G164" t="n">
+        <v>136066.7302029886</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>21</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>21</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G165" t="n">
+        <v>137466.7302029886</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>33375</v>
+      </c>
+      <c r="G166" t="n">
+        <v>137466.7302029886</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3991.3482</v>
+      </c>
+      <c r="G167" t="n">
+        <v>141458.0784029886</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>33052.092</v>
+      </c>
+      <c r="G168" t="n">
+        <v>108405.9864029886</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>22276</v>
+      </c>
+      <c r="G169" t="n">
+        <v>86129.98640298864</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>89129.98640298864</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5486.1003</v>
+      </c>
+      <c r="G171" t="n">
+        <v>83643.88610298863</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3723.8059</v>
+      </c>
+      <c r="G172" t="n">
+        <v>87367.69200298864</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1951.2204</v>
+      </c>
+      <c r="G173" t="n">
+        <v>85416.47160298863</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E174" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9404</v>
+      </c>
+      <c r="G174" t="n">
+        <v>94820.47160298863</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>551.0328</v>
+      </c>
+      <c r="G175" t="n">
+        <v>94820.47160298863</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>21</v>
+      </c>
+      <c r="C176" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>21</v>
+      </c>
+      <c r="E176" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>48626.6673</v>
+      </c>
+      <c r="G176" t="n">
+        <v>46193.80430298863</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5160.174</v>
+      </c>
+      <c r="G177" t="n">
+        <v>51353.97830298863</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23041.7339</v>
+      </c>
+      <c r="G178" t="n">
+        <v>74395.71220298862</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>72395.71220298862</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10994.0337</v>
+      </c>
+      <c r="G180" t="n">
+        <v>61401.67850298862</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G181" t="n">
+        <v>70901.67850298862</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>83</v>
+      </c>
+      <c r="G183" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E184" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>11</v>
+      </c>
+      <c r="G184" t="n">
+        <v>68901.67850298862</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>662</v>
+      </c>
+      <c r="G185" t="n">
+        <v>69563.67850298862</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>73563.67850298862</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>14915.8796</v>
+      </c>
+      <c r="G187" t="n">
+        <v>58647.79890298862</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>666.9861751152074</v>
+      </c>
+      <c r="G188" t="n">
+        <v>59314.78507810383</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F189" t="n">
+        <v>91.61290322580645</v>
+      </c>
+      <c r="G189" t="n">
+        <v>59314.78507810383</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>21</v>
+      </c>
+      <c r="C190" t="n">
+        <v>21</v>
+      </c>
+      <c r="D190" t="n">
+        <v>21</v>
+      </c>
+      <c r="E190" t="n">
+        <v>21</v>
+      </c>
+      <c r="F190" t="n">
+        <v>114.375</v>
+      </c>
+      <c r="G190" t="n">
+        <v>59200.41007810383</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D192" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>73200.41007810383</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>20</v>
-      </c>
-      <c r="C106" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D106" t="n">
-        <v>20</v>
-      </c>
-      <c r="E106" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F106" t="n">
-        <v>13483.6479</v>
-      </c>
-      <c r="G106" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="C107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>63595.781</v>
-      </c>
-      <c r="G107" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>4380</v>
-      </c>
-      <c r="G108" t="n">
-        <v>384158.2500029886</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D109" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E109" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2399</v>
-      </c>
-      <c r="G109" t="n">
-        <v>386557.2500029886</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="D110" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E110" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F110" t="n">
-        <v>28176</v>
-      </c>
-      <c r="G110" t="n">
-        <v>358381.2500029886</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E111" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2230.1415</v>
-      </c>
-      <c r="G111" t="n">
-        <v>360611.3915029886</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="C112" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>6324.3303</v>
-      </c>
-      <c r="G112" t="n">
-        <v>366935.7218029886</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>26746</v>
-      </c>
-      <c r="G113" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>216624.439</v>
-      </c>
-      <c r="G114" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>29419.9285</v>
-      </c>
-      <c r="G115" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E116" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>400.7804</v>
-      </c>
-      <c r="G116" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E117" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1292</v>
-      </c>
-      <c r="G117" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F118" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>399681.7218029886</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E119" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G119" t="n">
-        <v>399681.7218029886</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C120" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F120" t="n">
-        <v>8618</v>
-      </c>
-      <c r="G120" t="n">
-        <v>408299.7218029886</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10589.3393</v>
-      </c>
-      <c r="G121" t="n">
-        <v>408299.7218029886</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2352</v>
-      </c>
-      <c r="G122" t="n">
-        <v>405947.7218029886</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E123" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F123" t="n">
-        <v>9621.8285</v>
-      </c>
-      <c r="G123" t="n">
-        <v>405947.7218029886</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6016.6379</v>
-      </c>
-      <c r="G124" t="n">
-        <v>399931.0839029886</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3166.0615</v>
-      </c>
-      <c r="G125" t="n">
-        <v>399931.0839029886</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C126" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>38783.5125</v>
-      </c>
-      <c r="G126" t="n">
-        <v>438714.5964029887</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3205</v>
-      </c>
-      <c r="G127" t="n">
-        <v>435509.5964029887</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C128" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E128" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7475</v>
-      </c>
-      <c r="G128" t="n">
-        <v>442984.5964029887</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F129" t="n">
-        <v>41.8136</v>
-      </c>
-      <c r="G129" t="n">
-        <v>442942.7828029887</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="D130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>471.4101</v>
-      </c>
-      <c r="G130" t="n">
-        <v>442942.7828029887</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>110504.3894</v>
-      </c>
-      <c r="G131" t="n">
-        <v>332438.3934029887</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7120</v>
-      </c>
-      <c r="G132" t="n">
-        <v>339558.3934029887</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>43443</v>
-      </c>
-      <c r="G133" t="n">
-        <v>383001.3934029887</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D134" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2026.6935</v>
-      </c>
-      <c r="G134" t="n">
-        <v>385028.0869029887</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D135" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>306123.0557</v>
-      </c>
-      <c r="G135" t="n">
-        <v>78905.03120298864</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F136" t="n">
-        <v>207579</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-128673.9687970114</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F137" t="n">
-        <v>37200</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-128673.9687970114</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>140131.2077</v>
-      </c>
-      <c r="G138" t="n">
-        <v>11457.23890298864</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>41178.6323</v>
-      </c>
-      <c r="G139" t="n">
-        <v>52635.87120298864</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D140" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>146295</v>
-      </c>
-      <c r="G140" t="n">
-        <v>198930.8712029886</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>22</v>
-      </c>
-      <c r="C141" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D141" t="n">
-        <v>22</v>
-      </c>
-      <c r="E141" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>192930.8712029886</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>22</v>
-      </c>
-      <c r="D142" t="n">
-        <v>22</v>
-      </c>
-      <c r="E142" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>9523</v>
-      </c>
-      <c r="G142" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>22</v>
-      </c>
-      <c r="C143" t="n">
-        <v>22</v>
-      </c>
-      <c r="D143" t="n">
-        <v>22</v>
-      </c>
-      <c r="E143" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>30096.1136</v>
-      </c>
-      <c r="G143" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>22</v>
-      </c>
-      <c r="C144" t="n">
-        <v>22</v>
-      </c>
-      <c r="D144" t="n">
-        <v>22</v>
-      </c>
-      <c r="E144" t="n">
-        <v>22</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>22</v>
-      </c>
-      <c r="C145" t="n">
-        <v>22</v>
-      </c>
-      <c r="D145" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" t="n">
-        <v>22</v>
-      </c>
-      <c r="F145" t="n">
-        <v>336</v>
-      </c>
-      <c r="G145" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="D146" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>74.04559999999999</v>
-      </c>
-      <c r="G146" t="n">
-        <v>202379.8256029886</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>22</v>
-      </c>
-      <c r="C147" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>22</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G147" t="n">
-        <v>206379.8256029886</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2263</v>
-      </c>
-      <c r="G148" t="n">
-        <v>206379.8256029886</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>56924.8648</v>
-      </c>
-      <c r="G149" t="n">
-        <v>206379.8256029886</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>56782.5526</v>
-      </c>
-      <c r="G150" t="n">
-        <v>149597.2730029886</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E151" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>40024.5235</v>
-      </c>
-      <c r="G151" t="n">
-        <v>149597.2730029886</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C152" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>26462.3447</v>
-      </c>
-      <c r="G152" t="n">
-        <v>149597.2730029886</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>4224.8864</v>
-      </c>
-      <c r="G153" t="n">
-        <v>145372.3866029886</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C154" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D154" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E154" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4700</v>
-      </c>
-      <c r="G154" t="n">
-        <v>140672.3866029886</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C155" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D155" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E155" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F155" t="n">
-        <v>14211.4327</v>
-      </c>
-      <c r="G155" t="n">
-        <v>140672.3866029886</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C156" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E156" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>37515.2335</v>
-      </c>
-      <c r="G156" t="n">
-        <v>103157.1531029886</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C157" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D157" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E157" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F157" t="n">
-        <v>6572.0297</v>
-      </c>
-      <c r="G157" t="n">
-        <v>109729.1828029886</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D158" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E158" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>15073.5474</v>
-      </c>
-      <c r="G158" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C159" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F159" t="n">
-        <v>956.937</v>
-      </c>
-      <c r="G159" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C160" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2614</v>
-      </c>
-      <c r="G160" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D161" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E161" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>128802.7302029886</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>144</v>
-      </c>
-      <c r="G162" t="n">
-        <v>128658.7302029886</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>21</v>
-      </c>
-      <c r="C163" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D163" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E163" t="n">
-        <v>21</v>
-      </c>
-      <c r="F163" t="n">
-        <v>16009</v>
-      </c>
-      <c r="G163" t="n">
-        <v>144667.7302029886</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>21</v>
-      </c>
-      <c r="C164" t="n">
-        <v>21</v>
-      </c>
-      <c r="D164" t="n">
-        <v>21</v>
-      </c>
-      <c r="E164" t="n">
-        <v>21</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8601</v>
-      </c>
-      <c r="G164" t="n">
-        <v>136066.7302029886</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>21</v>
-      </c>
-      <c r="C165" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E165" t="n">
-        <v>21</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1400</v>
-      </c>
-      <c r="G165" t="n">
-        <v>137466.7302029886</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>33375</v>
-      </c>
-      <c r="G166" t="n">
-        <v>137466.7302029886</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C167" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D167" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E167" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3991.3482</v>
-      </c>
-      <c r="G167" t="n">
-        <v>141458.0784029886</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C168" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D168" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E168" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F168" t="n">
-        <v>33052.092</v>
-      </c>
-      <c r="G168" t="n">
-        <v>108405.9864029886</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C169" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E169" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="F169" t="n">
-        <v>22276</v>
-      </c>
-      <c r="G169" t="n">
-        <v>86129.98640298864</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C170" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D170" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E170" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F170" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G170" t="n">
-        <v>89129.98640298864</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C171" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D171" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E171" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5486.1003</v>
-      </c>
-      <c r="G171" t="n">
-        <v>83643.88610298863</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D172" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E172" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3723.8059</v>
-      </c>
-      <c r="G172" t="n">
-        <v>87367.69200298864</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C173" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D173" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E173" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1951.2204</v>
-      </c>
-      <c r="G173" t="n">
-        <v>85416.47160298863</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C174" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D174" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F174" t="n">
-        <v>9404</v>
-      </c>
-      <c r="G174" t="n">
-        <v>94820.47160298863</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D175" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F175" t="n">
-        <v>551.0328</v>
-      </c>
-      <c r="G175" t="n">
-        <v>94820.47160298863</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>21</v>
-      </c>
-      <c r="C176" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>21</v>
-      </c>
-      <c r="E176" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="F176" t="n">
-        <v>48626.6673</v>
-      </c>
-      <c r="G176" t="n">
-        <v>46193.80430298863</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C177" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="D177" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E177" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F177" t="n">
-        <v>5160.174</v>
-      </c>
-      <c r="G177" t="n">
-        <v>51353.97830298863</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C178" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D178" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="F178" t="n">
-        <v>23041.7339</v>
-      </c>
-      <c r="G178" t="n">
-        <v>74395.71220298862</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C179" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="D179" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E179" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G179" t="n">
-        <v>72395.71220298862</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C180" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="D180" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="E180" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F180" t="n">
-        <v>10994.0337</v>
-      </c>
-      <c r="G180" t="n">
-        <v>61401.67850298862</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="C181" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D181" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E181" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F181" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G181" t="n">
-        <v>70901.67850298862</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C182" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D182" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E182" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G182" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C183" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D183" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E183" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>83</v>
-      </c>
-      <c r="G183" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C184" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="D184" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="E184" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F184" t="n">
-        <v>11</v>
-      </c>
-      <c r="G184" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="C185" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D185" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F185" t="n">
-        <v>662</v>
-      </c>
-      <c r="G185" t="n">
-        <v>69563.67850298862</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="C186" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D186" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E186" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>73563.67850298862</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C187" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="D187" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E187" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F187" t="n">
-        <v>14915.8796</v>
-      </c>
-      <c r="G187" t="n">
-        <v>58647.79890298862</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D188" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E188" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="F188" t="n">
-        <v>666.9861751152074</v>
-      </c>
-      <c r="G188" t="n">
-        <v>59314.78507810383</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="C189" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="D189" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E189" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F189" t="n">
-        <v>91.61290322580645</v>
-      </c>
-      <c r="G189" t="n">
-        <v>59314.78507810383</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>21</v>
-      </c>
-      <c r="C190" t="n">
-        <v>21</v>
-      </c>
-      <c r="D190" t="n">
-        <v>21</v>
-      </c>
-      <c r="E190" t="n">
-        <v>21</v>
-      </c>
-      <c r="F190" t="n">
-        <v>114.375</v>
-      </c>
-      <c r="G190" t="n">
-        <v>59200.41007810383</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="C191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E191" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F191" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>21</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="C192" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="D192" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="E192" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F192" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G192" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7140,9 +6760,11 @@
         <v>73200.41007810383</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7155,6 +6777,6 @@
       <c r="M193" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -880,7 +880,7 @@
         <v>405427.5478454547</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>223045.8376454547</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>728509.5785454547</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>694580.5670454546</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1151880.145202989</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>999869.2059029888</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>956799.1177029888</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>947270.8745029888</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>939686.5412029887</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>970075.1161029887</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1020025.115802989</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -4741,10 +4741,14 @@
         <v>339558.3934029887</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="J132" t="n">
+        <v>19.8</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4777,8 +4781,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5104,7 +5120,7 @@
         <v>202453.8712029886</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5269,7 +5285,7 @@
         <v>206379.8256029886</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5500,11 +5516,17 @@
         <v>140672.3866029886</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5555,17 @@
         <v>103157.1531029886</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5594,17 @@
         <v>109729.1828029886</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5633,17 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5672,17 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>20.9</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5711,17 @@
         <v>124802.7302029886</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>20.9</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5750,17 @@
         <v>128802.7302029886</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>20.9</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5789,17 @@
         <v>128658.7302029886</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5828,17 @@
         <v>144667.7302029886</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>20.5</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5867,17 @@
         <v>136066.7302029886</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5906,17 @@
         <v>137466.7302029886</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>21</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5945,15 @@
         <v>137466.7302029886</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5982,17 @@
         <v>141458.0784029886</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6021,15 @@
         <v>108405.9864029886</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6058,17 @@
         <v>86129.98640298864</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>21.2</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6097,17 @@
         <v>89129.98640298864</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>21.1</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6136,17 @@
         <v>83643.88610298863</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>21.4</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6179,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6216,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6253,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6290,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6327,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6360,17 @@
         <v>51353.97830298863</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>20.6</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6399,17 @@
         <v>74395.71220298862</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>20.7</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6438,17 @@
         <v>72395.71220298862</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>21.3</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6477,17 @@
         <v>61401.67850298862</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>21.2</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6516,17 @@
         <v>70901.67850298862</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>20.8</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6555,17 @@
         <v>68901.67850298862</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>21.5</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6594,17 @@
         <v>68901.67850298862</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>21.4</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6633,17 @@
         <v>68901.67850298862</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>21.4</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6672,17 @@
         <v>69563.67850298862</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>21.4</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6715,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6752,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6789,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6822,17 @@
         <v>59314.78507810383</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>21.7</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6861,17 @@
         <v>59200.41007810383</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>21.7</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6900,17 @@
         <v>73200.41007810383</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>21</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6729,7 +6947,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">

--- a/BackTest/2019-10-26 BackTest OGO.xlsx
+++ b/BackTest/2019-10-26 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>493851.6156</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>493851.6156</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6846.0267</v>
       </c>
       <c r="G4" t="n">
-        <v>493851.6156</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>104.1935</v>
       </c>
       <c r="G5" t="n">
-        <v>493851.6156</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>19483.0232</v>
       </c>
       <c r="G6" t="n">
-        <v>474368.5924</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>75261.3444</v>
       </c>
       <c r="G7" t="n">
-        <v>549629.9368</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>128106.2141</v>
       </c>
       <c r="G8" t="n">
-        <v>421523.7227</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>33264.288</v>
       </c>
       <c r="G9" t="n">
-        <v>454788.0107</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>69197.67660000001</v>
       </c>
       <c r="G10" t="n">
-        <v>523985.6873</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>187407.0120272727</v>
       </c>
       <c r="G11" t="n">
-        <v>336578.6752727274</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>93076.6991</v>
       </c>
       <c r="G12" t="n">
-        <v>429655.3743727274</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>57543.6089</v>
       </c>
       <c r="G13" t="n">
-        <v>372111.7654727274</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>201057.8640727273</v>
       </c>
       <c r="G14" t="n">
-        <v>573169.6295454546</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>167742.0817</v>
       </c>
       <c r="G15" t="n">
-        <v>405427.5478454547</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>182381.7102</v>
       </c>
       <c r="G16" t="n">
-        <v>223045.8376454547</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>305223.3417</v>
       </c>
       <c r="G17" t="n">
-        <v>528269.1793454547</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>200240.3992</v>
       </c>
       <c r="G18" t="n">
-        <v>728509.5785454547</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>33929.0115</v>
       </c>
       <c r="G19" t="n">
-        <v>694580.5670454546</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>10000</v>
       </c>
       <c r="G20" t="n">
-        <v>694580.5670454546</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>225656.3446</v>
       </c>
       <c r="G21" t="n">
-        <v>920236.9116454546</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>231643.2335575343</v>
       </c>
       <c r="G22" t="n">
-        <v>1151880.145202989</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>203226.1614</v>
       </c>
       <c r="G23" t="n">
-        <v>1151880.145202989</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>152010.9393</v>
       </c>
       <c r="G24" t="n">
-        <v>999869.2059029888</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>197355.6041</v>
       </c>
       <c r="G25" t="n">
-        <v>802513.6018029888</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>188163.6122</v>
       </c>
       <c r="G26" t="n">
-        <v>990677.2140029888</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>102109.1475</v>
       </c>
       <c r="G27" t="n">
-        <v>888568.0665029888</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>84.7727</v>
       </c>
       <c r="G28" t="n">
-        <v>888652.8392029888</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>52691.2785</v>
       </c>
       <c r="G29" t="n">
-        <v>941344.1177029888</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2000</v>
       </c>
       <c r="G30" t="n">
-        <v>941344.1177029888</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>15455</v>
       </c>
       <c r="G31" t="n">
-        <v>956799.1177029888</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>15240</v>
       </c>
       <c r="G32" t="n">
-        <v>956799.1177029888</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>9528.243200000001</v>
       </c>
       <c r="G33" t="n">
-        <v>947270.8745029888</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>7584.3333</v>
       </c>
       <c r="G34" t="n">
-        <v>939686.5412029887</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>30388.5749</v>
       </c>
       <c r="G35" t="n">
-        <v>970075.1161029887</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>29588.575</v>
       </c>
       <c r="G36" t="n">
-        <v>999663.6911029887</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>6775</v>
       </c>
       <c r="G37" t="n">
-        <v>992888.6911029887</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>23142.4247</v>
       </c>
       <c r="G38" t="n">
-        <v>1016031.115802989</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>13610.8207</v>
       </c>
       <c r="G39" t="n">
-        <v>1016031.115802989</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>5590</v>
       </c>
       <c r="G40" t="n">
-        <v>1021621.115802989</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1596</v>
       </c>
       <c r="G41" t="n">
-        <v>1020025.115802989</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>6000</v>
       </c>
       <c r="G42" t="n">
-        <v>1020025.115802989</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>37480</v>
       </c>
       <c r="G43" t="n">
-        <v>1020025.115802989</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>13171.3682</v>
       </c>
       <c r="G44" t="n">
-        <v>1033196.484002989</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>22233.1606</v>
       </c>
       <c r="G45" t="n">
-        <v>1010963.323402989</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>15694.9078</v>
       </c>
       <c r="G46" t="n">
-        <v>1010963.323402989</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>4000</v>
       </c>
       <c r="G47" t="n">
-        <v>1010963.323402989</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>31748</v>
       </c>
       <c r="G48" t="n">
-        <v>979215.3234029887</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>252134.3284</v>
       </c>
       <c r="G49" t="n">
-        <v>727080.9950029887</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>32308</v>
       </c>
       <c r="G50" t="n">
-        <v>759388.9950029887</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>800</v>
       </c>
       <c r="G51" t="n">
-        <v>760188.9950029887</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1442</v>
       </c>
       <c r="G52" t="n">
-        <v>761630.9950029887</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1442</v>
       </c>
       <c r="G53" t="n">
-        <v>763072.9950029887</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>5940</v>
       </c>
       <c r="G54" t="n">
-        <v>763072.9950029887</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4672.4523</v>
       </c>
       <c r="G55" t="n">
-        <v>767745.4473029887</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>8648</v>
       </c>
       <c r="G56" t="n">
-        <v>767745.4473029887</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>97321</v>
       </c>
       <c r="G57" t="n">
-        <v>670424.4473029887</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>71</v>
       </c>
       <c r="G58" t="n">
-        <v>670495.4473029887</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>0.8396</v>
       </c>
       <c r="G59" t="n">
-        <v>670494.6077029888</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1997</v>
       </c>
       <c r="G60" t="n">
-        <v>668497.6077029888</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>88957</v>
       </c>
       <c r="G61" t="n">
-        <v>579540.6077029888</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>6835</v>
       </c>
       <c r="G62" t="n">
-        <v>586375.6077029888</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>300</v>
       </c>
       <c r="G63" t="n">
-        <v>586675.6077029888</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>64</v>
       </c>
       <c r="G64" t="n">
-        <v>586675.6077029888</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10376</v>
       </c>
       <c r="G65" t="n">
-        <v>597051.6077029888</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>31190.232</v>
       </c>
       <c r="G66" t="n">
-        <v>628241.8397029887</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>524</v>
       </c>
       <c r="G67" t="n">
-        <v>627717.8397029887</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1436.784</v>
       </c>
       <c r="G68" t="n">
-        <v>627717.8397029887</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>6000</v>
       </c>
       <c r="G69" t="n">
-        <v>621717.8397029887</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>4000</v>
       </c>
       <c r="G70" t="n">
-        <v>621717.8397029887</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,21 @@
         <v>5576.4681</v>
       </c>
       <c r="G71" t="n">
-        <v>616141.3716029887</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2549,19 @@
         <v>4000</v>
       </c>
       <c r="G72" t="n">
-        <v>620141.3716029887</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2583,19 @@
         <v>17.2376</v>
       </c>
       <c r="G73" t="n">
-        <v>620141.3716029887</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2617,19 @@
         <v>19969.7249</v>
       </c>
       <c r="G74" t="n">
-        <v>640111.0965029887</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2651,19 @@
         <v>29805</v>
       </c>
       <c r="G75" t="n">
-        <v>610306.0965029887</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2685,19 @@
         <v>2000</v>
       </c>
       <c r="G76" t="n">
-        <v>612306.0965029887</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2719,19 @@
         <v>4000</v>
       </c>
       <c r="G77" t="n">
-        <v>612306.0965029887</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2753,19 @@
         <v>4000</v>
       </c>
       <c r="G78" t="n">
-        <v>608306.0965029887</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2787,19 @@
         <v>4367.1142</v>
       </c>
       <c r="G79" t="n">
-        <v>612673.2107029887</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2821,19 @@
         <v>5589.8198</v>
       </c>
       <c r="G80" t="n">
-        <v>612673.2107029887</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2855,19 @@
         <v>16744.0653</v>
       </c>
       <c r="G81" t="n">
-        <v>612673.2107029887</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2889,19 @@
         <v>13727.0653</v>
       </c>
       <c r="G82" t="n">
-        <v>626400.2760029887</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2923,19 @@
         <v>24587.1797</v>
       </c>
       <c r="G83" t="n">
-        <v>601813.0963029887</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2957,19 @@
         <v>39.1133</v>
       </c>
       <c r="G84" t="n">
-        <v>601852.2096029887</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2991,19 @@
         <v>760.8867</v>
       </c>
       <c r="G85" t="n">
-        <v>601852.2096029887</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3025,19 @@
         <v>50524.5597</v>
       </c>
       <c r="G86" t="n">
-        <v>652376.7693029887</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3059,19 @@
         <v>12000</v>
       </c>
       <c r="G87" t="n">
-        <v>640376.7693029887</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3093,19 @@
         <v>58974.0881</v>
       </c>
       <c r="G88" t="n">
-        <v>581402.6812029886</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3127,19 @@
         <v>18131.7073</v>
       </c>
       <c r="G89" t="n">
-        <v>599534.3885029886</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3161,19 @@
         <v>6000</v>
       </c>
       <c r="G90" t="n">
-        <v>593534.3885029886</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3195,19 @@
         <v>46691.2785</v>
       </c>
       <c r="G91" t="n">
-        <v>546843.1100029886</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3229,19 @@
         <v>8305</v>
       </c>
       <c r="G92" t="n">
-        <v>555148.1100029886</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3263,19 @@
         <v>7744.596</v>
       </c>
       <c r="G93" t="n">
-        <v>547403.5140029886</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3297,19 @@
         <v>66168</v>
       </c>
       <c r="G94" t="n">
-        <v>613571.5140029886</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3331,19 @@
         <v>800</v>
       </c>
       <c r="G95" t="n">
-        <v>612771.5140029886</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3365,19 @@
         <v>800</v>
       </c>
       <c r="G96" t="n">
-        <v>613571.5140029886</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3399,19 @@
         <v>1400</v>
       </c>
       <c r="G97" t="n">
-        <v>614971.5140029886</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3433,19 @@
         <v>5879</v>
       </c>
       <c r="G98" t="n">
-        <v>609092.5140029886</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3467,19 @@
         <v>800</v>
       </c>
       <c r="G99" t="n">
-        <v>608292.5140029886</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3501,19 @@
         <v>156024.6623</v>
       </c>
       <c r="G100" t="n">
-        <v>452267.8517029886</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3535,19 @@
         <v>121884.2817</v>
       </c>
       <c r="G101" t="n">
-        <v>452267.8517029886</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3569,19 @@
         <v>1444.4776</v>
       </c>
       <c r="G102" t="n">
-        <v>453712.3293029886</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3603,19 @@
         <v>73934.0793</v>
       </c>
       <c r="G103" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3637,19 @@
         <v>85525.5095</v>
       </c>
       <c r="G104" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3671,19 @@
         <v>17200.7938</v>
       </c>
       <c r="G105" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3705,19 @@
         <v>13483.6479</v>
       </c>
       <c r="G106" t="n">
-        <v>379778.2500029886</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3739,21 @@
         <v>63595.781</v>
       </c>
       <c r="G107" t="n">
-        <v>379778.2500029886</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3775,21 @@
         <v>4380</v>
       </c>
       <c r="G108" t="n">
-        <v>384158.2500029886</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3811,21 @@
         <v>2399</v>
       </c>
       <c r="G109" t="n">
-        <v>386557.2500029886</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3847,19 @@
         <v>28176</v>
       </c>
       <c r="G110" t="n">
-        <v>358381.2500029886</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3881,19 @@
         <v>2230.1415</v>
       </c>
       <c r="G111" t="n">
-        <v>360611.3915029886</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3915,19 @@
         <v>6324.3303</v>
       </c>
       <c r="G112" t="n">
-        <v>366935.7218029886</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3949,19 @@
         <v>26746</v>
       </c>
       <c r="G113" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3983,19 @@
         <v>216624.439</v>
       </c>
       <c r="G114" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4017,19 @@
         <v>29419.9285</v>
       </c>
       <c r="G115" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4051,19 @@
         <v>400.7804</v>
       </c>
       <c r="G116" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4085,19 @@
         <v>1292</v>
       </c>
       <c r="G117" t="n">
-        <v>393681.7218029886</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4119,19 @@
         <v>6000</v>
       </c>
       <c r="G118" t="n">
-        <v>399681.7218029886</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4153,19 @@
         <v>2000</v>
       </c>
       <c r="G119" t="n">
-        <v>399681.7218029886</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4187,19 @@
         <v>8618</v>
       </c>
       <c r="G120" t="n">
-        <v>408299.7218029886</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4221,19 @@
         <v>10589.3393</v>
       </c>
       <c r="G121" t="n">
-        <v>408299.7218029886</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4255,19 @@
         <v>2352</v>
       </c>
       <c r="G122" t="n">
-        <v>405947.7218029886</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4289,19 @@
         <v>9621.8285</v>
       </c>
       <c r="G123" t="n">
-        <v>405947.7218029886</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4323,19 @@
         <v>6016.6379</v>
       </c>
       <c r="G124" t="n">
-        <v>399931.0839029886</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4357,19 @@
         <v>3166.0615</v>
       </c>
       <c r="G125" t="n">
-        <v>399931.0839029886</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4391,19 @@
         <v>38783.5125</v>
       </c>
       <c r="G126" t="n">
-        <v>438714.5964029887</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4425,19 @@
         <v>3205</v>
       </c>
       <c r="G127" t="n">
-        <v>435509.5964029887</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4459,19 @@
         <v>7475</v>
       </c>
       <c r="G128" t="n">
-        <v>442984.5964029887</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4493,19 @@
         <v>41.8136</v>
       </c>
       <c r="G129" t="n">
-        <v>442942.7828029887</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4527,19 @@
         <v>471.4101</v>
       </c>
       <c r="G130" t="n">
-        <v>442942.7828029887</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4561,19 @@
         <v>110504.3894</v>
       </c>
       <c r="G131" t="n">
-        <v>332438.3934029887</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,22 +4595,19 @@
         <v>7120</v>
       </c>
       <c r="G132" t="n">
-        <v>339558.3934029887</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="J132" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4775,24 +4629,19 @@
         <v>43443</v>
       </c>
       <c r="G133" t="n">
-        <v>383001.3934029887</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4814,24 +4663,19 @@
         <v>2026.6935</v>
       </c>
       <c r="G134" t="n">
-        <v>385028.0869029887</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4853,18 +4697,19 @@
         <v>306123.0557</v>
       </c>
       <c r="G135" t="n">
-        <v>78905.03120298864</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4886,18 +4731,19 @@
         <v>207579</v>
       </c>
       <c r="G136" t="n">
-        <v>-128673.9687970114</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4919,18 +4765,19 @@
         <v>37200</v>
       </c>
       <c r="G137" t="n">
-        <v>-128673.9687970114</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4952,18 +4799,19 @@
         <v>140131.2077</v>
       </c>
       <c r="G138" t="n">
-        <v>11457.23890298864</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4985,18 +4833,19 @@
         <v>41178.6323</v>
       </c>
       <c r="G139" t="n">
-        <v>52635.87120298864</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5018,18 +4867,19 @@
         <v>146295</v>
       </c>
       <c r="G140" t="n">
-        <v>198930.8712029886</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5051,18 +4901,19 @@
         <v>6000</v>
       </c>
       <c r="G141" t="n">
-        <v>192930.8712029886</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5084,18 +4935,19 @@
         <v>9523</v>
       </c>
       <c r="G142" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5117,18 +4969,19 @@
         <v>30096.1136</v>
       </c>
       <c r="G143" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5150,18 +5003,19 @@
         <v>2000</v>
       </c>
       <c r="G144" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5183,18 +5037,19 @@
         <v>336</v>
       </c>
       <c r="G145" t="n">
-        <v>202453.8712029886</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5216,18 +5071,19 @@
         <v>74.04559999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>202379.8256029886</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5249,18 +5105,19 @@
         <v>4000</v>
       </c>
       <c r="G147" t="n">
-        <v>206379.8256029886</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5282,18 +5139,19 @@
         <v>2263</v>
       </c>
       <c r="G148" t="n">
-        <v>206379.8256029886</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5315,18 +5173,17 @@
         <v>56924.8648</v>
       </c>
       <c r="G149" t="n">
-        <v>206379.8256029886</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5348,18 +5205,15 @@
         <v>56782.5526</v>
       </c>
       <c r="G150" t="n">
-        <v>149597.2730029886</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5381,18 +5235,15 @@
         <v>40024.5235</v>
       </c>
       <c r="G151" t="n">
-        <v>149597.2730029886</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5414,18 +5265,15 @@
         <v>26462.3447</v>
       </c>
       <c r="G152" t="n">
-        <v>149597.2730029886</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5447,18 +5295,15 @@
         <v>4224.8864</v>
       </c>
       <c r="G153" t="n">
-        <v>145372.3866029886</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5480,18 +5325,15 @@
         <v>4700</v>
       </c>
       <c r="G154" t="n">
-        <v>140672.3866029886</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5513,24 +5355,15 @@
         <v>14211.4327</v>
       </c>
       <c r="G155" t="n">
-        <v>140672.3866029886</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5552,24 +5385,15 @@
         <v>37515.2335</v>
       </c>
       <c r="G156" t="n">
-        <v>103157.1531029886</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5591,24 +5415,15 @@
         <v>6572.0297</v>
       </c>
       <c r="G157" t="n">
-        <v>109729.1828029886</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>20.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5630,24 +5445,15 @@
         <v>15073.5474</v>
       </c>
       <c r="G158" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>20.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5669,24 +5475,15 @@
         <v>956.937</v>
       </c>
       <c r="G159" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>20.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5708,24 +5505,15 @@
         <v>2614</v>
       </c>
       <c r="G160" t="n">
-        <v>124802.7302029886</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>20.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5747,24 +5535,15 @@
         <v>4000</v>
       </c>
       <c r="G161" t="n">
-        <v>128802.7302029886</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>20.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5786,24 +5565,15 @@
         <v>144</v>
       </c>
       <c r="G162" t="n">
-        <v>128658.7302029886</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5825,24 +5595,15 @@
         <v>16009</v>
       </c>
       <c r="G163" t="n">
-        <v>144667.7302029886</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>20.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5864,24 +5625,15 @@
         <v>8601</v>
       </c>
       <c r="G164" t="n">
-        <v>136066.7302029886</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5903,24 +5655,15 @@
         <v>1400</v>
       </c>
       <c r="G165" t="n">
-        <v>137466.7302029886</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5942,22 +5685,15 @@
         <v>33375</v>
       </c>
       <c r="G166" t="n">
-        <v>137466.7302029886</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5979,24 +5715,15 @@
         <v>3991.3482</v>
       </c>
       <c r="G167" t="n">
-        <v>141458.0784029886</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6018,22 +5745,15 @@
         <v>33052.092</v>
       </c>
       <c r="G168" t="n">
-        <v>108405.9864029886</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6055,24 +5775,15 @@
         <v>22276</v>
       </c>
       <c r="G169" t="n">
-        <v>86129.98640298864</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6094,24 +5805,15 @@
         <v>3000</v>
       </c>
       <c r="G170" t="n">
-        <v>89129.98640298864</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>21.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6133,24 +5835,15 @@
         <v>5486.1003</v>
       </c>
       <c r="G171" t="n">
-        <v>83643.88610298863</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6172,22 +5865,15 @@
         <v>3723.8059</v>
       </c>
       <c r="G172" t="n">
-        <v>87367.69200298864</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6209,22 +5895,15 @@
         <v>1951.2204</v>
       </c>
       <c r="G173" t="n">
-        <v>85416.47160298863</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6246,22 +5925,15 @@
         <v>9404</v>
       </c>
       <c r="G174" t="n">
-        <v>94820.47160298863</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6283,22 +5955,15 @@
         <v>551.0328</v>
       </c>
       <c r="G175" t="n">
-        <v>94820.47160298863</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6320,22 +5985,15 @@
         <v>48626.6673</v>
       </c>
       <c r="G176" t="n">
-        <v>46193.80430298863</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6357,24 +6015,15 @@
         <v>5160.174</v>
       </c>
       <c r="G177" t="n">
-        <v>51353.97830298863</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>20.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6396,24 +6045,15 @@
         <v>23041.7339</v>
       </c>
       <c r="G178" t="n">
-        <v>74395.71220298862</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>20.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6435,24 +6075,15 @@
         <v>2000</v>
       </c>
       <c r="G179" t="n">
-        <v>72395.71220298862</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6474,24 +6105,15 @@
         <v>10994.0337</v>
       </c>
       <c r="G180" t="n">
-        <v>61401.67850298862</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>21.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6513,24 +6135,15 @@
         <v>9500</v>
       </c>
       <c r="G181" t="n">
-        <v>70901.67850298862</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>20.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6552,24 +6165,15 @@
         <v>2000</v>
       </c>
       <c r="G182" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6591,24 +6195,15 @@
         <v>83</v>
       </c>
       <c r="G183" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6630,24 +6225,15 @@
         <v>11</v>
       </c>
       <c r="G184" t="n">
-        <v>68901.67850298862</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6669,24 +6255,15 @@
         <v>662</v>
       </c>
       <c r="G185" t="n">
-        <v>69563.67850298862</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6708,22 +6285,15 @@
         <v>4000</v>
       </c>
       <c r="G186" t="n">
-        <v>73563.67850298862</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6745,22 +6315,15 @@
         <v>14915.8796</v>
       </c>
       <c r="G187" t="n">
-        <v>58647.79890298862</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6782,22 +6345,15 @@
         <v>666.9861751152074</v>
       </c>
       <c r="G188" t="n">
-        <v>59314.78507810383</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6819,24 +6375,15 @@
         <v>91.61290322580645</v>
       </c>
       <c r="G189" t="n">
-        <v>59314.78507810383</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>21.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6858,24 +6405,15 @@
         <v>114.375</v>
       </c>
       <c r="G190" t="n">
-        <v>59200.41007810383</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>21.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6897,24 +6435,15 @@
         <v>14000</v>
       </c>
       <c r="G191" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6936,24 +6465,15 @@
         <v>24000</v>
       </c>
       <c r="G192" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6975,24 +6495,15 @@
         <v>528.1441</v>
       </c>
       <c r="G193" t="n">
-        <v>73200.41007810383</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
